--- a/docs/project2_tennis_pt_app.xlsx
+++ b/docs/project2_tennis_pt_app.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="-20" windowWidth="26500" windowHeight="17520" tabRatio="796" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="40" yWindow="-20" windowWidth="28720" windowHeight="17520" tabRatio="796" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Player_model" sheetId="2" r:id="rId1"/>
@@ -2297,7 +2297,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;''&quot;@&quot;''&quot;"/>
   </numFmts>
-  <fonts count="64" x14ac:knownFonts="1">
+  <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2661,6 +2661,25 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF660066"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF800000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF800000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -3443,7 +3462,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3740,9 +3759,6 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3880,18 +3896,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3973,9 +3980,6 @@
     <xf numFmtId="0" fontId="61" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4015,11 +4019,44 @@
     <xf numFmtId="0" fontId="53" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="64" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="346">
@@ -5714,7 +5751,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="14" customFormat="1" hidden="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="140" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="15"/>
@@ -5767,7 +5804,7 @@
       <c r="AI1" s="16"/>
     </row>
     <row r="2" spans="1:35" s="14" customFormat="1" hidden="1">
-      <c r="A2" s="142"/>
+      <c r="A2" s="141"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -5818,7 +5855,7 @@
       <c r="AI2" s="18"/>
     </row>
     <row r="3" spans="1:35" s="14" customFormat="1" hidden="1">
-      <c r="A3" s="142"/>
+      <c r="A3" s="141"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -5865,7 +5902,7 @@
       <c r="AI3" s="18"/>
     </row>
     <row r="4" spans="1:35" s="14" customFormat="1" hidden="1">
-      <c r="A4" s="142"/>
+      <c r="A4" s="141"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -5908,7 +5945,7 @@
       <c r="AI4" s="18"/>
     </row>
     <row r="5" spans="1:35" s="14" customFormat="1" hidden="1">
-      <c r="A5" s="142"/>
+      <c r="A5" s="141"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -5947,7 +5984,7 @@
       <c r="AI5" s="18"/>
     </row>
     <row r="6" spans="1:35" s="14" customFormat="1" hidden="1">
-      <c r="A6" s="142"/>
+      <c r="A6" s="141"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -5986,7 +6023,7 @@
       <c r="AI6" s="18"/>
     </row>
     <row r="7" spans="1:35" s="14" customFormat="1" hidden="1">
-      <c r="A7" s="142"/>
+      <c r="A7" s="141"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -6002,7 +6039,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
-      <c r="Q7" s="140"/>
+      <c r="Q7" s="139"/>
       <c r="R7" s="17" t="s">
         <v>34</v>
       </c>
@@ -6010,7 +6047,7 @@
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
-      <c r="W7" s="140"/>
+      <c r="W7" s="139"/>
       <c r="X7" s="13"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="18"/>
@@ -6072,33 +6109,33 @@
       <c r="B9" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="145" t="str">
+      <c r="C9" s="144" t="str">
         <f>CONCATENATE(B9,B18,B17,C18,C17,D18,D17,E18,E17,F18,F17,G18,G17,H18,H17,I18,I17,J18,J17,K18,K17,L18,L17,M18,M17,N18,N17,O18,O17,P18,P17,Q18,Q17,R18,R17,S18,S17,T18,T17,U18,U17,V18,V17,W18,W17,X18,X17)</f>
         <v xml:space="preserve">rails g scaffold Player first_name:string last_name:string user_name:string password:string photo:string team_name:string role:string gender:string age_category:string skill_level:string record_ind:integer record_team:integer phone_num:string phone_type:string email:string day_pref1:string time_pref1:string day_pref2:string time_pref2:string password_digest:string remember_token:string created_at:datetime updated_at:datetime </v>
       </c>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="146"/>
-      <c r="O9" s="146"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="146"/>
-      <c r="R9" s="146"/>
-      <c r="S9" s="146"/>
-      <c r="T9" s="146"/>
-      <c r="U9" s="146"/>
-      <c r="V9" s="146"/>
-      <c r="W9" s="146"/>
-      <c r="X9" s="146"/>
-      <c r="Y9" s="146"/>
-      <c r="Z9" s="147"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="145"/>
+      <c r="Q9" s="145"/>
+      <c r="R9" s="145"/>
+      <c r="S9" s="145"/>
+      <c r="T9" s="145"/>
+      <c r="U9" s="145"/>
+      <c r="V9" s="145"/>
+      <c r="W9" s="145"/>
+      <c r="X9" s="145"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="146"/>
     </row>
     <row r="10" spans="1:35" s="40" customFormat="1" ht="23" customHeight="1">
       <c r="A10" s="39" t="s">
@@ -6107,33 +6144,33 @@
       <c r="B10" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="145" t="str">
+      <c r="C10" s="144" t="str">
         <f>CONCATENATE(B10,Y18,Y17,Z18,Z17,AA18,AA17,AB18,AB17,AC18,AC17,AD18,AD17,AE18,AE17,AF18,AF17,AG18,AG17)</f>
         <v xml:space="preserve">rails g scaffold Match match_datetime:datetime match_loc_name:string match_note:text match_opp:string match_outcome:string match_score:integer match_loc_address:string created_at:datetime updated_at:datetime </v>
       </c>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="146"/>
-      <c r="N10" s="146"/>
-      <c r="O10" s="146"/>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="146"/>
-      <c r="R10" s="146"/>
-      <c r="S10" s="146"/>
-      <c r="T10" s="146"/>
-      <c r="U10" s="146"/>
-      <c r="V10" s="146"/>
-      <c r="W10" s="146"/>
-      <c r="X10" s="146"/>
-      <c r="Y10" s="146"/>
-      <c r="Z10" s="147"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
+      <c r="N10" s="145"/>
+      <c r="O10" s="145"/>
+      <c r="P10" s="145"/>
+      <c r="Q10" s="145"/>
+      <c r="R10" s="145"/>
+      <c r="S10" s="145"/>
+      <c r="T10" s="145"/>
+      <c r="U10" s="145"/>
+      <c r="V10" s="145"/>
+      <c r="W10" s="145"/>
+      <c r="X10" s="145"/>
+      <c r="Y10" s="145"/>
+      <c r="Z10" s="146"/>
     </row>
     <row r="11" spans="1:35" s="40" customFormat="1" ht="23" customHeight="1">
       <c r="A11" s="41" t="s">
@@ -6142,32 +6179,32 @@
       <c r="B11" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="145" t="s">
+      <c r="C11" s="144" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="146"/>
-      <c r="O11" s="146"/>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="146"/>
-      <c r="R11" s="146"/>
-      <c r="S11" s="146"/>
-      <c r="T11" s="146"/>
-      <c r="U11" s="146"/>
-      <c r="V11" s="146"/>
-      <c r="W11" s="146"/>
-      <c r="X11" s="146"/>
-      <c r="Y11" s="146"/>
-      <c r="Z11" s="147"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="145"/>
+      <c r="T11" s="145"/>
+      <c r="U11" s="145"/>
+      <c r="V11" s="145"/>
+      <c r="W11" s="145"/>
+      <c r="X11" s="145"/>
+      <c r="Y11" s="145"/>
+      <c r="Z11" s="146"/>
     </row>
     <row r="12" spans="1:35" s="9" customFormat="1" ht="17" customHeight="1">
       <c r="A12" s="26" t="s">
@@ -6242,37 +6279,37 @@
       <c r="X12" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="Y12" s="130" t="s">
+      <c r="Y12" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="Z12" s="130" t="s">
+      <c r="Z12" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="AA12" s="130" t="s">
+      <c r="AA12" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="AB12" s="130" t="s">
+      <c r="AB12" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="AC12" s="130" t="s">
+      <c r="AC12" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="AD12" s="130" t="s">
+      <c r="AD12" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="AE12" s="139" t="s">
+      <c r="AE12" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="AF12" s="139" t="s">
+      <c r="AF12" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="AG12" s="139" t="s">
+      <c r="AG12" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="AH12" s="124" t="s">
+      <c r="AH12" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="AI12" s="124" t="s">
+      <c r="AI12" s="123" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6349,31 +6386,31 @@
       <c r="X13" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="Y13" s="131" t="s">
+      <c r="Y13" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="Z13" s="131" t="s">
+      <c r="Z13" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="AA13" s="131" t="s">
+      <c r="AA13" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="AB13" s="131" t="s">
+      <c r="AB13" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="AC13" s="131" t="s">
+      <c r="AC13" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="AD13" s="131" t="s">
+      <c r="AD13" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="AE13" s="131" t="s">
+      <c r="AE13" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="AF13" s="131"/>
-      <c r="AG13" s="131"/>
-      <c r="AH13" s="125"/>
-      <c r="AI13" s="125"/>
+      <c r="AF13" s="130"/>
+      <c r="AG13" s="130"/>
+      <c r="AH13" s="124"/>
+      <c r="AI13" s="124"/>
     </row>
     <row r="14" spans="1:35" s="4" customFormat="1" ht="17" customHeight="1">
       <c r="A14" s="27" t="s">
@@ -6440,21 +6477,21 @@
       <c r="X14" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="Y14" s="132"/>
-      <c r="Z14" s="132" t="s">
+      <c r="Y14" s="131"/>
+      <c r="Z14" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="AA14" s="132"/>
-      <c r="AB14" s="132" t="s">
+      <c r="AA14" s="131"/>
+      <c r="AB14" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="AC14" s="132"/>
-      <c r="AD14" s="132"/>
-      <c r="AE14" s="132"/>
-      <c r="AF14" s="132"/>
-      <c r="AG14" s="132"/>
-      <c r="AH14" s="126"/>
-      <c r="AI14" s="126"/>
+      <c r="AC14" s="131"/>
+      <c r="AD14" s="131"/>
+      <c r="AE14" s="131"/>
+      <c r="AF14" s="131"/>
+      <c r="AG14" s="131"/>
+      <c r="AH14" s="125"/>
+      <c r="AI14" s="125"/>
     </row>
     <row r="15" spans="1:35" s="23" customFormat="1" ht="17" customHeight="1">
       <c r="A15" s="29" t="s">
@@ -6525,29 +6562,29 @@
       </c>
       <c r="W15" s="22"/>
       <c r="X15" s="22"/>
-      <c r="Y15" s="133" t="s">
+      <c r="Y15" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="Z15" s="133" t="s">
+      <c r="Z15" s="132" t="s">
         <v>250</v>
       </c>
-      <c r="AA15" s="133" t="s">
+      <c r="AA15" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="AB15" s="133" t="s">
+      <c r="AB15" s="132" t="s">
         <v>105</v>
       </c>
-      <c r="AC15" s="133" t="s">
+      <c r="AC15" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="AD15" s="134" t="s">
+      <c r="AD15" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="AE15" s="134"/>
-      <c r="AF15" s="134"/>
-      <c r="AG15" s="134"/>
-      <c r="AH15" s="127"/>
-      <c r="AI15" s="127"/>
+      <c r="AE15" s="133"/>
+      <c r="AF15" s="133"/>
+      <c r="AG15" s="133"/>
+      <c r="AH15" s="126"/>
+      <c r="AI15" s="126"/>
     </row>
     <row r="16" spans="1:35" ht="17" customHeight="1">
       <c r="A16" s="27" t="s">
@@ -6622,33 +6659,33 @@
       <c r="X16" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="Y16" s="135" t="s">
+      <c r="Y16" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="Z16" s="135" t="s">
+      <c r="Z16" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="AA16" s="135" t="s">
+      <c r="AA16" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="AB16" s="135" t="s">
+      <c r="AB16" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="AC16" s="135" t="s">
+      <c r="AC16" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="AD16" s="135" t="s">
+      <c r="AD16" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="AE16" s="135"/>
-      <c r="AF16" s="135" t="s">
+      <c r="AE16" s="134"/>
+      <c r="AF16" s="134" t="s">
         <v>267</v>
       </c>
-      <c r="AG16" s="135" t="s">
+      <c r="AG16" s="134" t="s">
         <v>267</v>
       </c>
-      <c r="AH16" s="128"/>
-      <c r="AI16" s="128"/>
+      <c r="AH16" s="127"/>
+      <c r="AI16" s="127"/>
     </row>
     <row r="17" spans="1:35" ht="17" customHeight="1">
       <c r="A17" s="27" t="s">
@@ -6723,1965 +6760,1965 @@
       <c r="X17" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="Y17" s="135" t="s">
+      <c r="Y17" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="Z17" s="135" t="s">
+      <c r="Z17" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="AA17" s="135" t="s">
+      <c r="AA17" s="134" t="s">
         <v>141</v>
       </c>
-      <c r="AB17" s="135" t="s">
+      <c r="AB17" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="AC17" s="135" t="s">
+      <c r="AC17" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="AD17" s="132" t="s">
+      <c r="AD17" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="AE17" s="135" t="s">
+      <c r="AE17" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="AF17" s="132" t="s">
+      <c r="AF17" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="AG17" s="132" t="s">
+      <c r="AG17" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="AH17" s="126"/>
-      <c r="AI17" s="126"/>
-    </row>
-    <row r="18" spans="1:35" s="121" customFormat="1" ht="17" customHeight="1">
-      <c r="A18" s="118" t="s">
+      <c r="AH17" s="125"/>
+      <c r="AI17" s="125"/>
+    </row>
+    <row r="18" spans="1:35" s="120" customFormat="1" ht="17" customHeight="1">
+      <c r="A18" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="119" t="s">
+      <c r="B18" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="120" t="s">
+      <c r="D18" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="E18" s="119" t="s">
+      <c r="E18" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="119" t="s">
+      <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="119" t="s">
+      <c r="G18" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="119" t="s">
+      <c r="H18" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="I18" s="119" t="s">
+      <c r="I18" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="119" t="s">
+      <c r="J18" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="119" t="s">
+      <c r="K18" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="L18" s="120" t="s">
+      <c r="L18" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="M18" s="120" t="s">
+      <c r="M18" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="N18" s="119" t="s">
+      <c r="N18" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="119" t="s">
+      <c r="O18" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="P18" s="119" t="s">
+      <c r="P18" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="Q18" s="119" t="s">
+      <c r="Q18" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="R18" s="119" t="s">
+      <c r="R18" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="S18" s="119" t="s">
+      <c r="S18" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="T18" s="119" t="s">
+      <c r="T18" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="U18" s="119" t="s">
+      <c r="U18" s="118" t="s">
         <v>259</v>
       </c>
-      <c r="V18" s="119" t="s">
+      <c r="V18" s="118" t="s">
         <v>263</v>
       </c>
-      <c r="W18" s="119" t="s">
+      <c r="W18" s="118" t="s">
         <v>264</v>
       </c>
-      <c r="X18" s="119" t="s">
+      <c r="X18" s="118" t="s">
         <v>265</v>
       </c>
-      <c r="Y18" s="136" t="s">
+      <c r="Y18" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="Z18" s="136" t="s">
+      <c r="Z18" s="135" t="s">
         <v>261</v>
       </c>
-      <c r="AA18" s="136" t="s">
+      <c r="AA18" s="135" t="s">
         <v>140</v>
       </c>
-      <c r="AB18" s="136" t="s">
+      <c r="AB18" s="135" t="s">
         <v>137</v>
       </c>
-      <c r="AC18" s="136" t="s">
+      <c r="AC18" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="AD18" s="136" t="s">
+      <c r="AD18" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="AE18" s="136" t="s">
+      <c r="AE18" s="135" t="s">
         <v>262</v>
       </c>
-      <c r="AF18" s="137" t="s">
+      <c r="AF18" s="136" t="s">
         <v>264</v>
       </c>
-      <c r="AG18" s="138" t="s">
+      <c r="AG18" s="137" t="s">
         <v>265</v>
       </c>
-      <c r="AH18" s="129"/>
-      <c r="AI18" s="129"/>
+      <c r="AH18" s="128"/>
+      <c r="AI18" s="128"/>
     </row>
     <row r="19" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="122" t="s">
+      <c r="B19" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="123" t="str">
+      <c r="D19" s="122" t="str">
         <f t="shared" ref="D19:D43" si="0">IF(P19="","",P19)</f>
         <v>Kevin.Hobbs@blahblah.com</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F19" s="122" t="s">
+      <c r="F19" s="121" t="s">
         <v>256</v>
       </c>
-      <c r="G19" s="122" t="s">
+      <c r="G19" s="121" t="s">
         <v>241</v>
       </c>
-      <c r="H19" s="122" t="s">
+      <c r="H19" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I19" s="122" t="s">
+      <c r="I19" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="122" t="s">
+      <c r="J19" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K19" s="122" t="s">
+      <c r="K19" s="121" t="s">
         <v>242</v>
       </c>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
       <c r="N19" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O19" s="122" t="s">
+      <c r="O19" s="121" t="s">
         <v>253</v>
       </c>
-      <c r="P19" s="122" t="str">
+      <c r="P19" s="121" t="str">
         <f t="shared" ref="P19:P43" si="1">CONCATENATE(B19,".",C19,"@blahblah.com")</f>
         <v>Kevin.Hobbs@blahblah.com</v>
       </c>
-      <c r="Q19" s="122" t="s">
+      <c r="Q19" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="R19" s="122" t="s">
+      <c r="R19" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="122" t="s">
+      <c r="S19" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="T19" s="122" t="s">
+      <c r="T19" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="U19" s="122"/>
-      <c r="V19" s="122"/>
-      <c r="W19" s="122"/>
-      <c r="X19" s="122"/>
+      <c r="U19" s="121"/>
+      <c r="V19" s="121"/>
+      <c r="W19" s="121"/>
+      <c r="X19" s="121"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
-      <c r="AE19" s="122"/>
-      <c r="AF19" s="122"/>
-      <c r="AG19" s="122"/>
-      <c r="AH19" s="122"/>
-      <c r="AI19" s="122"/>
+      <c r="AE19" s="121"/>
+      <c r="AF19" s="121"/>
+      <c r="AG19" s="121"/>
+      <c r="AH19" s="121"/>
+      <c r="AI19" s="121"/>
     </row>
     <row r="20" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A20" s="144"/>
-      <c r="B20" s="122" t="s">
+      <c r="A20" s="143"/>
+      <c r="B20" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="122" t="s">
+      <c r="C20" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="123" t="str">
+      <c r="D20" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Kim.Sammons@blahblah.com</v>
       </c>
-      <c r="E20" s="122" t="s">
+      <c r="E20" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F20" s="122" t="s">
+      <c r="F20" s="121" t="s">
         <v>257</v>
       </c>
-      <c r="G20" s="122" t="s">
+      <c r="G20" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="H20" s="122" t="s">
+      <c r="H20" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I20" s="122" t="s">
+      <c r="I20" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="122" t="s">
+      <c r="J20" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K20" s="122" t="s">
+      <c r="K20" s="121" t="s">
         <v>242</v>
       </c>
-      <c r="L20" s="117"/>
-      <c r="M20" s="117"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
       <c r="N20" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O20" s="122" t="s">
+      <c r="O20" s="121" t="s">
         <v>252</v>
       </c>
-      <c r="P20" s="122" t="str">
+      <c r="P20" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Kim.Sammons@blahblah.com</v>
       </c>
-      <c r="Q20" s="122" t="s">
+      <c r="Q20" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="R20" s="122" t="s">
+      <c r="R20" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="S20" s="122" t="s">
+      <c r="S20" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="T20" s="122" t="s">
+      <c r="T20" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="U20" s="122"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="122"/>
-      <c r="X20" s="122"/>
+      <c r="U20" s="121"/>
+      <c r="V20" s="121"/>
+      <c r="W20" s="121"/>
+      <c r="X20" s="121"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
-      <c r="AE20" s="122"/>
-      <c r="AF20" s="122"/>
-      <c r="AG20" s="122"/>
-      <c r="AH20" s="122"/>
-      <c r="AI20" s="122"/>
+      <c r="AE20" s="121"/>
+      <c r="AF20" s="121"/>
+      <c r="AG20" s="121"/>
+      <c r="AH20" s="121"/>
+      <c r="AI20" s="121"/>
     </row>
     <row r="21" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A21" s="144"/>
-      <c r="B21" s="122" t="s">
+      <c r="A21" s="143"/>
+      <c r="B21" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="122" t="s">
+      <c r="C21" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="123" t="str">
+      <c r="D21" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Brad.Mackett@blahblah.com</v>
       </c>
-      <c r="E21" s="122" t="s">
+      <c r="E21" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F21" s="122" t="s">
+      <c r="F21" s="121" t="s">
         <v>256</v>
       </c>
-      <c r="G21" s="122" t="s">
+      <c r="G21" s="121" t="s">
         <v>241</v>
       </c>
-      <c r="H21" s="122" t="s">
+      <c r="H21" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="122" t="s">
+      <c r="I21" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="J21" s="122" t="s">
+      <c r="J21" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K21" s="122" t="s">
+      <c r="K21" s="121" t="s">
         <v>243</v>
       </c>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="116"/>
       <c r="N21" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O21" s="122" t="s">
+      <c r="O21" s="121" t="s">
         <v>251</v>
       </c>
-      <c r="P21" s="122" t="str">
+      <c r="P21" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Brad.Mackett@blahblah.com</v>
       </c>
-      <c r="Q21" s="122" t="s">
+      <c r="Q21" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="R21" s="122" t="s">
+      <c r="R21" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="S21" s="122" t="s">
+      <c r="S21" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="T21" s="122" t="s">
+      <c r="T21" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="U21" s="122"/>
-      <c r="V21" s="122"/>
-      <c r="W21" s="122"/>
-      <c r="X21" s="122"/>
+      <c r="U21" s="121"/>
+      <c r="V21" s="121"/>
+      <c r="W21" s="121"/>
+      <c r="X21" s="121"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
-      <c r="AE21" s="122"/>
-      <c r="AF21" s="122"/>
-      <c r="AG21" s="122"/>
-      <c r="AH21" s="122"/>
-      <c r="AI21" s="122"/>
+      <c r="AE21" s="121"/>
+      <c r="AF21" s="121"/>
+      <c r="AG21" s="121"/>
+      <c r="AH21" s="121"/>
+      <c r="AI21" s="121"/>
     </row>
     <row r="22" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A22" s="144"/>
-      <c r="B22" s="122" t="s">
+      <c r="A22" s="143"/>
+      <c r="B22" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="122" t="s">
+      <c r="C22" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="123" t="str">
+      <c r="D22" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Eileen.Mackett@blahblah.com</v>
       </c>
-      <c r="E22" s="122" t="s">
+      <c r="E22" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F22" s="122" t="s">
+      <c r="F22" s="121" t="s">
         <v>257</v>
       </c>
-      <c r="G22" s="122" t="s">
+      <c r="G22" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="H22" s="122" t="s">
+      <c r="H22" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="I22" s="122" t="s">
+      <c r="I22" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="122" t="s">
+      <c r="J22" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K22" s="122" t="s">
+      <c r="K22" s="121" t="s">
         <v>243</v>
       </c>
-      <c r="L22" s="117"/>
-      <c r="M22" s="117"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
       <c r="N22" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O22" s="122" t="s">
+      <c r="O22" s="121" t="s">
         <v>253</v>
       </c>
-      <c r="P22" s="122" t="str">
+      <c r="P22" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Eileen.Mackett@blahblah.com</v>
       </c>
-      <c r="Q22" s="122" t="s">
+      <c r="Q22" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="R22" s="122" t="s">
+      <c r="R22" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="S22" s="122" t="s">
+      <c r="S22" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="T22" s="122" t="s">
+      <c r="T22" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="U22" s="122"/>
-      <c r="V22" s="122"/>
-      <c r="W22" s="122"/>
-      <c r="X22" s="122"/>
+      <c r="U22" s="121"/>
+      <c r="V22" s="121"/>
+      <c r="W22" s="121"/>
+      <c r="X22" s="121"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
-      <c r="AE22" s="122"/>
-      <c r="AF22" s="122"/>
-      <c r="AG22" s="122"/>
-      <c r="AH22" s="122"/>
-      <c r="AI22" s="122"/>
+      <c r="AE22" s="121"/>
+      <c r="AF22" s="121"/>
+      <c r="AG22" s="121"/>
+      <c r="AH22" s="121"/>
+      <c r="AI22" s="121"/>
     </row>
     <row r="23" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A23" s="144"/>
-      <c r="B23" s="122" t="s">
+      <c r="A23" s="143"/>
+      <c r="B23" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="122" t="s">
+      <c r="C23" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="123" t="str">
+      <c r="D23" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Kevin.Scollard@blahblah.com</v>
       </c>
-      <c r="E23" s="122" t="s">
+      <c r="E23" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F23" s="122" t="s">
+      <c r="F23" s="121" t="s">
         <v>256</v>
       </c>
-      <c r="G23" s="122" t="s">
+      <c r="G23" s="121" t="s">
         <v>241</v>
       </c>
-      <c r="H23" s="122" t="s">
+      <c r="H23" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I23" s="122" t="s">
+      <c r="I23" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="J23" s="122" t="s">
+      <c r="J23" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="122" t="s">
+      <c r="K23" s="121" t="s">
         <v>243</v>
       </c>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="116"/>
       <c r="N23" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O23" s="122" t="s">
+      <c r="O23" s="121" t="s">
         <v>252</v>
       </c>
-      <c r="P23" s="122" t="str">
+      <c r="P23" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Kevin.Scollard@blahblah.com</v>
       </c>
-      <c r="Q23" s="122" t="s">
+      <c r="Q23" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="R23" s="122" t="s">
+      <c r="R23" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="S23" s="122" t="s">
+      <c r="S23" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="T23" s="122" t="s">
+      <c r="T23" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="U23" s="122"/>
-      <c r="V23" s="122"/>
-      <c r="W23" s="122"/>
-      <c r="X23" s="122"/>
+      <c r="U23" s="121"/>
+      <c r="V23" s="121"/>
+      <c r="W23" s="121"/>
+      <c r="X23" s="121"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
-      <c r="AE23" s="122"/>
-      <c r="AF23" s="122"/>
-      <c r="AG23" s="122"/>
-      <c r="AH23" s="122"/>
-      <c r="AI23" s="122"/>
+      <c r="AE23" s="121"/>
+      <c r="AF23" s="121"/>
+      <c r="AG23" s="121"/>
+      <c r="AH23" s="121"/>
+      <c r="AI23" s="121"/>
     </row>
     <row r="24" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A24" s="144"/>
-      <c r="B24" s="122" t="s">
+      <c r="A24" s="143"/>
+      <c r="B24" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="122" t="s">
+      <c r="C24" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="123" t="str">
+      <c r="D24" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Tim.Smith@blahblah.com</v>
       </c>
-      <c r="E24" s="122" t="s">
+      <c r="E24" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F24" s="122" t="s">
+      <c r="F24" s="121" t="s">
         <v>256</v>
       </c>
-      <c r="G24" s="122" t="s">
+      <c r="G24" s="121" t="s">
         <v>241</v>
       </c>
-      <c r="H24" s="122" t="s">
+      <c r="H24" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I24" s="122" t="s">
+      <c r="I24" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="J24" s="122" t="s">
+      <c r="J24" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K24" s="122" t="s">
+      <c r="K24" s="121" t="s">
         <v>243</v>
       </c>
-      <c r="L24" s="117"/>
-      <c r="M24" s="117"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
       <c r="N24" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O24" s="122" t="s">
+      <c r="O24" s="121" t="s">
         <v>251</v>
       </c>
-      <c r="P24" s="122" t="str">
+      <c r="P24" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Tim.Smith@blahblah.com</v>
       </c>
-      <c r="Q24" s="122" t="s">
+      <c r="Q24" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="R24" s="122" t="s">
+      <c r="R24" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="S24" s="122" t="s">
+      <c r="S24" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="T24" s="122" t="s">
+      <c r="T24" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="U24" s="122"/>
-      <c r="V24" s="122"/>
-      <c r="W24" s="122"/>
-      <c r="X24" s="122"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="121"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
-      <c r="AE24" s="122"/>
-      <c r="AF24" s="122"/>
-      <c r="AG24" s="122"/>
-      <c r="AH24" s="122"/>
-      <c r="AI24" s="122"/>
+      <c r="AE24" s="121"/>
+      <c r="AF24" s="121"/>
+      <c r="AG24" s="121"/>
+      <c r="AH24" s="121"/>
+      <c r="AI24" s="121"/>
     </row>
     <row r="25" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A25" s="144"/>
-      <c r="B25" s="122" t="s">
+      <c r="A25" s="143"/>
+      <c r="B25" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="122" t="s">
+      <c r="C25" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="123" t="str">
+      <c r="D25" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Michelle.Smith@blahblah.com</v>
       </c>
-      <c r="E25" s="122" t="s">
+      <c r="E25" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F25" s="122" t="s">
+      <c r="F25" s="121" t="s">
         <v>257</v>
       </c>
-      <c r="G25" s="122" t="s">
+      <c r="G25" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="H25" s="122" t="s">
+      <c r="H25" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I25" s="122" t="s">
+      <c r="I25" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="J25" s="122" t="s">
+      <c r="J25" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K25" s="122" t="s">
+      <c r="K25" s="121" t="s">
         <v>242</v>
       </c>
-      <c r="L25" s="117"/>
-      <c r="M25" s="117"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="116"/>
       <c r="N25" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O25" s="122" t="s">
+      <c r="O25" s="121" t="s">
         <v>253</v>
       </c>
-      <c r="P25" s="122" t="str">
+      <c r="P25" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Michelle.Smith@blahblah.com</v>
       </c>
-      <c r="Q25" s="122" t="s">
+      <c r="Q25" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="R25" s="122" t="s">
+      <c r="R25" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="S25" s="122" t="s">
+      <c r="S25" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="T25" s="122" t="s">
+      <c r="T25" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="U25" s="122"/>
-      <c r="V25" s="122"/>
-      <c r="W25" s="122"/>
-      <c r="X25" s="122"/>
+      <c r="U25" s="121"/>
+      <c r="V25" s="121"/>
+      <c r="W25" s="121"/>
+      <c r="X25" s="121"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
-      <c r="AE25" s="122"/>
-      <c r="AF25" s="122"/>
-      <c r="AG25" s="122"/>
-      <c r="AH25" s="122"/>
-      <c r="AI25" s="122"/>
+      <c r="AE25" s="121"/>
+      <c r="AF25" s="121"/>
+      <c r="AG25" s="121"/>
+      <c r="AH25" s="121"/>
+      <c r="AI25" s="121"/>
     </row>
     <row r="26" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A26" s="144"/>
-      <c r="B26" s="122" t="s">
+      <c r="A26" s="143"/>
+      <c r="B26" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="122" t="s">
+      <c r="C26" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="123" t="str">
+      <c r="D26" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Ian.Hastings@blahblah.com</v>
       </c>
-      <c r="E26" s="122" t="s">
+      <c r="E26" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F26" s="122" t="s">
+      <c r="F26" s="121" t="s">
         <v>256</v>
       </c>
-      <c r="G26" s="122" t="s">
+      <c r="G26" s="121" t="s">
         <v>241</v>
       </c>
-      <c r="H26" s="122" t="s">
+      <c r="H26" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I26" s="122" t="s">
+      <c r="I26" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="J26" s="122" t="s">
+      <c r="J26" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K26" s="122" t="s">
+      <c r="K26" s="121" t="s">
         <v>244</v>
       </c>
-      <c r="L26" s="117"/>
-      <c r="M26" s="117"/>
+      <c r="L26" s="116"/>
+      <c r="M26" s="116"/>
       <c r="N26" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O26" s="122" t="s">
+      <c r="O26" s="121" t="s">
         <v>252</v>
       </c>
-      <c r="P26" s="122" t="str">
+      <c r="P26" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Ian.Hastings@blahblah.com</v>
       </c>
-      <c r="Q26" s="122" t="s">
+      <c r="Q26" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="R26" s="122" t="s">
+      <c r="R26" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="S26" s="122" t="s">
+      <c r="S26" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="T26" s="122" t="s">
+      <c r="T26" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="U26" s="122"/>
-      <c r="V26" s="122"/>
-      <c r="W26" s="122"/>
-      <c r="X26" s="122"/>
+      <c r="U26" s="121"/>
+      <c r="V26" s="121"/>
+      <c r="W26" s="121"/>
+      <c r="X26" s="121"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
-      <c r="AE26" s="122"/>
-      <c r="AF26" s="122"/>
-      <c r="AG26" s="122"/>
-      <c r="AH26" s="122"/>
-      <c r="AI26" s="122"/>
+      <c r="AE26" s="121"/>
+      <c r="AF26" s="121"/>
+      <c r="AG26" s="121"/>
+      <c r="AH26" s="121"/>
+      <c r="AI26" s="121"/>
     </row>
     <row r="27" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A27" s="144"/>
-      <c r="B27" s="122" t="s">
+      <c r="A27" s="143"/>
+      <c r="B27" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="122" t="s">
+      <c r="C27" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="123" t="str">
+      <c r="D27" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Beth.Hastings@blahblah.com</v>
       </c>
-      <c r="E27" s="122" t="s">
+      <c r="E27" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F27" s="122" t="s">
+      <c r="F27" s="121" t="s">
         <v>257</v>
       </c>
-      <c r="G27" s="122" t="s">
+      <c r="G27" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="H27" s="122" t="s">
+      <c r="H27" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I27" s="122" t="s">
+      <c r="I27" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="J27" s="122" t="s">
+      <c r="J27" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K27" s="122" t="s">
+      <c r="K27" s="121" t="s">
         <v>245</v>
       </c>
-      <c r="L27" s="117"/>
-      <c r="M27" s="117"/>
+      <c r="L27" s="116"/>
+      <c r="M27" s="116"/>
       <c r="N27" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O27" s="122" t="s">
+      <c r="O27" s="121" t="s">
         <v>251</v>
       </c>
-      <c r="P27" s="122" t="str">
+      <c r="P27" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Beth.Hastings@blahblah.com</v>
       </c>
-      <c r="Q27" s="122" t="s">
+      <c r="Q27" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="R27" s="122" t="s">
+      <c r="R27" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="S27" s="122" t="s">
+      <c r="S27" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="T27" s="122" t="s">
+      <c r="T27" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="U27" s="122"/>
-      <c r="V27" s="122"/>
-      <c r="W27" s="122"/>
-      <c r="X27" s="122"/>
+      <c r="U27" s="121"/>
+      <c r="V27" s="121"/>
+      <c r="W27" s="121"/>
+      <c r="X27" s="121"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
-      <c r="AE27" s="122"/>
-      <c r="AF27" s="122"/>
-      <c r="AG27" s="122"/>
-      <c r="AH27" s="122"/>
-      <c r="AI27" s="122"/>
+      <c r="AE27" s="121"/>
+      <c r="AF27" s="121"/>
+      <c r="AG27" s="121"/>
+      <c r="AH27" s="121"/>
+      <c r="AI27" s="121"/>
     </row>
     <row r="28" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A28" s="144"/>
-      <c r="B28" s="122" t="s">
+      <c r="A28" s="143"/>
+      <c r="B28" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="122" t="s">
+      <c r="C28" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="123" t="str">
+      <c r="D28" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Lola.Kress@blahblah.com</v>
       </c>
-      <c r="E28" s="122" t="s">
+      <c r="E28" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F28" s="122" t="s">
+      <c r="F28" s="121" t="s">
         <v>257</v>
       </c>
-      <c r="G28" s="122" t="s">
+      <c r="G28" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="H28" s="122" t="s">
+      <c r="H28" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I28" s="122" t="s">
+      <c r="I28" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="J28" s="122" t="s">
+      <c r="J28" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K28" s="122" t="s">
+      <c r="K28" s="121" t="s">
         <v>246</v>
       </c>
-      <c r="L28" s="117"/>
-      <c r="M28" s="117"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="116"/>
       <c r="N28" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O28" s="122" t="s">
+      <c r="O28" s="121" t="s">
         <v>253</v>
       </c>
-      <c r="P28" s="122" t="str">
+      <c r="P28" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Lola.Kress@blahblah.com</v>
       </c>
-      <c r="Q28" s="122" t="s">
+      <c r="Q28" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="R28" s="122" t="s">
+      <c r="R28" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="S28" s="122" t="s">
+      <c r="S28" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="T28" s="122" t="s">
+      <c r="T28" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="U28" s="122"/>
-      <c r="V28" s="122"/>
-      <c r="W28" s="122"/>
-      <c r="X28" s="122"/>
+      <c r="U28" s="121"/>
+      <c r="V28" s="121"/>
+      <c r="W28" s="121"/>
+      <c r="X28" s="121"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
-      <c r="AE28" s="122"/>
-      <c r="AF28" s="122"/>
-      <c r="AG28" s="122"/>
-      <c r="AH28" s="122"/>
-      <c r="AI28" s="122"/>
+      <c r="AE28" s="121"/>
+      <c r="AF28" s="121"/>
+      <c r="AG28" s="121"/>
+      <c r="AH28" s="121"/>
+      <c r="AI28" s="121"/>
     </row>
     <row r="29" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A29" s="144"/>
-      <c r="B29" s="122" t="s">
+      <c r="A29" s="143"/>
+      <c r="B29" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="122" t="s">
+      <c r="C29" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="123" t="str">
+      <c r="D29" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Jason.Naylor@blahblah.com</v>
       </c>
-      <c r="E29" s="122" t="s">
+      <c r="E29" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F29" s="122" t="s">
+      <c r="F29" s="121" t="s">
         <v>256</v>
       </c>
-      <c r="G29" s="122" t="s">
+      <c r="G29" s="121" t="s">
         <v>241</v>
       </c>
-      <c r="H29" s="122" t="s">
+      <c r="H29" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I29" s="122" t="s">
+      <c r="I29" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="J29" s="122" t="s">
+      <c r="J29" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K29" s="122" t="s">
+      <c r="K29" s="121" t="s">
         <v>244</v>
       </c>
-      <c r="L29" s="117"/>
-      <c r="M29" s="117"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="116"/>
       <c r="N29" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O29" s="122" t="s">
+      <c r="O29" s="121" t="s">
         <v>252</v>
       </c>
-      <c r="P29" s="122" t="str">
+      <c r="P29" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Jason.Naylor@blahblah.com</v>
       </c>
-      <c r="Q29" s="122" t="s">
+      <c r="Q29" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="122" t="s">
+      <c r="R29" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="S29" s="122" t="s">
+      <c r="S29" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="T29" s="122" t="s">
+      <c r="T29" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="U29" s="122"/>
-      <c r="V29" s="122"/>
-      <c r="W29" s="122"/>
-      <c r="X29" s="122"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="121"/>
+      <c r="W29" s="121"/>
+      <c r="X29" s="121"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
-      <c r="AE29" s="122"/>
-      <c r="AF29" s="122"/>
-      <c r="AG29" s="122"/>
-      <c r="AH29" s="122"/>
-      <c r="AI29" s="122"/>
+      <c r="AE29" s="121"/>
+      <c r="AF29" s="121"/>
+      <c r="AG29" s="121"/>
+      <c r="AH29" s="121"/>
+      <c r="AI29" s="121"/>
     </row>
     <row r="30" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A30" s="144"/>
-      <c r="B30" s="122" t="s">
+      <c r="A30" s="143"/>
+      <c r="B30" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="122" t="s">
+      <c r="C30" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="123" t="str">
+      <c r="D30" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Karen.Draper@blahblah.com</v>
       </c>
-      <c r="E30" s="122" t="s">
+      <c r="E30" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F30" s="122" t="s">
+      <c r="F30" s="121" t="s">
         <v>257</v>
       </c>
-      <c r="G30" s="122" t="s">
+      <c r="G30" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="H30" s="122" t="s">
+      <c r="H30" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I30" s="122" t="s">
+      <c r="I30" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="J30" s="122" t="s">
+      <c r="J30" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K30" s="122" t="s">
+      <c r="K30" s="121" t="s">
         <v>245</v>
       </c>
-      <c r="L30" s="117"/>
-      <c r="M30" s="117"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
       <c r="N30" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O30" s="122" t="s">
+      <c r="O30" s="121" t="s">
         <v>251</v>
       </c>
-      <c r="P30" s="122" t="str">
+      <c r="P30" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Karen.Draper@blahblah.com</v>
       </c>
-      <c r="Q30" s="122" t="s">
+      <c r="Q30" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="R30" s="122" t="s">
+      <c r="R30" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="S30" s="122" t="s">
+      <c r="S30" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="T30" s="122" t="s">
+      <c r="T30" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="U30" s="122"/>
-      <c r="V30" s="122"/>
-      <c r="W30" s="122"/>
-      <c r="X30" s="122"/>
+      <c r="U30" s="121"/>
+      <c r="V30" s="121"/>
+      <c r="W30" s="121"/>
+      <c r="X30" s="121"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
-      <c r="AE30" s="122"/>
-      <c r="AF30" s="122"/>
-      <c r="AG30" s="122"/>
-      <c r="AH30" s="122"/>
-      <c r="AI30" s="122"/>
+      <c r="AE30" s="121"/>
+      <c r="AF30" s="121"/>
+      <c r="AG30" s="121"/>
+      <c r="AH30" s="121"/>
+      <c r="AI30" s="121"/>
     </row>
     <row r="31" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A31" s="144"/>
-      <c r="B31" s="122" t="s">
+      <c r="A31" s="143"/>
+      <c r="B31" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="122" t="s">
+      <c r="C31" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="123" t="str">
+      <c r="D31" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Chris.Draper@blahblah.com</v>
       </c>
-      <c r="E31" s="122" t="s">
+      <c r="E31" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F31" s="122" t="s">
+      <c r="F31" s="121" t="s">
         <v>256</v>
       </c>
-      <c r="G31" s="122" t="s">
+      <c r="G31" s="121" t="s">
         <v>241</v>
       </c>
-      <c r="H31" s="122" t="s">
+      <c r="H31" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I31" s="122" t="s">
+      <c r="I31" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="J31" s="122" t="s">
+      <c r="J31" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K31" s="122" t="s">
+      <c r="K31" s="121" t="s">
         <v>243</v>
       </c>
-      <c r="L31" s="117"/>
-      <c r="M31" s="117"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="116"/>
       <c r="N31" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O31" s="122" t="s">
+      <c r="O31" s="121" t="s">
         <v>253</v>
       </c>
-      <c r="P31" s="122" t="str">
+      <c r="P31" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Chris.Draper@blahblah.com</v>
       </c>
-      <c r="Q31" s="122" t="s">
+      <c r="Q31" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="R31" s="122" t="s">
+      <c r="R31" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="S31" s="122" t="s">
+      <c r="S31" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="T31" s="122" t="s">
+      <c r="T31" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="U31" s="122"/>
-      <c r="V31" s="122"/>
-      <c r="W31" s="122"/>
-      <c r="X31" s="122"/>
+      <c r="U31" s="121"/>
+      <c r="V31" s="121"/>
+      <c r="W31" s="121"/>
+      <c r="X31" s="121"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
-      <c r="AE31" s="122"/>
-      <c r="AF31" s="122"/>
-      <c r="AG31" s="122"/>
-      <c r="AH31" s="122"/>
-      <c r="AI31" s="122"/>
+      <c r="AE31" s="121"/>
+      <c r="AF31" s="121"/>
+      <c r="AG31" s="121"/>
+      <c r="AH31" s="121"/>
+      <c r="AI31" s="121"/>
     </row>
     <row r="32" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A32" s="144"/>
-      <c r="B32" s="122" t="s">
+      <c r="A32" s="143"/>
+      <c r="B32" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="122" t="s">
+      <c r="C32" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="123" t="str">
+      <c r="D32" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Scott.Davidson@blahblah.com</v>
       </c>
-      <c r="E32" s="122" t="s">
+      <c r="E32" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F32" s="122" t="s">
+      <c r="F32" s="121" t="s">
         <v>256</v>
       </c>
-      <c r="G32" s="122" t="s">
+      <c r="G32" s="121" t="s">
         <v>241</v>
       </c>
-      <c r="H32" s="122" t="s">
+      <c r="H32" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I32" s="122" t="s">
+      <c r="I32" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="J32" s="122" t="s">
+      <c r="J32" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K32" s="122" t="s">
+      <c r="K32" s="121" t="s">
         <v>246</v>
       </c>
-      <c r="L32" s="117"/>
-      <c r="M32" s="117"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
       <c r="N32" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O32" s="122" t="s">
+      <c r="O32" s="121" t="s">
         <v>252</v>
       </c>
-      <c r="P32" s="122" t="str">
+      <c r="P32" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Scott.Davidson@blahblah.com</v>
       </c>
-      <c r="Q32" s="122" t="s">
+      <c r="Q32" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="R32" s="122" t="s">
+      <c r="R32" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="S32" s="122" t="s">
+      <c r="S32" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="T32" s="122" t="s">
+      <c r="T32" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="U32" s="122"/>
-      <c r="V32" s="122"/>
-      <c r="W32" s="122"/>
-      <c r="X32" s="122"/>
+      <c r="U32" s="121"/>
+      <c r="V32" s="121"/>
+      <c r="W32" s="121"/>
+      <c r="X32" s="121"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
-      <c r="AE32" s="122"/>
-      <c r="AF32" s="122"/>
-      <c r="AG32" s="122"/>
-      <c r="AH32" s="122"/>
-      <c r="AI32" s="122"/>
+      <c r="AE32" s="121"/>
+      <c r="AF32" s="121"/>
+      <c r="AG32" s="121"/>
+      <c r="AH32" s="121"/>
+      <c r="AI32" s="121"/>
     </row>
     <row r="33" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A33" s="144"/>
-      <c r="B33" s="122" t="s">
+      <c r="A33" s="143"/>
+      <c r="B33" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="122" t="s">
+      <c r="C33" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="123" t="str">
+      <c r="D33" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Kristen.Davidson@blahblah.com</v>
       </c>
-      <c r="E33" s="122" t="s">
+      <c r="E33" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F33" s="122" t="s">
+      <c r="F33" s="121" t="s">
         <v>257</v>
       </c>
-      <c r="G33" s="122" t="s">
+      <c r="G33" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="H33" s="122" t="s">
+      <c r="H33" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I33" s="122" t="s">
+      <c r="I33" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="J33" s="122" t="s">
+      <c r="J33" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K33" s="122" t="s">
+      <c r="K33" s="121" t="s">
         <v>242</v>
       </c>
-      <c r="L33" s="117"/>
-      <c r="M33" s="117"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="116"/>
       <c r="N33" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O33" s="122" t="s">
+      <c r="O33" s="121" t="s">
         <v>251</v>
       </c>
-      <c r="P33" s="122" t="str">
+      <c r="P33" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Kristen.Davidson@blahblah.com</v>
       </c>
-      <c r="Q33" s="122" t="s">
+      <c r="Q33" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="R33" s="122" t="s">
+      <c r="R33" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="S33" s="122" t="s">
+      <c r="S33" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="T33" s="122" t="s">
+      <c r="T33" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="U33" s="122"/>
-      <c r="V33" s="122"/>
-      <c r="W33" s="122"/>
-      <c r="X33" s="122"/>
+      <c r="U33" s="121"/>
+      <c r="V33" s="121"/>
+      <c r="W33" s="121"/>
+      <c r="X33" s="121"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
-      <c r="AE33" s="122"/>
-      <c r="AF33" s="122"/>
-      <c r="AG33" s="122"/>
-      <c r="AH33" s="122"/>
-      <c r="AI33" s="122"/>
+      <c r="AE33" s="121"/>
+      <c r="AF33" s="121"/>
+      <c r="AG33" s="121"/>
+      <c r="AH33" s="121"/>
+      <c r="AI33" s="121"/>
     </row>
     <row r="34" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A34" s="144"/>
-      <c r="B34" s="122" t="s">
+      <c r="A34" s="143"/>
+      <c r="B34" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="122" t="s">
+      <c r="C34" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="123" t="str">
+      <c r="D34" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Kristin.Haden@blahblah.com</v>
       </c>
-      <c r="E34" s="122" t="s">
+      <c r="E34" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F34" s="122" t="s">
+      <c r="F34" s="121" t="s">
         <v>257</v>
       </c>
-      <c r="G34" s="122" t="s">
+      <c r="G34" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="H34" s="122" t="s">
+      <c r="H34" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I34" s="122" t="s">
+      <c r="I34" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="J34" s="122" t="s">
+      <c r="J34" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K34" s="122" t="s">
+      <c r="K34" s="121" t="s">
         <v>242</v>
       </c>
-      <c r="L34" s="117"/>
-      <c r="M34" s="117"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
       <c r="N34" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O34" s="122" t="s">
+      <c r="O34" s="121" t="s">
         <v>253</v>
       </c>
-      <c r="P34" s="122" t="str">
+      <c r="P34" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Kristin.Haden@blahblah.com</v>
       </c>
-      <c r="Q34" s="122" t="s">
+      <c r="Q34" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="R34" s="122" t="s">
+      <c r="R34" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="S34" s="122" t="s">
+      <c r="S34" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="T34" s="122" t="s">
+      <c r="T34" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="U34" s="122"/>
-      <c r="V34" s="122"/>
-      <c r="W34" s="122"/>
-      <c r="X34" s="122"/>
+      <c r="U34" s="121"/>
+      <c r="V34" s="121"/>
+      <c r="W34" s="121"/>
+      <c r="X34" s="121"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
-      <c r="AE34" s="122"/>
-      <c r="AF34" s="122"/>
-      <c r="AG34" s="122"/>
-      <c r="AH34" s="122"/>
-      <c r="AI34" s="122"/>
+      <c r="AE34" s="121"/>
+      <c r="AF34" s="121"/>
+      <c r="AG34" s="121"/>
+      <c r="AH34" s="121"/>
+      <c r="AI34" s="121"/>
     </row>
     <row r="35" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A35" s="144"/>
-      <c r="B35" s="122" t="s">
+      <c r="A35" s="143"/>
+      <c r="B35" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="122" t="s">
+      <c r="C35" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="123" t="str">
+      <c r="D35" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Rick.Haden@blahblah.com</v>
       </c>
-      <c r="E35" s="122" t="s">
+      <c r="E35" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F35" s="122" t="s">
+      <c r="F35" s="121" t="s">
         <v>256</v>
       </c>
-      <c r="G35" s="122" t="s">
+      <c r="G35" s="121" t="s">
         <v>241</v>
       </c>
-      <c r="H35" s="122" t="s">
+      <c r="H35" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I35" s="122" t="s">
+      <c r="I35" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="J35" s="122" t="s">
+      <c r="J35" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K35" s="122" t="s">
+      <c r="K35" s="121" t="s">
         <v>242</v>
       </c>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="116"/>
       <c r="N35" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O35" s="122" t="s">
+      <c r="O35" s="121" t="s">
         <v>252</v>
       </c>
-      <c r="P35" s="122" t="str">
+      <c r="P35" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Rick.Haden@blahblah.com</v>
       </c>
-      <c r="Q35" s="122" t="s">
+      <c r="Q35" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="R35" s="122" t="s">
+      <c r="R35" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="S35" s="122" t="s">
+      <c r="S35" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="T35" s="122" t="s">
+      <c r="T35" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="U35" s="122"/>
-      <c r="V35" s="122"/>
-      <c r="W35" s="122"/>
-      <c r="X35" s="122"/>
+      <c r="U35" s="121"/>
+      <c r="V35" s="121"/>
+      <c r="W35" s="121"/>
+      <c r="X35" s="121"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
-      <c r="AE35" s="122"/>
-      <c r="AF35" s="122"/>
-      <c r="AG35" s="122"/>
-      <c r="AH35" s="122"/>
-      <c r="AI35" s="122"/>
+      <c r="AE35" s="121"/>
+      <c r="AF35" s="121"/>
+      <c r="AG35" s="121"/>
+      <c r="AH35" s="121"/>
+      <c r="AI35" s="121"/>
     </row>
     <row r="36" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A36" s="144"/>
-      <c r="B36" s="122" t="s">
+      <c r="A36" s="143"/>
+      <c r="B36" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="122" t="s">
+      <c r="C36" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="123" t="str">
+      <c r="D36" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Rhonda.Davis@blahblah.com</v>
       </c>
-      <c r="E36" s="122" t="s">
+      <c r="E36" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F36" s="122" t="s">
+      <c r="F36" s="121" t="s">
         <v>257</v>
       </c>
-      <c r="G36" s="122" t="s">
+      <c r="G36" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="H36" s="122" t="s">
+      <c r="H36" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I36" s="122" t="s">
+      <c r="I36" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="J36" s="122" t="s">
+      <c r="J36" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K36" s="122" t="s">
+      <c r="K36" s="121" t="s">
         <v>245</v>
       </c>
-      <c r="L36" s="117"/>
-      <c r="M36" s="117"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
       <c r="N36" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O36" s="122" t="s">
+      <c r="O36" s="121" t="s">
         <v>251</v>
       </c>
-      <c r="P36" s="122" t="str">
+      <c r="P36" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Rhonda.Davis@blahblah.com</v>
       </c>
-      <c r="Q36" s="122" t="s">
+      <c r="Q36" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="R36" s="122" t="s">
+      <c r="R36" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="S36" s="122" t="s">
+      <c r="S36" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="T36" s="122" t="s">
+      <c r="T36" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="U36" s="122"/>
-      <c r="V36" s="122"/>
-      <c r="W36" s="122"/>
-      <c r="X36" s="122"/>
+      <c r="U36" s="121"/>
+      <c r="V36" s="121"/>
+      <c r="W36" s="121"/>
+      <c r="X36" s="121"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
-      <c r="AE36" s="122"/>
-      <c r="AF36" s="122"/>
-      <c r="AG36" s="122"/>
-      <c r="AH36" s="122"/>
-      <c r="AI36" s="122"/>
+      <c r="AE36" s="121"/>
+      <c r="AF36" s="121"/>
+      <c r="AG36" s="121"/>
+      <c r="AH36" s="121"/>
+      <c r="AI36" s="121"/>
     </row>
     <row r="37" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A37" s="144"/>
-      <c r="B37" s="122" t="s">
+      <c r="A37" s="143"/>
+      <c r="B37" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="122" t="s">
+      <c r="C37" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="123" t="str">
+      <c r="D37" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Lincoln.Davis@blahblah.com</v>
       </c>
-      <c r="E37" s="122" t="s">
+      <c r="E37" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F37" s="122" t="s">
+      <c r="F37" s="121" t="s">
         <v>256</v>
       </c>
-      <c r="G37" s="122" t="s">
+      <c r="G37" s="121" t="s">
         <v>241</v>
       </c>
-      <c r="H37" s="122" t="s">
+      <c r="H37" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I37" s="122" t="s">
+      <c r="I37" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="J37" s="122" t="s">
+      <c r="J37" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K37" s="122" t="s">
+      <c r="K37" s="121" t="s">
         <v>244</v>
       </c>
-      <c r="L37" s="117"/>
-      <c r="M37" s="117"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="116"/>
       <c r="N37" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O37" s="122" t="s">
+      <c r="O37" s="121" t="s">
         <v>253</v>
       </c>
-      <c r="P37" s="122" t="str">
+      <c r="P37" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Lincoln.Davis@blahblah.com</v>
       </c>
-      <c r="Q37" s="122" t="s">
+      <c r="Q37" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="R37" s="122" t="s">
+      <c r="R37" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="S37" s="122" t="s">
+      <c r="S37" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="T37" s="122" t="s">
+      <c r="T37" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="U37" s="122"/>
-      <c r="V37" s="122"/>
-      <c r="W37" s="122"/>
-      <c r="X37" s="122"/>
+      <c r="U37" s="121"/>
+      <c r="V37" s="121"/>
+      <c r="W37" s="121"/>
+      <c r="X37" s="121"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
-      <c r="AE37" s="122"/>
-      <c r="AF37" s="122"/>
-      <c r="AG37" s="122"/>
-      <c r="AH37" s="122"/>
-      <c r="AI37" s="122"/>
+      <c r="AE37" s="121"/>
+      <c r="AF37" s="121"/>
+      <c r="AG37" s="121"/>
+      <c r="AH37" s="121"/>
+      <c r="AI37" s="121"/>
     </row>
     <row r="38" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A38" s="144"/>
-      <c r="B38" s="122" t="s">
+      <c r="A38" s="143"/>
+      <c r="B38" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="122" t="s">
+      <c r="C38" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="123" t="str">
+      <c r="D38" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Chris.Caldwell@blahblah.com</v>
       </c>
-      <c r="E38" s="122" t="s">
+      <c r="E38" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F38" s="122" t="s">
+      <c r="F38" s="121" t="s">
         <v>256</v>
       </c>
-      <c r="G38" s="122" t="s">
+      <c r="G38" s="121" t="s">
         <v>241</v>
       </c>
-      <c r="H38" s="122" t="s">
+      <c r="H38" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I38" s="122" t="s">
+      <c r="I38" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="J38" s="122" t="s">
+      <c r="J38" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K38" s="122" t="s">
+      <c r="K38" s="121" t="s">
         <v>243</v>
       </c>
-      <c r="L38" s="117"/>
-      <c r="M38" s="117"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
       <c r="N38" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O38" s="122" t="s">
+      <c r="O38" s="121" t="s">
         <v>252</v>
       </c>
-      <c r="P38" s="122" t="str">
+      <c r="P38" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Chris.Caldwell@blahblah.com</v>
       </c>
-      <c r="Q38" s="122" t="s">
+      <c r="Q38" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="R38" s="122" t="s">
+      <c r="R38" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="S38" s="122" t="s">
+      <c r="S38" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="T38" s="122" t="s">
+      <c r="T38" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="U38" s="122"/>
-      <c r="V38" s="122"/>
-      <c r="W38" s="122"/>
-      <c r="X38" s="122"/>
+      <c r="U38" s="121"/>
+      <c r="V38" s="121"/>
+      <c r="W38" s="121"/>
+      <c r="X38" s="121"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
-      <c r="AE38" s="122"/>
-      <c r="AF38" s="122"/>
-      <c r="AG38" s="122"/>
-      <c r="AH38" s="122"/>
-      <c r="AI38" s="122"/>
+      <c r="AE38" s="121"/>
+      <c r="AF38" s="121"/>
+      <c r="AG38" s="121"/>
+      <c r="AH38" s="121"/>
+      <c r="AI38" s="121"/>
     </row>
     <row r="39" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A39" s="144"/>
-      <c r="B39" s="122" t="s">
+      <c r="A39" s="143"/>
+      <c r="B39" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="122" t="s">
+      <c r="C39" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="123" t="str">
+      <c r="D39" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Kim.Caldwell@blahblah.com</v>
       </c>
-      <c r="E39" s="122" t="s">
+      <c r="E39" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F39" s="122" t="s">
+      <c r="F39" s="121" t="s">
         <v>257</v>
       </c>
-      <c r="G39" s="122" t="s">
+      <c r="G39" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="H39" s="122" t="s">
+      <c r="H39" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I39" s="122" t="s">
+      <c r="I39" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="J39" s="122" t="s">
+      <c r="J39" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K39" s="122" t="s">
+      <c r="K39" s="121" t="s">
         <v>247</v>
       </c>
-      <c r="L39" s="117"/>
-      <c r="M39" s="117"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="116"/>
       <c r="N39" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O39" s="122" t="s">
+      <c r="O39" s="121" t="s">
         <v>251</v>
       </c>
-      <c r="P39" s="122" t="str">
+      <c r="P39" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Kim.Caldwell@blahblah.com</v>
       </c>
-      <c r="Q39" s="122" t="s">
+      <c r="Q39" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="R39" s="122" t="s">
+      <c r="R39" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="S39" s="122" t="s">
+      <c r="S39" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="T39" s="122" t="s">
+      <c r="T39" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="U39" s="122"/>
-      <c r="V39" s="122"/>
-      <c r="W39" s="122"/>
-      <c r="X39" s="122"/>
+      <c r="U39" s="121"/>
+      <c r="V39" s="121"/>
+      <c r="W39" s="121"/>
+      <c r="X39" s="121"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
-      <c r="AE39" s="122"/>
-      <c r="AF39" s="122"/>
-      <c r="AG39" s="122"/>
-      <c r="AH39" s="122"/>
-      <c r="AI39" s="122"/>
+      <c r="AE39" s="121"/>
+      <c r="AF39" s="121"/>
+      <c r="AG39" s="121"/>
+      <c r="AH39" s="121"/>
+      <c r="AI39" s="121"/>
     </row>
     <row r="40" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A40" s="144"/>
-      <c r="B40" s="122" t="s">
+      <c r="A40" s="143"/>
+      <c r="B40" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="122" t="s">
+      <c r="C40" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="123" t="str">
+      <c r="D40" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Scott.Hargis@blahblah.com</v>
       </c>
-      <c r="E40" s="122" t="s">
+      <c r="E40" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F40" s="122" t="s">
+      <c r="F40" s="121" t="s">
         <v>256</v>
       </c>
-      <c r="G40" s="122" t="s">
+      <c r="G40" s="121" t="s">
         <v>241</v>
       </c>
-      <c r="H40" s="122" t="s">
+      <c r="H40" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I40" s="122" t="s">
+      <c r="I40" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="J40" s="122" t="s">
+      <c r="J40" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K40" s="122" t="s">
+      <c r="K40" s="121" t="s">
         <v>248</v>
       </c>
-      <c r="L40" s="117"/>
-      <c r="M40" s="117"/>
+      <c r="L40" s="116"/>
+      <c r="M40" s="116"/>
       <c r="N40" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O40" s="122" t="s">
+      <c r="O40" s="121" t="s">
         <v>253</v>
       </c>
-      <c r="P40" s="122" t="str">
+      <c r="P40" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Scott.Hargis@blahblah.com</v>
       </c>
-      <c r="Q40" s="122" t="s">
+      <c r="Q40" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="R40" s="122" t="s">
+      <c r="R40" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="S40" s="122" t="s">
+      <c r="S40" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="T40" s="122" t="s">
+      <c r="T40" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="U40" s="122"/>
-      <c r="V40" s="122"/>
-      <c r="W40" s="122"/>
-      <c r="X40" s="122"/>
+      <c r="U40" s="121"/>
+      <c r="V40" s="121"/>
+      <c r="W40" s="121"/>
+      <c r="X40" s="121"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
-      <c r="AE40" s="122"/>
-      <c r="AF40" s="122"/>
-      <c r="AG40" s="122"/>
-      <c r="AH40" s="122"/>
-      <c r="AI40" s="122"/>
+      <c r="AE40" s="121"/>
+      <c r="AF40" s="121"/>
+      <c r="AG40" s="121"/>
+      <c r="AH40" s="121"/>
+      <c r="AI40" s="121"/>
     </row>
     <row r="41" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A41" s="144"/>
-      <c r="B41" s="122" t="s">
+      <c r="A41" s="143"/>
+      <c r="B41" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="122" t="s">
+      <c r="C41" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="123" t="str">
+      <c r="D41" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Sue.Hargis@blahblah.com</v>
       </c>
-      <c r="E41" s="122" t="s">
+      <c r="E41" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F41" s="122" t="s">
+      <c r="F41" s="121" t="s">
         <v>257</v>
       </c>
-      <c r="G41" s="122" t="s">
+      <c r="G41" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="H41" s="122" t="s">
+      <c r="H41" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I41" s="122" t="s">
+      <c r="I41" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="J41" s="122" t="s">
+      <c r="J41" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K41" s="122" t="s">
+      <c r="K41" s="121" t="s">
         <v>249</v>
       </c>
-      <c r="L41" s="117"/>
-      <c r="M41" s="117"/>
+      <c r="L41" s="116"/>
+      <c r="M41" s="116"/>
       <c r="N41" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O41" s="122" t="s">
+      <c r="O41" s="121" t="s">
         <v>252</v>
       </c>
-      <c r="P41" s="122" t="str">
+      <c r="P41" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Sue.Hargis@blahblah.com</v>
       </c>
-      <c r="Q41" s="122" t="s">
+      <c r="Q41" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="R41" s="122" t="s">
+      <c r="R41" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="S41" s="122" t="s">
+      <c r="S41" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="T41" s="122" t="s">
+      <c r="T41" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="U41" s="122"/>
-      <c r="V41" s="122"/>
-      <c r="W41" s="122"/>
-      <c r="X41" s="122"/>
+      <c r="U41" s="121"/>
+      <c r="V41" s="121"/>
+      <c r="W41" s="121"/>
+      <c r="X41" s="121"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
-      <c r="AE41" s="122"/>
-      <c r="AF41" s="122"/>
-      <c r="AG41" s="122"/>
-      <c r="AH41" s="122"/>
-      <c r="AI41" s="122"/>
+      <c r="AE41" s="121"/>
+      <c r="AF41" s="121"/>
+      <c r="AG41" s="121"/>
+      <c r="AH41" s="121"/>
+      <c r="AI41" s="121"/>
     </row>
     <row r="42" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A42" s="144"/>
-      <c r="B42" s="122" t="s">
+      <c r="A42" s="143"/>
+      <c r="B42" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="122" t="s">
+      <c r="C42" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="123" t="str">
+      <c r="D42" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Beth.Downes@blahblah.com</v>
       </c>
-      <c r="E42" s="122" t="s">
+      <c r="E42" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F42" s="122" t="s">
+      <c r="F42" s="121" t="s">
         <v>257</v>
       </c>
-      <c r="G42" s="122" t="s">
+      <c r="G42" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="H42" s="122" t="s">
+      <c r="H42" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I42" s="122" t="s">
+      <c r="I42" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="J42" s="122" t="s">
+      <c r="J42" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K42" s="122" t="s">
+      <c r="K42" s="121" t="s">
         <v>245</v>
       </c>
-      <c r="L42" s="117"/>
-      <c r="M42" s="117"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
       <c r="N42" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O42" s="122" t="s">
+      <c r="O42" s="121" t="s">
         <v>251</v>
       </c>
-      <c r="P42" s="122" t="str">
+      <c r="P42" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Beth.Downes@blahblah.com</v>
       </c>
-      <c r="Q42" s="122" t="s">
+      <c r="Q42" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="R42" s="122" t="s">
+      <c r="R42" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="S42" s="122" t="s">
+      <c r="S42" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="T42" s="122" t="s">
+      <c r="T42" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="U42" s="122"/>
-      <c r="V42" s="122"/>
-      <c r="W42" s="122"/>
-      <c r="X42" s="122"/>
+      <c r="U42" s="121"/>
+      <c r="V42" s="121"/>
+      <c r="W42" s="121"/>
+      <c r="X42" s="121"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
-      <c r="AE42" s="122"/>
-      <c r="AF42" s="122"/>
-      <c r="AG42" s="122"/>
-      <c r="AH42" s="122"/>
-      <c r="AI42" s="122"/>
+      <c r="AE42" s="121"/>
+      <c r="AF42" s="121"/>
+      <c r="AG42" s="121"/>
+      <c r="AH42" s="121"/>
+      <c r="AI42" s="121"/>
     </row>
     <row r="43" spans="1:35" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A43" s="144"/>
-      <c r="B43" s="122" t="s">
+      <c r="A43" s="143"/>
+      <c r="B43" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="122" t="s">
+      <c r="C43" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="123" t="str">
+      <c r="D43" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Tim.Downes@blahblah.com</v>
       </c>
-      <c r="E43" s="122" t="s">
+      <c r="E43" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="F43" s="122" t="s">
+      <c r="F43" s="121" t="s">
         <v>256</v>
       </c>
-      <c r="G43" s="122" t="s">
+      <c r="G43" s="121" t="s">
         <v>241</v>
       </c>
-      <c r="H43" s="122" t="s">
+      <c r="H43" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="I43" s="122" t="s">
+      <c r="I43" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="J43" s="122" t="s">
+      <c r="J43" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="K43" s="122" t="s">
+      <c r="K43" s="121" t="s">
         <v>249</v>
       </c>
-      <c r="L43" s="117"/>
-      <c r="M43" s="117"/>
+      <c r="L43" s="116"/>
+      <c r="M43" s="116"/>
       <c r="N43" s="5">
         <v>4045551212</v>
       </c>
-      <c r="O43" s="122" t="s">
+      <c r="O43" s="121" t="s">
         <v>253</v>
       </c>
-      <c r="P43" s="122" t="str">
+      <c r="P43" s="121" t="str">
         <f t="shared" si="1"/>
         <v>Tim.Downes@blahblah.com</v>
       </c>
-      <c r="Q43" s="122" t="s">
+      <c r="Q43" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="R43" s="122" t="s">
+      <c r="R43" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="S43" s="122" t="s">
+      <c r="S43" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="T43" s="122" t="s">
+      <c r="T43" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="U43" s="122"/>
-      <c r="V43" s="122"/>
-      <c r="W43" s="122"/>
-      <c r="X43" s="122"/>
+      <c r="U43" s="121"/>
+      <c r="V43" s="121"/>
+      <c r="W43" s="121"/>
+      <c r="X43" s="121"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
-      <c r="AE43" s="122"/>
-      <c r="AF43" s="122"/>
-      <c r="AG43" s="122"/>
-      <c r="AH43" s="122"/>
-      <c r="AI43" s="122"/>
+      <c r="AE43" s="121"/>
+      <c r="AF43" s="121"/>
+      <c r="AG43" s="121"/>
+      <c r="AH43" s="121"/>
+      <c r="AI43" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8728,28 +8765,28 @@
   </sheetPr>
   <dimension ref="B1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="102" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="109" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="109" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="108" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="108" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="102" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="102" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="102" customWidth="1"/>
     <col min="6" max="6" width="3.33203125" style="102" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="109" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="153" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="102" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="108" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="152" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="102" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" style="102" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" style="109" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="153" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="102" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" style="108" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="152" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="102" customWidth="1"/>
     <col min="14" max="14" width="3.33203125" style="102" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" style="109" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="153" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" style="108" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="152" customWidth="1"/>
     <col min="18" max="16384" width="10.83203125" style="102"/>
   </cols>
   <sheetData>
@@ -8760,38 +8797,38 @@
       <c r="P1" s="102"/>
     </row>
     <row r="2" spans="2:16" ht="21" customHeight="1">
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="169" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="175"/>
-      <c r="F2" s="176" t="s">
+      <c r="C2" s="170"/>
+      <c r="D2" s="171"/>
+      <c r="F2" s="172" t="s">
         <v>277</v>
       </c>
-      <c r="G2" s="177"/>
-      <c r="H2" s="178"/>
-      <c r="J2" s="179" t="s">
+      <c r="G2" s="173"/>
+      <c r="H2" s="174"/>
+      <c r="J2" s="175" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="180"/>
-      <c r="L2" s="181"/>
-      <c r="N2" s="179" t="s">
+      <c r="K2" s="176"/>
+      <c r="L2" s="177"/>
+      <c r="N2" s="198" t="s">
         <v>236</v>
       </c>
-      <c r="O2" s="180"/>
-      <c r="P2" s="181"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="200"/>
     </row>
     <row r="3" spans="2:16">
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="154" t="s">
         <v>238</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="155" t="s">
         <v>274</v>
       </c>
-      <c r="D3" s="159" t="s">
+      <c r="D3" s="155" t="s">
         <v>290</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="107" t="s">
         <v>238</v>
       </c>
       <c r="G3" s="105" t="s">
@@ -8800,943 +8837,943 @@
       <c r="H3" s="105" t="s">
         <v>290</v>
       </c>
-      <c r="J3" s="160" t="s">
+      <c r="J3" s="156" t="s">
         <v>238</v>
       </c>
-      <c r="K3" s="161" t="s">
+      <c r="K3" s="157" t="s">
         <v>305</v>
       </c>
-      <c r="L3" s="161" t="s">
+      <c r="L3" s="157" t="s">
         <v>290</v>
       </c>
-      <c r="N3" s="160" t="s">
+      <c r="N3" s="201" t="s">
         <v>238</v>
       </c>
-      <c r="O3" s="161" t="s">
+      <c r="O3" s="202" t="s">
+        <v>275</v>
+      </c>
+      <c r="P3" s="202" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="162"/>
+      <c r="C4" s="153" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="153" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="160" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" s="161" t="s">
         <v>305</v>
       </c>
-      <c r="P3" s="161" t="s">
+      <c r="H4" s="161" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="107"/>
-      <c r="C4" s="104" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="104" t="s">
+      <c r="J4" s="160"/>
+      <c r="K4" s="161" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="161" t="s">
+        <v>285</v>
+      </c>
+      <c r="N4" s="203"/>
+      <c r="O4" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="204" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="162"/>
+      <c r="C5" s="153" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="153" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="162" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="153" t="s">
+        <v>274</v>
+      </c>
+      <c r="H5" s="153" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="160"/>
+      <c r="K5" s="161" t="s">
+        <v>300</v>
+      </c>
+      <c r="L5" s="161" t="s">
+        <v>285</v>
+      </c>
+      <c r="N5" s="203"/>
+      <c r="O5" s="204" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="204" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="162"/>
+      <c r="C6" s="153" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" s="163" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="164" t="s">
+        <v>319</v>
+      </c>
+      <c r="H6" s="164" t="s">
+        <v>290</v>
+      </c>
+      <c r="J6" s="160"/>
+      <c r="K6" s="161" t="s">
+        <v>286</v>
+      </c>
+      <c r="L6" s="161" t="s">
+        <v>285</v>
+      </c>
+      <c r="N6" s="203"/>
+      <c r="O6" s="204" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="204" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="162"/>
+      <c r="C7" s="153" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="153" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="166" t="s">
+        <v>279</v>
+      </c>
+      <c r="H7" s="166" t="s">
+        <v>290</v>
+      </c>
+      <c r="J7" s="160"/>
+      <c r="K7" s="161" t="s">
+        <v>288</v>
+      </c>
+      <c r="L7" s="161" t="s">
         <v>287</v>
       </c>
-      <c r="F4" s="164" t="s">
+      <c r="N7" s="203"/>
+      <c r="O7" s="204" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="204" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="162"/>
+      <c r="C8" s="153" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="153" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" s="203" t="s">
         <v>239</v>
       </c>
-      <c r="G4" s="165" t="s">
-        <v>305</v>
-      </c>
-      <c r="H4" s="165" t="s">
+      <c r="G8" s="204" t="s">
+        <v>275</v>
+      </c>
+      <c r="H8" s="204" t="s">
         <v>290</v>
       </c>
-      <c r="J4" s="107"/>
-      <c r="K4" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="104" t="s">
+      <c r="J8" s="160"/>
+      <c r="K8" s="161" t="s">
+        <v>289</v>
+      </c>
+      <c r="L8" s="161" t="s">
+        <v>287</v>
+      </c>
+      <c r="N8" s="203"/>
+      <c r="O8" s="204" t="s">
+        <v>124</v>
+      </c>
+      <c r="P8" s="204" t="s">
         <v>285</v>
       </c>
-      <c r="N4" s="107"/>
-      <c r="O4" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="185" t="s">
+    </row>
+    <row r="9" spans="2:16" s="103" customFormat="1">
+      <c r="B9" s="162"/>
+      <c r="C9" s="153" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="153" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="107"/>
-      <c r="C5" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="104" t="s">
-        <v>285</v>
-      </c>
-      <c r="F5" s="166" t="s">
-        <v>239</v>
-      </c>
-      <c r="G5" s="155" t="s">
-        <v>274</v>
-      </c>
-      <c r="H5" s="155" t="s">
-        <v>290</v>
-      </c>
-      <c r="J5" s="107"/>
-      <c r="K5" s="104" t="s">
-        <v>300</v>
-      </c>
-      <c r="L5" s="104" t="s">
-        <v>285</v>
-      </c>
-      <c r="N5" s="107"/>
-      <c r="O5" s="185" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="185" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="107"/>
-      <c r="C6" s="104" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="104" t="s">
-        <v>302</v>
-      </c>
-      <c r="F6" s="167" t="s">
-        <v>239</v>
-      </c>
-      <c r="G6" s="168" t="s">
-        <v>319</v>
-      </c>
-      <c r="H6" s="168" t="s">
-        <v>290</v>
-      </c>
-      <c r="J6" s="107"/>
-      <c r="K6" s="104" t="s">
-        <v>286</v>
-      </c>
-      <c r="L6" s="104" t="s">
-        <v>285</v>
-      </c>
-      <c r="N6" s="107"/>
-      <c r="O6" s="185" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="185" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="107"/>
-      <c r="C7" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="104" t="s">
-        <v>285</v>
-      </c>
-      <c r="F7" s="169" t="s">
-        <v>239</v>
-      </c>
-      <c r="G7" s="170" t="s">
-        <v>279</v>
-      </c>
-      <c r="H7" s="170" t="s">
-        <v>290</v>
-      </c>
-      <c r="J7" s="107"/>
-      <c r="K7" s="104" t="s">
-        <v>288</v>
-      </c>
-      <c r="L7" s="104" t="s">
-        <v>287</v>
-      </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="P7" s="185" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="107"/>
-      <c r="C8" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="104" t="s">
-        <v>285</v>
-      </c>
-      <c r="F8" s="164" t="s">
-        <v>239</v>
-      </c>
-      <c r="G8" s="165" t="s">
-        <v>275</v>
-      </c>
-      <c r="H8" s="165" t="s">
-        <v>290</v>
-      </c>
-      <c r="J8" s="107"/>
-      <c r="K8" s="104" t="s">
-        <v>289</v>
-      </c>
-      <c r="L8" s="104" t="s">
-        <v>287</v>
-      </c>
-      <c r="N8" s="107"/>
-      <c r="O8" s="185" t="s">
-        <v>124</v>
-      </c>
-      <c r="P8" s="185" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" s="103" customFormat="1">
-      <c r="B9" s="107"/>
-      <c r="C9" s="104" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="104" t="s">
-        <v>285</v>
-      </c>
-      <c r="F9" s="107"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="104"/>
       <c r="H9" s="104"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="104" t="s">
+      <c r="J9" s="160"/>
+      <c r="K9" s="161" t="s">
         <v>301</v>
       </c>
-      <c r="L9" s="104" t="s">
+      <c r="L9" s="161" t="s">
         <v>290</v>
       </c>
-      <c r="N9" s="107"/>
-      <c r="O9" s="185" t="s">
+      <c r="N9" s="203"/>
+      <c r="O9" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="185" t="s">
+      <c r="P9" s="204" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="107"/>
-      <c r="C10" s="104" t="s">
+      <c r="B10" s="162"/>
+      <c r="C10" s="153" t="s">
         <v>264</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="153" t="s">
         <v>287</v>
       </c>
-      <c r="F10" s="107"/>
+      <c r="F10" s="106"/>
       <c r="G10" s="104"/>
       <c r="H10" s="104"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="104" t="s">
+      <c r="J10" s="160"/>
+      <c r="K10" s="161" t="s">
         <v>291</v>
       </c>
-      <c r="L10" s="104" t="s">
+      <c r="L10" s="161" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="107"/>
-      <c r="O10" s="185" t="s">
+      <c r="N10" s="203"/>
+      <c r="O10" s="204" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="185" t="s">
+      <c r="P10" s="204" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="107"/>
-      <c r="C11" s="104" t="s">
+      <c r="B11" s="162"/>
+      <c r="C11" s="153" t="s">
         <v>265</v>
       </c>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="153" t="s">
         <v>287</v>
       </c>
-      <c r="F11" s="107"/>
+      <c r="F11" s="106"/>
       <c r="G11" s="104"/>
       <c r="H11" s="104"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="104" t="s">
+      <c r="J11" s="160"/>
+      <c r="K11" s="161" t="s">
         <v>292</v>
       </c>
-      <c r="L11" s="104" t="s">
+      <c r="L11" s="161" t="s">
         <v>287</v>
       </c>
-      <c r="N11" s="107"/>
-      <c r="O11" s="185" t="s">
+      <c r="N11" s="203"/>
+      <c r="O11" s="204" t="s">
         <v>81</v>
       </c>
-      <c r="P11" s="185" t="s">
+      <c r="P11" s="204" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="107"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="F12" s="107"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
+      <c r="F12" s="106"/>
       <c r="G12" s="104"/>
       <c r="H12" s="104"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="104" t="s">
+      <c r="J12" s="160"/>
+      <c r="K12" s="161" t="s">
         <v>294</v>
       </c>
-      <c r="L12" s="104" t="s">
+      <c r="L12" s="161" t="s">
         <v>293</v>
       </c>
-      <c r="N12" s="107"/>
-      <c r="O12" s="185" t="s">
+      <c r="N12" s="203"/>
+      <c r="O12" s="204" t="s">
         <v>311</v>
       </c>
-      <c r="P12" s="185" t="s">
+      <c r="P12" s="204" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="107"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="F13" s="107"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="153"/>
+      <c r="F13" s="106"/>
       <c r="G13" s="104"/>
       <c r="H13" s="104"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="104" t="s">
+      <c r="J13" s="160"/>
+      <c r="K13" s="161" t="s">
         <v>295</v>
       </c>
-      <c r="L13" s="104" t="s">
+      <c r="L13" s="161" t="s">
         <v>293</v>
       </c>
-      <c r="N13" s="107"/>
-      <c r="O13" s="185" t="s">
+      <c r="N13" s="203"/>
+      <c r="O13" s="204" t="s">
         <v>312</v>
       </c>
-      <c r="P13" s="185" t="s">
+      <c r="P13" s="204" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="197" t="s">
+      <c r="B14" s="192" t="s">
         <v>239</v>
       </c>
-      <c r="C14" s="198" t="s">
+      <c r="C14" s="193" t="s">
         <v>279</v>
       </c>
-      <c r="D14" s="198" t="s">
+      <c r="D14" s="193" t="s">
         <v>290</v>
       </c>
-      <c r="E14" s="199"/>
-      <c r="F14" s="197" t="s">
+      <c r="E14" s="196"/>
+      <c r="F14" s="192" t="s">
         <v>239</v>
       </c>
-      <c r="G14" s="198" t="s">
+      <c r="G14" s="193" t="s">
         <v>279</v>
       </c>
-      <c r="H14" s="198" t="s">
+      <c r="H14" s="193" t="s">
         <v>290</v>
       </c>
-      <c r="J14" s="107"/>
-      <c r="K14" s="104" t="s">
+      <c r="J14" s="160"/>
+      <c r="K14" s="161" t="s">
         <v>296</v>
       </c>
-      <c r="L14" s="104" t="s">
+      <c r="L14" s="161" t="s">
         <v>285</v>
       </c>
-      <c r="N14" s="107"/>
-      <c r="O14" s="185" t="s">
+      <c r="N14" s="203"/>
+      <c r="O14" s="204" t="s">
         <v>313</v>
       </c>
-      <c r="P14" s="185" t="s">
+      <c r="P14" s="204" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="197" t="s">
+      <c r="B15" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="C15" s="198" t="s">
+      <c r="C15" s="195" t="s">
         <v>319</v>
       </c>
-      <c r="D15" s="198" t="s">
+      <c r="D15" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="E15" s="199"/>
-      <c r="F15" s="197" t="s">
+      <c r="E15" s="196"/>
+      <c r="F15" s="192" t="s">
         <v>239</v>
       </c>
-      <c r="G15" s="198" t="s">
+      <c r="G15" s="193" t="s">
         <v>319</v>
       </c>
-      <c r="H15" s="198" t="s">
+      <c r="H15" s="193" t="s">
         <v>290</v>
       </c>
-      <c r="J15" s="107"/>
-      <c r="K15" s="104" t="s">
+      <c r="J15" s="160"/>
+      <c r="K15" s="161" t="s">
         <v>297</v>
       </c>
-      <c r="L15" s="104" t="s">
+      <c r="L15" s="161" t="s">
         <v>287</v>
       </c>
-      <c r="N15" s="107"/>
-      <c r="O15" s="185" t="s">
+      <c r="N15" s="203"/>
+      <c r="O15" s="204" t="s">
         <v>314</v>
       </c>
-      <c r="P15" s="185" t="s">
+      <c r="P15" s="204" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="197" t="s">
+      <c r="B16" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="C16" s="198" t="s">
+      <c r="C16" s="195" t="s">
         <v>275</v>
       </c>
-      <c r="D16" s="198" t="s">
+      <c r="D16" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="E16" s="199"/>
-      <c r="F16" s="197" t="s">
+      <c r="E16" s="196"/>
+      <c r="F16" s="192" t="s">
         <v>239</v>
       </c>
-      <c r="G16" s="198" t="s">
+      <c r="G16" s="193" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="198" t="s">
+      <c r="H16" s="193" t="s">
         <v>290</v>
       </c>
-      <c r="J16" s="107"/>
-      <c r="K16" s="104" t="s">
+      <c r="J16" s="160"/>
+      <c r="K16" s="161" t="s">
         <v>298</v>
       </c>
-      <c r="L16" s="104" t="s">
+      <c r="L16" s="161" t="s">
         <v>287</v>
       </c>
-      <c r="N16" s="107"/>
-      <c r="O16" s="185" t="s">
+      <c r="N16" s="203"/>
+      <c r="O16" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="P16" s="185" t="s">
+      <c r="P16" s="204" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="197" t="s">
+      <c r="B17" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="C17" s="198" t="s">
+      <c r="C17" s="195" t="s">
         <v>305</v>
       </c>
-      <c r="D17" s="198" t="s">
+      <c r="D17" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="E17" s="199"/>
-      <c r="F17" s="197" t="s">
+      <c r="E17" s="196"/>
+      <c r="F17" s="192" t="s">
         <v>239</v>
       </c>
-      <c r="G17" s="198" t="s">
+      <c r="G17" s="193" t="s">
         <v>305</v>
       </c>
-      <c r="H17" s="198" t="s">
+      <c r="H17" s="193" t="s">
         <v>290</v>
       </c>
-      <c r="J17" s="107"/>
-      <c r="K17" s="104" t="s">
+      <c r="J17" s="160"/>
+      <c r="K17" s="161" t="s">
         <v>299</v>
       </c>
-      <c r="L17" s="104" t="s">
+      <c r="L17" s="161" t="s">
         <v>285</v>
       </c>
-      <c r="N17" s="107"/>
-      <c r="O17" s="185" t="s">
+      <c r="N17" s="203"/>
+      <c r="O17" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="185" t="s">
+      <c r="P17" s="204" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="197" t="s">
+      <c r="B18" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="198" t="s">
+      <c r="C18" s="195" t="s">
         <v>280</v>
       </c>
-      <c r="D18" s="198" t="s">
+      <c r="D18" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="E18" s="199"/>
-      <c r="F18" s="197" t="s">
+      <c r="E18" s="196"/>
+      <c r="F18" s="192" t="s">
         <v>239</v>
       </c>
-      <c r="G18" s="198" t="s">
+      <c r="G18" s="193" t="s">
         <v>280</v>
       </c>
-      <c r="H18" s="198" t="s">
+      <c r="H18" s="193" t="s">
         <v>290</v>
       </c>
-      <c r="J18" s="107"/>
-      <c r="K18" s="104" t="s">
+      <c r="J18" s="160"/>
+      <c r="K18" s="161" t="s">
         <v>264</v>
       </c>
-      <c r="L18" s="104" t="s">
+      <c r="L18" s="161" t="s">
         <v>287</v>
       </c>
-      <c r="N18" s="107"/>
-      <c r="O18" s="185" t="s">
+      <c r="N18" s="203"/>
+      <c r="O18" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="P18" s="185" t="s">
+      <c r="P18" s="204" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="19" spans="2:16">
-      <c r="J19" s="107"/>
-      <c r="K19" s="104" t="s">
+      <c r="J19" s="160"/>
+      <c r="K19" s="161" t="s">
         <v>265</v>
       </c>
-      <c r="L19" s="104" t="s">
+      <c r="L19" s="161" t="s">
         <v>287</v>
       </c>
-      <c r="N19" s="107"/>
-      <c r="O19" s="185" t="s">
+      <c r="N19" s="203"/>
+      <c r="O19" s="204" t="s">
         <v>315</v>
       </c>
-      <c r="P19" s="185" t="s">
+      <c r="P19" s="204" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="182" t="s">
+      <c r="B20" s="178" t="s">
         <v>310</v>
       </c>
-      <c r="C20" s="183"/>
-      <c r="D20" s="184"/>
-      <c r="F20" s="176" t="s">
+      <c r="C20" s="179"/>
+      <c r="D20" s="180"/>
+      <c r="F20" s="172" t="s">
         <v>278</v>
       </c>
-      <c r="G20" s="177"/>
-      <c r="H20" s="178"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="157"/>
-      <c r="L20" s="157"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="185" t="s">
+      <c r="G20" s="173"/>
+      <c r="H20" s="174"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="161"/>
+      <c r="N20" s="203"/>
+      <c r="O20" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="P20" s="185" t="s">
+      <c r="P20" s="204" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="162" t="s">
+      <c r="B21" s="158" t="s">
         <v>238</v>
       </c>
-      <c r="C21" s="163" t="s">
+      <c r="C21" s="159" t="s">
         <v>276</v>
       </c>
-      <c r="D21" s="163" t="s">
+      <c r="D21" s="159" t="s">
         <v>290</v>
       </c>
-      <c r="F21" s="171" t="s">
+      <c r="F21" s="167" t="s">
         <v>238</v>
       </c>
-      <c r="G21" s="172" t="s">
+      <c r="G21" s="168" t="s">
         <v>279</v>
       </c>
-      <c r="H21" s="172" t="s">
+      <c r="H21" s="168" t="s">
         <v>290</v>
       </c>
-      <c r="J21" s="107"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="157"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="185" t="s">
+      <c r="J21" s="160"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="N21" s="203"/>
+      <c r="O21" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="P21" s="185" t="s">
+      <c r="P21" s="204" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="106"/>
-      <c r="C22" s="154" t="s">
+      <c r="B22" s="205"/>
+      <c r="C22" s="206" t="s">
         <v>307</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="164" t="s">
         <v>285</v>
       </c>
-      <c r="F22" s="107"/>
-      <c r="G22" s="104" t="s">
+      <c r="F22" s="165"/>
+      <c r="G22" s="166" t="s">
         <v>281</v>
       </c>
-      <c r="H22" s="104" t="s">
+      <c r="H22" s="166" t="s">
         <v>285</v>
       </c>
-      <c r="J22" s="107"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="185" t="s">
+      <c r="J22" s="160"/>
+      <c r="K22" s="161"/>
+      <c r="L22" s="161"/>
+      <c r="N22" s="203"/>
+      <c r="O22" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="P22" s="185" t="s">
+      <c r="P22" s="204" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="107"/>
-      <c r="C23" s="104" t="s">
+      <c r="B23" s="163"/>
+      <c r="C23" s="164" t="s">
         <v>303</v>
       </c>
-      <c r="D23" s="104" t="s">
+      <c r="D23" s="164" t="s">
         <v>285</v>
       </c>
-      <c r="F23" s="107"/>
-      <c r="G23" s="104" t="s">
+      <c r="F23" s="165"/>
+      <c r="G23" s="166" t="s">
         <v>282</v>
       </c>
-      <c r="H23" s="104" t="s">
+      <c r="H23" s="166" t="s">
         <v>306</v>
       </c>
-      <c r="J23" s="107"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="157"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="185" t="s">
+      <c r="J23" s="160"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="161"/>
+      <c r="N23" s="203"/>
+      <c r="O23" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="185" t="s">
+      <c r="P23" s="204" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="107"/>
-      <c r="C24" s="104" t="s">
+      <c r="B24" s="163"/>
+      <c r="C24" s="164" t="s">
         <v>304</v>
       </c>
-      <c r="D24" s="104" t="s">
+      <c r="D24" s="164" t="s">
         <v>285</v>
       </c>
-      <c r="F24" s="107"/>
-      <c r="G24" s="104" t="s">
+      <c r="F24" s="165"/>
+      <c r="G24" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="H24" s="104" t="s">
+      <c r="H24" s="166" t="s">
         <v>306</v>
       </c>
-      <c r="J24" s="107"/>
-      <c r="K24" s="157"/>
-      <c r="L24" s="157"/>
-      <c r="N24" s="156"/>
-      <c r="O24" s="185"/>
-      <c r="P24" s="185"/>
+      <c r="J24" s="160"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="161"/>
+      <c r="N24" s="203"/>
+      <c r="O24" s="204"/>
+      <c r="P24" s="204"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="107"/>
-      <c r="C25" s="104" t="s">
+      <c r="B25" s="163"/>
+      <c r="C25" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="104" t="s">
+      <c r="D25" s="164" t="s">
         <v>285</v>
       </c>
-      <c r="F25" s="107"/>
-      <c r="G25" s="104" t="s">
+      <c r="F25" s="165"/>
+      <c r="G25" s="166" t="s">
         <v>264</v>
       </c>
-      <c r="H25" s="104" t="s">
+      <c r="H25" s="166" t="s">
         <v>287</v>
       </c>
-      <c r="J25" s="197" t="s">
+      <c r="J25" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="K25" s="198" t="s">
+      <c r="K25" s="195" t="s">
         <v>279</v>
       </c>
-      <c r="L25" s="198" t="s">
+      <c r="L25" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="M25" s="200"/>
-      <c r="N25" s="197" t="s">
+      <c r="M25" s="197"/>
+      <c r="N25" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="O25" s="198" t="s">
+      <c r="O25" s="195" t="s">
         <v>279</v>
       </c>
-      <c r="P25" s="198" t="s">
+      <c r="P25" s="195" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="107"/>
-      <c r="C26" s="104" t="s">
+      <c r="B26" s="163"/>
+      <c r="C26" s="164" t="s">
         <v>309</v>
       </c>
-      <c r="D26" s="104" t="s">
+      <c r="D26" s="164" t="s">
         <v>285</v>
       </c>
-      <c r="F26" s="107"/>
-      <c r="G26" s="104" t="s">
+      <c r="F26" s="165"/>
+      <c r="G26" s="166" t="s">
         <v>265</v>
       </c>
-      <c r="H26" s="104" t="s">
+      <c r="H26" s="166" t="s">
         <v>287</v>
       </c>
-      <c r="J26" s="197" t="s">
+      <c r="J26" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="K26" s="198" t="s">
+      <c r="K26" s="195" t="s">
         <v>319</v>
       </c>
-      <c r="L26" s="198" t="s">
+      <c r="L26" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="M26" s="200"/>
-      <c r="N26" s="197" t="s">
+      <c r="M26" s="197"/>
+      <c r="N26" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="O26" s="198" t="s">
+      <c r="O26" s="195" t="s">
         <v>319</v>
       </c>
-      <c r="P26" s="198" t="s">
+      <c r="P26" s="195" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="107"/>
-      <c r="C27" s="104" t="s">
+      <c r="B27" s="163"/>
+      <c r="C27" s="164" t="s">
         <v>308</v>
       </c>
-      <c r="D27" s="104" t="s">
+      <c r="D27" s="164" t="s">
         <v>285</v>
       </c>
-      <c r="F27" s="107"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="J27" s="197" t="s">
+      <c r="F27" s="165"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="J27" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="K27" s="198" t="s">
+      <c r="K27" s="195" t="s">
         <v>275</v>
       </c>
-      <c r="L27" s="198" t="s">
+      <c r="L27" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="M27" s="200"/>
-      <c r="N27" s="197" t="s">
+      <c r="M27" s="197"/>
+      <c r="N27" s="192" t="s">
         <v>239</v>
       </c>
-      <c r="O27" s="198" t="s">
+      <c r="O27" s="193" t="s">
         <v>275</v>
       </c>
-      <c r="P27" s="198" t="s">
+      <c r="P27" s="193" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="107"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="J28" s="197" t="s">
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="J28" s="192" t="s">
         <v>239</v>
       </c>
-      <c r="K28" s="198" t="s">
+      <c r="K28" s="193" t="s">
         <v>305</v>
       </c>
-      <c r="L28" s="198" t="s">
+      <c r="L28" s="193" t="s">
         <v>290</v>
       </c>
-      <c r="M28" s="200"/>
-      <c r="N28" s="197" t="s">
+      <c r="M28" s="197"/>
+      <c r="N28" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="O28" s="198" t="s">
+      <c r="O28" s="195" t="s">
         <v>305</v>
       </c>
-      <c r="P28" s="198" t="s">
+      <c r="P28" s="195" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="107"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="J29" s="197" t="s">
+      <c r="B29" s="163"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="166"/>
+      <c r="J29" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="K29" s="198" t="s">
+      <c r="K29" s="195" t="s">
         <v>280</v>
       </c>
-      <c r="L29" s="198" t="s">
+      <c r="L29" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="M29" s="200"/>
-      <c r="N29" s="197" t="s">
+      <c r="M29" s="197"/>
+      <c r="N29" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="O29" s="198" t="s">
+      <c r="O29" s="195" t="s">
         <v>280</v>
       </c>
-      <c r="P29" s="198" t="s">
+      <c r="P29" s="195" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="197" t="s">
+      <c r="B30" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="C30" s="198" t="s">
+      <c r="C30" s="195" t="s">
         <v>279</v>
       </c>
-      <c r="D30" s="198" t="s">
+      <c r="D30" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="E30" s="200"/>
-      <c r="F30" s="197" t="s">
+      <c r="E30" s="197"/>
+      <c r="F30" s="192" t="s">
         <v>239</v>
       </c>
-      <c r="G30" s="198" t="s">
+      <c r="G30" s="193" t="s">
         <v>279</v>
       </c>
-      <c r="H30" s="198" t="s">
+      <c r="H30" s="193" t="s">
         <v>290</v>
       </c>
-      <c r="J30" s="192"/>
-      <c r="K30" s="193"/>
-      <c r="L30" s="193"/>
+      <c r="J30" s="187"/>
+      <c r="K30" s="188"/>
+      <c r="L30" s="188"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="197" t="s">
+      <c r="B31" s="192" t="s">
         <v>239</v>
       </c>
-      <c r="C31" s="198" t="s">
+      <c r="C31" s="193" t="s">
         <v>319</v>
       </c>
-      <c r="D31" s="198" t="s">
+      <c r="D31" s="193" t="s">
         <v>290</v>
       </c>
-      <c r="E31" s="200"/>
-      <c r="F31" s="197" t="s">
+      <c r="E31" s="197"/>
+      <c r="F31" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="G31" s="198" t="s">
+      <c r="G31" s="195" t="s">
         <v>319</v>
       </c>
-      <c r="H31" s="198" t="s">
+      <c r="H31" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="J31" s="192"/>
-      <c r="K31" s="193"/>
-      <c r="L31" s="193"/>
+      <c r="J31" s="187"/>
+      <c r="K31" s="188"/>
+      <c r="L31" s="188"/>
     </row>
     <row r="32" spans="2:16">
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="198" t="s">
+      <c r="C32" s="195" t="s">
         <v>275</v>
       </c>
-      <c r="D32" s="198" t="s">
+      <c r="D32" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="E32" s="200"/>
-      <c r="F32" s="197" t="s">
+      <c r="E32" s="197"/>
+      <c r="F32" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="G32" s="198" t="s">
+      <c r="G32" s="195" t="s">
         <v>275</v>
       </c>
-      <c r="H32" s="198" t="s">
+      <c r="H32" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="J32" s="192"/>
-      <c r="K32" s="193"/>
-      <c r="L32" s="193"/>
+      <c r="J32" s="187"/>
+      <c r="K32" s="188"/>
+      <c r="L32" s="188"/>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="197" t="s">
+      <c r="B33" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="C33" s="198" t="s">
+      <c r="C33" s="195" t="s">
         <v>305</v>
       </c>
-      <c r="D33" s="198" t="s">
+      <c r="D33" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="200"/>
-      <c r="F33" s="197" t="s">
+      <c r="E33" s="197"/>
+      <c r="F33" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="G33" s="198" t="s">
+      <c r="G33" s="195" t="s">
         <v>305</v>
       </c>
-      <c r="H33" s="198" t="s">
+      <c r="H33" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="J33" s="192"/>
-      <c r="K33" s="193"/>
-      <c r="L33" s="193"/>
+      <c r="J33" s="187"/>
+      <c r="K33" s="188"/>
+      <c r="L33" s="188"/>
     </row>
     <row r="34" spans="2:16">
-      <c r="B34" s="197" t="s">
+      <c r="B34" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="198" t="s">
+      <c r="C34" s="195" t="s">
         <v>280</v>
       </c>
-      <c r="D34" s="198" t="s">
+      <c r="D34" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="E34" s="200"/>
-      <c r="F34" s="197" t="s">
+      <c r="E34" s="197"/>
+      <c r="F34" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="G34" s="198" t="s">
+      <c r="G34" s="195" t="s">
         <v>280</v>
       </c>
-      <c r="H34" s="198" t="s">
+      <c r="H34" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="J34" s="192"/>
-      <c r="K34" s="193"/>
-      <c r="L34" s="193"/>
+      <c r="J34" s="187"/>
+      <c r="K34" s="188"/>
+      <c r="L34" s="188"/>
     </row>
     <row r="35" spans="2:16">
-      <c r="J35" s="192"/>
-      <c r="K35" s="193"/>
-      <c r="L35" s="193"/>
+      <c r="J35" s="187"/>
+      <c r="K35" s="188"/>
+      <c r="L35" s="188"/>
     </row>
     <row r="36" spans="2:16">
-      <c r="J36" s="192"/>
-      <c r="K36" s="193"/>
-      <c r="L36" s="193"/>
+      <c r="J36" s="187"/>
+      <c r="K36" s="188"/>
+      <c r="L36" s="188"/>
     </row>
     <row r="37" spans="2:16">
-      <c r="J37" s="192"/>
-      <c r="K37" s="193"/>
-      <c r="L37" s="193"/>
+      <c r="J37" s="187"/>
+      <c r="K37" s="188"/>
+      <c r="L37" s="188"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="J38" s="194"/>
-      <c r="K38" s="193"/>
-      <c r="L38" s="193"/>
+      <c r="J38" s="189"/>
+      <c r="K38" s="188"/>
+      <c r="L38" s="188"/>
     </row>
     <row r="39" spans="2:16">
       <c r="J39" s="103"/>
-      <c r="K39" s="195"/>
-      <c r="L39" s="196"/>
+      <c r="K39" s="190"/>
+      <c r="L39" s="191"/>
     </row>
     <row r="40" spans="2:16">
       <c r="J40" s="103"/>
-      <c r="K40" s="195"/>
-      <c r="L40" s="196"/>
+      <c r="K40" s="190"/>
+      <c r="L40" s="191"/>
     </row>
     <row r="41" spans="2:16">
-      <c r="N41" s="186"/>
-      <c r="O41" s="187"/>
-      <c r="P41" s="187"/>
+      <c r="N41" s="181"/>
+      <c r="O41" s="182"/>
+      <c r="P41" s="182"/>
     </row>
     <row r="42" spans="2:16">
-      <c r="N42" s="188"/>
-      <c r="O42" s="189"/>
-      <c r="P42" s="189"/>
+      <c r="N42" s="183"/>
+      <c r="O42" s="184"/>
+      <c r="P42" s="184"/>
     </row>
     <row r="43" spans="2:16">
-      <c r="N43" s="190"/>
-      <c r="O43" s="191"/>
-      <c r="P43" s="191"/>
+      <c r="N43" s="185"/>
+      <c r="O43" s="186"/>
+      <c r="P43" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9804,7 +9841,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="90" customFormat="1" ht="31" customHeight="1">
-      <c r="A1" s="111">
+      <c r="A1" s="110">
         <v>1</v>
       </c>
       <c r="B1" s="87"/>
@@ -9828,7 +9865,7 @@
       <c r="R1" s="89"/>
     </row>
     <row r="2" spans="1:18" s="75" customFormat="1" ht="17" customHeight="1">
-      <c r="A2" s="112"/>
+      <c r="A2" s="111"/>
       <c r="B2" s="73"/>
       <c r="C2" s="53"/>
       <c r="D2" s="74"/>
@@ -9848,7 +9885,7 @@
       <c r="R2" s="74"/>
     </row>
     <row r="3" spans="1:18" s="94" customFormat="1" ht="22">
-      <c r="A3" s="113"/>
+      <c r="A3" s="112"/>
       <c r="B3" s="97"/>
       <c r="C3" s="97"/>
       <c r="D3" s="99"/>
@@ -9870,7 +9907,7 @@
       <c r="R3" s="97"/>
     </row>
     <row r="4" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A4" s="113"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
       <c r="D4" s="70"/>
@@ -9890,7 +9927,7 @@
       <c r="R4" s="71"/>
     </row>
     <row r="5" spans="1:18" s="90" customFormat="1" ht="31" customHeight="1">
-      <c r="A5" s="111">
+      <c r="A5" s="110">
         <v>2</v>
       </c>
       <c r="B5" s="87"/>
@@ -9914,7 +9951,7 @@
       <c r="R5" s="89"/>
     </row>
     <row r="6" spans="1:18" s="75" customFormat="1" ht="17" customHeight="1">
-      <c r="A6" s="112"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="73"/>
       <c r="C6" s="53"/>
       <c r="D6" s="74"/>
@@ -9934,7 +9971,7 @@
       <c r="R6" s="74"/>
     </row>
     <row r="7" spans="1:18" s="94" customFormat="1" ht="22">
-      <c r="A7" s="113"/>
+      <c r="A7" s="112"/>
       <c r="B7" s="97"/>
       <c r="C7" s="97"/>
       <c r="D7" s="99"/>
@@ -9956,7 +9993,7 @@
       <c r="R7" s="97"/>
     </row>
     <row r="8" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A8" s="113"/>
+      <c r="A8" s="112"/>
       <c r="B8" s="71"/>
       <c r="C8" s="71"/>
       <c r="D8" s="70"/>
@@ -9976,7 +10013,7 @@
       <c r="R8" s="71"/>
     </row>
     <row r="9" spans="1:18" s="90" customFormat="1" ht="31" customHeight="1">
-      <c r="A9" s="111">
+      <c r="A9" s="110">
         <v>3</v>
       </c>
       <c r="B9" s="87"/>
@@ -10000,7 +10037,7 @@
       <c r="R9" s="89"/>
     </row>
     <row r="10" spans="1:18" s="75" customFormat="1" ht="17" customHeight="1">
-      <c r="A10" s="112"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="73"/>
       <c r="C10" s="53"/>
       <c r="D10" s="74"/>
@@ -10020,7 +10057,7 @@
       <c r="R10" s="74"/>
     </row>
     <row r="11" spans="1:18" s="94" customFormat="1" ht="22">
-      <c r="A11" s="113"/>
+      <c r="A11" s="112"/>
       <c r="B11" s="97"/>
       <c r="C11" s="97"/>
       <c r="D11" s="99"/>
@@ -10042,7 +10079,7 @@
       <c r="R11" s="97"/>
     </row>
     <row r="12" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A12" s="113"/>
+      <c r="A12" s="112"/>
       <c r="B12" s="71"/>
       <c r="C12" s="71"/>
       <c r="D12" s="70"/>
@@ -10062,7 +10099,7 @@
       <c r="R12" s="71"/>
     </row>
     <row r="13" spans="1:18" s="90" customFormat="1" ht="31" customHeight="1">
-      <c r="A13" s="111">
+      <c r="A13" s="110">
         <v>4</v>
       </c>
       <c r="B13" s="87"/>
@@ -10086,7 +10123,7 @@
       <c r="R13" s="89"/>
     </row>
     <row r="14" spans="1:18" s="75" customFormat="1" ht="17" customHeight="1">
-      <c r="A14" s="112"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="73"/>
       <c r="C14" s="53"/>
       <c r="D14" s="74"/>
@@ -10106,29 +10143,29 @@
       <c r="R14" s="74"/>
     </row>
     <row r="15" spans="1:18" s="94" customFormat="1" ht="22">
-      <c r="A15" s="113"/>
+      <c r="A15" s="112"/>
       <c r="B15" s="97"/>
       <c r="C15" s="97"/>
       <c r="D15" s="99"/>
-      <c r="E15" s="150" t="s">
+      <c r="E15" s="149" t="s">
         <v>158</v>
       </c>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="151"/>
-      <c r="R15" s="151"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="150"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="150"/>
+      <c r="Q15" s="150"/>
+      <c r="R15" s="150"/>
     </row>
     <row r="16" spans="1:18" s="72" customFormat="1" ht="13" customHeight="1">
-      <c r="A16" s="113"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="71"/>
       <c r="C16" s="71"/>
       <c r="D16" s="79"/>
@@ -10148,29 +10185,29 @@
       <c r="R16" s="71"/>
     </row>
     <row r="17" spans="1:18" s="94" customFormat="1" ht="22">
-      <c r="A17" s="113"/>
+      <c r="A17" s="112"/>
       <c r="B17" s="97"/>
       <c r="C17" s="97"/>
       <c r="D17" s="99"/>
-      <c r="E17" s="150" t="s">
+      <c r="E17" s="149" t="s">
         <v>159</v>
       </c>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="151"/>
-      <c r="Q17" s="151"/>
-      <c r="R17" s="151"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="150"/>
+      <c r="Q17" s="150"/>
+      <c r="R17" s="150"/>
     </row>
     <row r="18" spans="1:18" s="72" customFormat="1" ht="13" customHeight="1">
-      <c r="A18" s="113"/>
+      <c r="A18" s="112"/>
       <c r="B18" s="71"/>
       <c r="C18" s="71"/>
       <c r="D18" s="79"/>
@@ -10190,29 +10227,29 @@
       <c r="R18" s="71"/>
     </row>
     <row r="19" spans="1:18" s="94" customFormat="1" ht="22">
-      <c r="A19" s="113"/>
+      <c r="A19" s="112"/>
       <c r="B19" s="97"/>
       <c r="C19" s="97"/>
       <c r="D19" s="99"/>
-      <c r="E19" s="150" t="s">
+      <c r="E19" s="149" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="151"/>
-      <c r="Q19" s="151"/>
-      <c r="R19" s="151"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="150"/>
+      <c r="Q19" s="150"/>
+      <c r="R19" s="150"/>
     </row>
     <row r="20" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A20" s="113"/>
+      <c r="A20" s="112"/>
       <c r="B20" s="71"/>
       <c r="C20" s="71"/>
       <c r="D20" s="70"/>
@@ -10232,7 +10269,7 @@
       <c r="R20" s="71"/>
     </row>
     <row r="21" spans="1:18" s="90" customFormat="1" ht="31" customHeight="1">
-      <c r="A21" s="111">
+      <c r="A21" s="110">
         <v>5</v>
       </c>
       <c r="B21" s="87"/>
@@ -10256,7 +10293,7 @@
       <c r="R21" s="89"/>
     </row>
     <row r="22" spans="1:18" s="75" customFormat="1" ht="17" customHeight="1">
-      <c r="A22" s="112"/>
+      <c r="A22" s="111"/>
       <c r="B22" s="73"/>
       <c r="C22" s="53"/>
       <c r="D22" s="74"/>
@@ -10276,29 +10313,29 @@
       <c r="R22" s="74"/>
     </row>
     <row r="23" spans="1:18" s="94" customFormat="1" ht="22">
-      <c r="A23" s="113"/>
+      <c r="A23" s="112"/>
       <c r="B23" s="97"/>
       <c r="C23" s="97"/>
       <c r="D23" s="99"/>
-      <c r="E23" s="150" t="s">
+      <c r="E23" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="151"/>
-      <c r="Q23" s="151"/>
-      <c r="R23" s="151"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="150"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="150"/>
+      <c r="Q23" s="150"/>
+      <c r="R23" s="150"/>
     </row>
     <row r="24" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A24" s="113"/>
+      <c r="A24" s="112"/>
       <c r="B24" s="71"/>
       <c r="C24" s="71"/>
       <c r="D24" s="70"/>
@@ -10318,7 +10355,7 @@
       <c r="R24" s="71"/>
     </row>
     <row r="25" spans="1:18" s="90" customFormat="1" ht="31" customHeight="1">
-      <c r="A25" s="111">
+      <c r="A25" s="110">
         <v>6</v>
       </c>
       <c r="B25" s="87"/>
@@ -10342,7 +10379,7 @@
       <c r="R25" s="89"/>
     </row>
     <row r="26" spans="1:18" s="75" customFormat="1" ht="17" customHeight="1">
-      <c r="A26" s="112"/>
+      <c r="A26" s="111"/>
       <c r="B26" s="73"/>
       <c r="C26" s="53"/>
       <c r="D26" s="74"/>
@@ -10362,29 +10399,29 @@
       <c r="R26" s="74"/>
     </row>
     <row r="27" spans="1:18" s="94" customFormat="1" ht="22">
-      <c r="A27" s="113"/>
+      <c r="A27" s="112"/>
       <c r="B27" s="97"/>
       <c r="C27" s="97"/>
       <c r="D27" s="99"/>
-      <c r="E27" s="150" t="s">
+      <c r="E27" s="149" t="s">
         <v>162</v>
       </c>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="151"/>
-      <c r="Q27" s="151"/>
-      <c r="R27" s="151"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
+      <c r="N27" s="150"/>
+      <c r="O27" s="150"/>
+      <c r="P27" s="150"/>
+      <c r="Q27" s="150"/>
+      <c r="R27" s="150"/>
     </row>
     <row r="28" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A28" s="113"/>
+      <c r="A28" s="112"/>
       <c r="B28" s="71"/>
       <c r="C28" s="71"/>
       <c r="D28" s="70"/>
@@ -10404,7 +10441,7 @@
       <c r="R28" s="71"/>
     </row>
     <row r="29" spans="1:18" s="90" customFormat="1" ht="31" customHeight="1">
-      <c r="A29" s="111">
+      <c r="A29" s="110">
         <v>7</v>
       </c>
       <c r="B29" s="87"/>
@@ -10428,7 +10465,7 @@
       <c r="R29" s="89"/>
     </row>
     <row r="30" spans="1:18" s="75" customFormat="1" ht="17" customHeight="1">
-      <c r="A30" s="112"/>
+      <c r="A30" s="111"/>
       <c r="B30" s="73"/>
       <c r="C30" s="53"/>
       <c r="D30" s="74"/>
@@ -10448,29 +10485,29 @@
       <c r="R30" s="74"/>
     </row>
     <row r="31" spans="1:18" s="94" customFormat="1" ht="22">
-      <c r="A31" s="113"/>
+      <c r="A31" s="112"/>
       <c r="B31" s="97"/>
       <c r="C31" s="97"/>
       <c r="D31" s="99"/>
-      <c r="E31" s="150" t="s">
+      <c r="E31" s="149" t="s">
         <v>228</v>
       </c>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="151"/>
-      <c r="P31" s="151"/>
-      <c r="Q31" s="151"/>
-      <c r="R31" s="151"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="150"/>
+      <c r="P31" s="150"/>
+      <c r="Q31" s="150"/>
+      <c r="R31" s="150"/>
     </row>
     <row r="32" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A32" s="113"/>
+      <c r="A32" s="112"/>
       <c r="B32" s="71"/>
       <c r="C32" s="71"/>
       <c r="D32" s="70"/>
@@ -10490,7 +10527,7 @@
       <c r="R32" s="71"/>
     </row>
     <row r="33" spans="1:18" s="72" customFormat="1">
-      <c r="A33" s="113"/>
+      <c r="A33" s="112"/>
       <c r="B33" s="71"/>
       <c r="C33" s="71"/>
       <c r="D33" s="71"/>
@@ -10512,7 +10549,7 @@
       <c r="R33" s="71"/>
     </row>
     <row r="34" spans="1:18" s="72" customFormat="1">
-      <c r="A34" s="113"/>
+      <c r="A34" s="112"/>
       <c r="B34" s="71"/>
       <c r="C34" s="71"/>
       <c r="D34" s="71"/>
@@ -10534,7 +10571,7 @@
       <c r="R34" s="71"/>
     </row>
     <row r="35" spans="1:18" s="72" customFormat="1">
-      <c r="A35" s="113"/>
+      <c r="A35" s="112"/>
       <c r="B35" s="71"/>
       <c r="C35" s="71"/>
       <c r="D35" s="71"/>
@@ -10556,7 +10593,7 @@
       <c r="R35" s="71"/>
     </row>
     <row r="36" spans="1:18" s="72" customFormat="1">
-      <c r="A36" s="113"/>
+      <c r="A36" s="112"/>
       <c r="B36" s="71"/>
       <c r="C36" s="71"/>
       <c r="D36" s="71"/>
@@ -10578,7 +10615,7 @@
       <c r="R36" s="71"/>
     </row>
     <row r="37" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A37" s="113"/>
+      <c r="A37" s="112"/>
       <c r="B37" s="71"/>
       <c r="C37" s="71"/>
       <c r="D37" s="71"/>
@@ -10598,29 +10635,29 @@
       <c r="R37" s="71"/>
     </row>
     <row r="38" spans="1:18" s="94" customFormat="1" ht="22">
-      <c r="A38" s="113"/>
+      <c r="A38" s="112"/>
       <c r="B38" s="97"/>
       <c r="C38" s="97"/>
       <c r="D38" s="99"/>
-      <c r="E38" s="150" t="s">
+      <c r="E38" s="149" t="s">
         <v>227</v>
       </c>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
-      <c r="N38" s="151"/>
-      <c r="O38" s="151"/>
-      <c r="P38" s="151"/>
-      <c r="Q38" s="151"/>
-      <c r="R38" s="151"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
+      <c r="N38" s="150"/>
+      <c r="O38" s="150"/>
+      <c r="P38" s="150"/>
+      <c r="Q38" s="150"/>
+      <c r="R38" s="150"/>
     </row>
     <row r="39" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A39" s="113"/>
+      <c r="A39" s="112"/>
       <c r="B39" s="71"/>
       <c r="C39" s="71"/>
       <c r="D39" s="70"/>
@@ -10640,7 +10677,7 @@
       <c r="R39" s="71"/>
     </row>
     <row r="40" spans="1:18" s="72" customFormat="1">
-      <c r="A40" s="113"/>
+      <c r="A40" s="112"/>
       <c r="B40" s="71"/>
       <c r="C40" s="71"/>
       <c r="D40" s="71"/>
@@ -10662,7 +10699,7 @@
       <c r="R40" s="71"/>
     </row>
     <row r="41" spans="1:18" s="72" customFormat="1">
-      <c r="A41" s="113"/>
+      <c r="A41" s="112"/>
       <c r="B41" s="71"/>
       <c r="C41" s="71"/>
       <c r="D41" s="71"/>
@@ -10684,7 +10721,7 @@
       <c r="R41" s="71"/>
     </row>
     <row r="42" spans="1:18" s="72" customFormat="1">
-      <c r="A42" s="113"/>
+      <c r="A42" s="112"/>
       <c r="B42" s="71"/>
       <c r="C42" s="71"/>
       <c r="D42" s="71"/>
@@ -10706,7 +10743,7 @@
       <c r="R42" s="71"/>
     </row>
     <row r="43" spans="1:18" s="72" customFormat="1">
-      <c r="A43" s="113"/>
+      <c r="A43" s="112"/>
       <c r="B43" s="71"/>
       <c r="C43" s="71"/>
       <c r="D43" s="71"/>
@@ -10728,7 +10765,7 @@
       <c r="R43" s="71"/>
     </row>
     <row r="44" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A44" s="113"/>
+      <c r="A44" s="112"/>
       <c r="B44" s="71"/>
       <c r="C44" s="71"/>
       <c r="D44" s="71"/>
@@ -10748,7 +10785,7 @@
       <c r="R44" s="71"/>
     </row>
     <row r="45" spans="1:18" s="94" customFormat="1" ht="31" customHeight="1">
-      <c r="A45" s="114">
+      <c r="A45" s="113">
         <v>8</v>
       </c>
       <c r="B45" s="91"/>
@@ -10772,7 +10809,7 @@
       <c r="R45" s="93"/>
     </row>
     <row r="46" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A46" s="113"/>
+      <c r="A46" s="112"/>
       <c r="B46" s="70"/>
       <c r="C46" s="58"/>
       <c r="D46" s="71"/>
@@ -10792,20 +10829,20 @@
       <c r="R46" s="71"/>
     </row>
     <row r="47" spans="1:18" s="94" customFormat="1" ht="22">
-      <c r="A47" s="113"/>
+      <c r="A47" s="112"/>
       <c r="B47" s="97"/>
       <c r="C47" s="97"/>
       <c r="D47" s="99"/>
-      <c r="E47" s="150" t="s">
+      <c r="E47" s="149" t="s">
         <v>221</v>
       </c>
-      <c r="F47" s="152"/>
+      <c r="F47" s="151"/>
       <c r="G47" s="99"/>
-      <c r="H47" s="150" t="s">
+      <c r="H47" s="149" t="s">
         <v>222</v>
       </c>
-      <c r="I47" s="151"/>
-      <c r="J47" s="151"/>
+      <c r="I47" s="150"/>
+      <c r="J47" s="150"/>
       <c r="K47" s="97"/>
       <c r="L47" s="97"/>
       <c r="M47" s="97"/>
@@ -10816,7 +10853,7 @@
       <c r="R47" s="97"/>
     </row>
     <row r="48" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A48" s="113"/>
+      <c r="A48" s="112"/>
       <c r="B48" s="71"/>
       <c r="C48" s="71"/>
       <c r="D48" s="70"/>
@@ -10836,7 +10873,7 @@
       <c r="R48" s="71"/>
     </row>
     <row r="49" spans="1:18" s="94" customFormat="1" ht="31" customHeight="1">
-      <c r="A49" s="115">
+      <c r="A49" s="114">
         <v>9</v>
       </c>
       <c r="B49" s="99"/>
@@ -10860,7 +10897,7 @@
       <c r="R49" s="96"/>
     </row>
     <row r="50" spans="1:18" s="94" customFormat="1" ht="22">
-      <c r="A50" s="113"/>
+      <c r="A50" s="112"/>
       <c r="B50" s="97"/>
       <c r="C50" s="98" t="s">
         <v>226</v>
@@ -10881,7 +10918,7 @@
       <c r="R50" s="97"/>
     </row>
     <row r="51" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A51" s="113"/>
+      <c r="A51" s="112"/>
       <c r="B51" s="71"/>
       <c r="C51" s="71"/>
       <c r="D51" s="59"/>
@@ -10901,7 +10938,7 @@
       <c r="R51" s="71"/>
     </row>
     <row r="52" spans="1:18" s="72" customFormat="1">
-      <c r="A52" s="113"/>
+      <c r="A52" s="112"/>
       <c r="B52" s="71"/>
       <c r="C52" s="71"/>
       <c r="D52" s="71"/>
@@ -10923,7 +10960,7 @@
       <c r="R52" s="71"/>
     </row>
     <row r="53" spans="1:18" s="72" customFormat="1">
-      <c r="A53" s="113"/>
+      <c r="A53" s="112"/>
       <c r="B53" s="71"/>
       <c r="C53" s="71"/>
       <c r="D53" s="71"/>
@@ -10945,7 +10982,7 @@
       <c r="R53" s="71"/>
     </row>
     <row r="54" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A54" s="113"/>
+      <c r="A54" s="112"/>
       <c r="B54" s="71"/>
       <c r="C54" s="71"/>
       <c r="D54" s="71"/>
@@ -10965,7 +11002,7 @@
       <c r="R54" s="71"/>
     </row>
     <row r="55" spans="1:18" s="94" customFormat="1" ht="31" customHeight="1">
-      <c r="A55" s="114">
+      <c r="A55" s="113">
         <v>10</v>
       </c>
       <c r="B55" s="91"/>
@@ -10989,7 +11026,7 @@
       <c r="R55" s="93"/>
     </row>
     <row r="56" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A56" s="113"/>
+      <c r="A56" s="112"/>
       <c r="B56" s="70"/>
       <c r="C56" s="58"/>
       <c r="D56" s="71"/>
@@ -11009,29 +11046,29 @@
       <c r="R56" s="71"/>
     </row>
     <row r="57" spans="1:18" s="94" customFormat="1" ht="22">
-      <c r="A57" s="113"/>
+      <c r="A57" s="112"/>
       <c r="B57" s="97"/>
       <c r="C57" s="97"/>
       <c r="D57" s="99"/>
-      <c r="E57" s="150" t="s">
+      <c r="E57" s="149" t="s">
         <v>164</v>
       </c>
-      <c r="F57" s="151"/>
-      <c r="G57" s="151"/>
-      <c r="H57" s="151"/>
-      <c r="I57" s="151"/>
-      <c r="J57" s="151"/>
-      <c r="K57" s="151"/>
-      <c r="L57" s="151"/>
-      <c r="M57" s="151"/>
-      <c r="N57" s="151"/>
-      <c r="O57" s="151"/>
-      <c r="P57" s="151"/>
-      <c r="Q57" s="151"/>
-      <c r="R57" s="151"/>
+      <c r="F57" s="150"/>
+      <c r="G57" s="150"/>
+      <c r="H57" s="150"/>
+      <c r="I57" s="150"/>
+      <c r="J57" s="150"/>
+      <c r="K57" s="150"/>
+      <c r="L57" s="150"/>
+      <c r="M57" s="150"/>
+      <c r="N57" s="150"/>
+      <c r="O57" s="150"/>
+      <c r="P57" s="150"/>
+      <c r="Q57" s="150"/>
+      <c r="R57" s="150"/>
     </row>
     <row r="58" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A58" s="113"/>
+      <c r="A58" s="112"/>
       <c r="B58" s="71"/>
       <c r="C58" s="71"/>
       <c r="D58" s="70"/>
@@ -11051,7 +11088,7 @@
       <c r="R58" s="71"/>
     </row>
     <row r="59" spans="1:18" s="94" customFormat="1" ht="31" customHeight="1">
-      <c r="A59" s="114">
+      <c r="A59" s="113">
         <v>11</v>
       </c>
       <c r="B59" s="91"/>
@@ -11075,7 +11112,7 @@
       <c r="R59" s="93"/>
     </row>
     <row r="60" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A60" s="113"/>
+      <c r="A60" s="112"/>
       <c r="B60" s="70"/>
       <c r="C60" s="58"/>
       <c r="D60" s="71"/>
@@ -11095,29 +11132,29 @@
       <c r="R60" s="71"/>
     </row>
     <row r="61" spans="1:18" s="72" customFormat="1">
-      <c r="A61" s="113"/>
+      <c r="A61" s="112"/>
       <c r="B61" s="71"/>
       <c r="C61" s="71"/>
       <c r="D61" s="76"/>
-      <c r="E61" s="148" t="s">
+      <c r="E61" s="147" t="s">
         <v>195</v>
       </c>
-      <c r="F61" s="149"/>
-      <c r="G61" s="149"/>
-      <c r="H61" s="149"/>
-      <c r="I61" s="149"/>
-      <c r="J61" s="149"/>
-      <c r="K61" s="149"/>
-      <c r="L61" s="149"/>
-      <c r="M61" s="149"/>
-      <c r="N61" s="149"/>
-      <c r="O61" s="149"/>
-      <c r="P61" s="149"/>
-      <c r="Q61" s="149"/>
-      <c r="R61" s="149"/>
+      <c r="F61" s="148"/>
+      <c r="G61" s="148"/>
+      <c r="H61" s="148"/>
+      <c r="I61" s="148"/>
+      <c r="J61" s="148"/>
+      <c r="K61" s="148"/>
+      <c r="L61" s="148"/>
+      <c r="M61" s="148"/>
+      <c r="N61" s="148"/>
+      <c r="O61" s="148"/>
+      <c r="P61" s="148"/>
+      <c r="Q61" s="148"/>
+      <c r="R61" s="148"/>
     </row>
     <row r="62" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A62" s="113"/>
+      <c r="A62" s="112"/>
       <c r="B62" s="71"/>
       <c r="C62" s="71"/>
       <c r="D62" s="70"/>
@@ -11127,7 +11164,7 @@
       <c r="H62" s="71"/>
       <c r="I62" s="71"/>
       <c r="J62" s="71"/>
-      <c r="K62" s="110"/>
+      <c r="K62" s="109"/>
       <c r="L62" s="71"/>
       <c r="M62" s="71"/>
       <c r="N62" s="71"/>
@@ -11137,7 +11174,7 @@
       <c r="R62" s="71"/>
     </row>
     <row r="63" spans="1:18" s="72" customFormat="1">
-      <c r="A63" s="113"/>
+      <c r="A63" s="112"/>
       <c r="B63" s="71"/>
       <c r="C63" s="71"/>
       <c r="D63" s="71"/>
@@ -11159,7 +11196,7 @@
       <c r="R63" s="71"/>
     </row>
     <row r="64" spans="1:18" s="72" customFormat="1">
-      <c r="A64" s="113"/>
+      <c r="A64" s="112"/>
       <c r="B64" s="71"/>
       <c r="C64" s="71"/>
       <c r="D64" s="71"/>
@@ -11181,7 +11218,7 @@
       <c r="R64" s="71"/>
     </row>
     <row r="65" spans="1:18" s="72" customFormat="1">
-      <c r="A65" s="113"/>
+      <c r="A65" s="112"/>
       <c r="B65" s="71"/>
       <c r="C65" s="71"/>
       <c r="D65" s="71"/>
@@ -11203,7 +11240,7 @@
       <c r="R65" s="71"/>
     </row>
     <row r="66" spans="1:18" s="72" customFormat="1">
-      <c r="A66" s="113"/>
+      <c r="A66" s="112"/>
       <c r="B66" s="71"/>
       <c r="C66" s="71"/>
       <c r="D66" s="71"/>
@@ -11225,7 +11262,7 @@
       <c r="R66" s="71"/>
     </row>
     <row r="67" spans="1:18" s="72" customFormat="1">
-      <c r="A67" s="113"/>
+      <c r="A67" s="112"/>
       <c r="B67" s="71"/>
       <c r="C67" s="71"/>
       <c r="D67" s="71"/>
@@ -11247,7 +11284,7 @@
       <c r="R67" s="71"/>
     </row>
     <row r="68" spans="1:18" s="72" customFormat="1">
-      <c r="A68" s="113"/>
+      <c r="A68" s="112"/>
       <c r="B68" s="71"/>
       <c r="C68" s="71"/>
       <c r="D68" s="71"/>
@@ -11269,7 +11306,7 @@
       <c r="R68" s="71"/>
     </row>
     <row r="69" spans="1:18" s="72" customFormat="1">
-      <c r="A69" s="113"/>
+      <c r="A69" s="112"/>
       <c r="B69" s="71"/>
       <c r="C69" s="71"/>
       <c r="D69" s="71"/>
@@ -11291,7 +11328,7 @@
       <c r="R69" s="71"/>
     </row>
     <row r="70" spans="1:18" s="72" customFormat="1">
-      <c r="A70" s="113"/>
+      <c r="A70" s="112"/>
       <c r="B70" s="71"/>
       <c r="C70" s="71"/>
       <c r="D70" s="71"/>
@@ -11313,7 +11350,7 @@
       <c r="R70" s="71"/>
     </row>
     <row r="71" spans="1:18" s="72" customFormat="1">
-      <c r="A71" s="113"/>
+      <c r="A71" s="112"/>
       <c r="B71" s="71"/>
       <c r="C71" s="71"/>
       <c r="D71" s="71"/>
@@ -11335,7 +11372,7 @@
       <c r="R71" s="71"/>
     </row>
     <row r="72" spans="1:18" s="72" customFormat="1">
-      <c r="A72" s="113"/>
+      <c r="A72" s="112"/>
       <c r="B72" s="71"/>
       <c r="C72" s="71"/>
       <c r="D72" s="71"/>
@@ -11357,7 +11394,7 @@
       <c r="R72" s="71"/>
     </row>
     <row r="73" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A73" s="113"/>
+      <c r="A73" s="112"/>
       <c r="B73" s="71"/>
       <c r="C73" s="71"/>
       <c r="D73" s="71"/>
@@ -11377,7 +11414,7 @@
       <c r="R73" s="71"/>
     </row>
     <row r="74" spans="1:18" s="94" customFormat="1" ht="31" customHeight="1">
-      <c r="A74" s="114">
+      <c r="A74" s="113">
         <v>12</v>
       </c>
       <c r="B74" s="91"/>
@@ -11401,7 +11438,7 @@
       <c r="R74" s="93"/>
     </row>
     <row r="75" spans="1:18" s="72" customFormat="1">
-      <c r="A75" s="114"/>
+      <c r="A75" s="113"/>
       <c r="B75" s="86"/>
       <c r="C75" s="101" t="s">
         <v>235</v>
@@ -11423,7 +11460,7 @@
       <c r="R75" s="85"/>
     </row>
     <row r="76" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A76" s="113"/>
+      <c r="A76" s="112"/>
       <c r="B76" s="70"/>
       <c r="C76" s="58"/>
       <c r="D76" s="71"/>
@@ -11443,29 +11480,29 @@
       <c r="R76" s="71"/>
     </row>
     <row r="77" spans="1:18" s="72" customFormat="1">
-      <c r="A77" s="113"/>
+      <c r="A77" s="112"/>
       <c r="B77" s="71"/>
       <c r="C77" s="71"/>
       <c r="D77" s="76"/>
-      <c r="E77" s="148" t="s">
+      <c r="E77" s="147" t="s">
         <v>196</v>
       </c>
-      <c r="F77" s="149"/>
-      <c r="G77" s="149"/>
-      <c r="H77" s="149"/>
-      <c r="I77" s="149"/>
-      <c r="J77" s="149"/>
-      <c r="K77" s="149"/>
-      <c r="L77" s="149"/>
-      <c r="M77" s="149"/>
-      <c r="N77" s="149"/>
-      <c r="O77" s="149"/>
-      <c r="P77" s="149"/>
-      <c r="Q77" s="149"/>
-      <c r="R77" s="149"/>
+      <c r="F77" s="148"/>
+      <c r="G77" s="148"/>
+      <c r="H77" s="148"/>
+      <c r="I77" s="148"/>
+      <c r="J77" s="148"/>
+      <c r="K77" s="148"/>
+      <c r="L77" s="148"/>
+      <c r="M77" s="148"/>
+      <c r="N77" s="148"/>
+      <c r="O77" s="148"/>
+      <c r="P77" s="148"/>
+      <c r="Q77" s="148"/>
+      <c r="R77" s="148"/>
     </row>
     <row r="78" spans="1:18" s="72" customFormat="1" ht="13" customHeight="1">
-      <c r="A78" s="113"/>
+      <c r="A78" s="112"/>
       <c r="B78" s="71"/>
       <c r="C78" s="71"/>
       <c r="D78" s="79"/>
@@ -11485,29 +11522,29 @@
       <c r="R78" s="71"/>
     </row>
     <row r="79" spans="1:18" s="72" customFormat="1">
-      <c r="A79" s="113"/>
+      <c r="A79" s="112"/>
       <c r="B79" s="71"/>
       <c r="C79" s="71"/>
       <c r="D79" s="76"/>
-      <c r="E79" s="148" t="s">
+      <c r="E79" s="147" t="s">
         <v>197</v>
       </c>
-      <c r="F79" s="149"/>
-      <c r="G79" s="149"/>
-      <c r="H79" s="149"/>
-      <c r="I79" s="149"/>
-      <c r="J79" s="149"/>
-      <c r="K79" s="149"/>
-      <c r="L79" s="149"/>
-      <c r="M79" s="149"/>
-      <c r="N79" s="149"/>
-      <c r="O79" s="149"/>
-      <c r="P79" s="149"/>
-      <c r="Q79" s="149"/>
-      <c r="R79" s="149"/>
+      <c r="F79" s="148"/>
+      <c r="G79" s="148"/>
+      <c r="H79" s="148"/>
+      <c r="I79" s="148"/>
+      <c r="J79" s="148"/>
+      <c r="K79" s="148"/>
+      <c r="L79" s="148"/>
+      <c r="M79" s="148"/>
+      <c r="N79" s="148"/>
+      <c r="O79" s="148"/>
+      <c r="P79" s="148"/>
+      <c r="Q79" s="148"/>
+      <c r="R79" s="148"/>
     </row>
     <row r="80" spans="1:18" s="72" customFormat="1" ht="13" customHeight="1">
-      <c r="A80" s="113"/>
+      <c r="A80" s="112"/>
       <c r="B80" s="71"/>
       <c r="C80" s="71"/>
       <c r="D80" s="79"/>
@@ -11527,29 +11564,29 @@
       <c r="R80" s="71"/>
     </row>
     <row r="81" spans="1:18" s="72" customFormat="1">
-      <c r="A81" s="113"/>
+      <c r="A81" s="112"/>
       <c r="B81" s="71"/>
       <c r="C81" s="71"/>
       <c r="D81" s="76"/>
-      <c r="E81" s="148" t="s">
+      <c r="E81" s="147" t="s">
         <v>198</v>
       </c>
-      <c r="F81" s="149"/>
-      <c r="G81" s="149"/>
-      <c r="H81" s="149"/>
-      <c r="I81" s="149"/>
-      <c r="J81" s="149"/>
-      <c r="K81" s="149"/>
-      <c r="L81" s="149"/>
-      <c r="M81" s="149"/>
-      <c r="N81" s="149"/>
-      <c r="O81" s="149"/>
-      <c r="P81" s="149"/>
-      <c r="Q81" s="149"/>
-      <c r="R81" s="149"/>
+      <c r="F81" s="148"/>
+      <c r="G81" s="148"/>
+      <c r="H81" s="148"/>
+      <c r="I81" s="148"/>
+      <c r="J81" s="148"/>
+      <c r="K81" s="148"/>
+      <c r="L81" s="148"/>
+      <c r="M81" s="148"/>
+      <c r="N81" s="148"/>
+      <c r="O81" s="148"/>
+      <c r="P81" s="148"/>
+      <c r="Q81" s="148"/>
+      <c r="R81" s="148"/>
     </row>
     <row r="82" spans="1:18" s="72" customFormat="1" ht="13" customHeight="1">
-      <c r="A82" s="113"/>
+      <c r="A82" s="112"/>
       <c r="B82" s="71"/>
       <c r="C82" s="71"/>
       <c r="D82" s="79"/>
@@ -11569,29 +11606,29 @@
       <c r="R82" s="71"/>
     </row>
     <row r="83" spans="1:18" s="72" customFormat="1">
-      <c r="A83" s="113"/>
+      <c r="A83" s="112"/>
       <c r="B83" s="71"/>
       <c r="C83" s="71"/>
       <c r="D83" s="76"/>
-      <c r="E83" s="148" t="s">
+      <c r="E83" s="147" t="s">
         <v>199</v>
       </c>
-      <c r="F83" s="149"/>
-      <c r="G83" s="149"/>
-      <c r="H83" s="149"/>
-      <c r="I83" s="149"/>
-      <c r="J83" s="149"/>
-      <c r="K83" s="149"/>
-      <c r="L83" s="149"/>
-      <c r="M83" s="149"/>
-      <c r="N83" s="149"/>
-      <c r="O83" s="149"/>
-      <c r="P83" s="149"/>
-      <c r="Q83" s="149"/>
-      <c r="R83" s="149"/>
+      <c r="F83" s="148"/>
+      <c r="G83" s="148"/>
+      <c r="H83" s="148"/>
+      <c r="I83" s="148"/>
+      <c r="J83" s="148"/>
+      <c r="K83" s="148"/>
+      <c r="L83" s="148"/>
+      <c r="M83" s="148"/>
+      <c r="N83" s="148"/>
+      <c r="O83" s="148"/>
+      <c r="P83" s="148"/>
+      <c r="Q83" s="148"/>
+      <c r="R83" s="148"/>
     </row>
     <row r="84" spans="1:18" s="72" customFormat="1" ht="13" customHeight="1">
-      <c r="A84" s="113"/>
+      <c r="A84" s="112"/>
       <c r="B84" s="71"/>
       <c r="C84" s="71"/>
       <c r="D84" s="79"/>
@@ -11611,29 +11648,29 @@
       <c r="R84" s="71"/>
     </row>
     <row r="85" spans="1:18" s="72" customFormat="1">
-      <c r="A85" s="113"/>
+      <c r="A85" s="112"/>
       <c r="B85" s="71"/>
       <c r="C85" s="71"/>
       <c r="D85" s="76"/>
-      <c r="E85" s="148" t="s">
+      <c r="E85" s="147" t="s">
         <v>200</v>
       </c>
-      <c r="F85" s="149"/>
-      <c r="G85" s="149"/>
-      <c r="H85" s="149"/>
-      <c r="I85" s="149"/>
-      <c r="J85" s="149"/>
-      <c r="K85" s="149"/>
-      <c r="L85" s="149"/>
-      <c r="M85" s="149"/>
-      <c r="N85" s="149"/>
-      <c r="O85" s="149"/>
-      <c r="P85" s="149"/>
-      <c r="Q85" s="149"/>
-      <c r="R85" s="149"/>
+      <c r="F85" s="148"/>
+      <c r="G85" s="148"/>
+      <c r="H85" s="148"/>
+      <c r="I85" s="148"/>
+      <c r="J85" s="148"/>
+      <c r="K85" s="148"/>
+      <c r="L85" s="148"/>
+      <c r="M85" s="148"/>
+      <c r="N85" s="148"/>
+      <c r="O85" s="148"/>
+      <c r="P85" s="148"/>
+      <c r="Q85" s="148"/>
+      <c r="R85" s="148"/>
     </row>
     <row r="86" spans="1:18" s="72" customFormat="1" ht="13" customHeight="1">
-      <c r="A86" s="113"/>
+      <c r="A86" s="112"/>
       <c r="B86" s="71"/>
       <c r="C86" s="71"/>
       <c r="D86" s="79"/>
@@ -11653,29 +11690,29 @@
       <c r="R86" s="71"/>
     </row>
     <row r="87" spans="1:18" s="72" customFormat="1">
-      <c r="A87" s="113"/>
+      <c r="A87" s="112"/>
       <c r="B87" s="71"/>
       <c r="C87" s="71"/>
       <c r="D87" s="76"/>
-      <c r="E87" s="148" t="s">
+      <c r="E87" s="147" t="s">
         <v>201</v>
       </c>
-      <c r="F87" s="149"/>
-      <c r="G87" s="149"/>
-      <c r="H87" s="149"/>
-      <c r="I87" s="149"/>
-      <c r="J87" s="149"/>
-      <c r="K87" s="149"/>
-      <c r="L87" s="149"/>
-      <c r="M87" s="149"/>
-      <c r="N87" s="149"/>
-      <c r="O87" s="149"/>
-      <c r="P87" s="149"/>
-      <c r="Q87" s="149"/>
-      <c r="R87" s="149"/>
+      <c r="F87" s="148"/>
+      <c r="G87" s="148"/>
+      <c r="H87" s="148"/>
+      <c r="I87" s="148"/>
+      <c r="J87" s="148"/>
+      <c r="K87" s="148"/>
+      <c r="L87" s="148"/>
+      <c r="M87" s="148"/>
+      <c r="N87" s="148"/>
+      <c r="O87" s="148"/>
+      <c r="P87" s="148"/>
+      <c r="Q87" s="148"/>
+      <c r="R87" s="148"/>
     </row>
     <row r="88" spans="1:18" s="72" customFormat="1" ht="13" customHeight="1">
-      <c r="A88" s="113"/>
+      <c r="A88" s="112"/>
       <c r="B88" s="71"/>
       <c r="C88" s="71"/>
       <c r="D88" s="79"/>
@@ -11695,29 +11732,29 @@
       <c r="R88" s="71"/>
     </row>
     <row r="89" spans="1:18" s="72" customFormat="1">
-      <c r="A89" s="113"/>
+      <c r="A89" s="112"/>
       <c r="B89" s="71"/>
       <c r="C89" s="71"/>
       <c r="D89" s="76"/>
-      <c r="E89" s="148" t="s">
+      <c r="E89" s="147" t="s">
         <v>202</v>
       </c>
-      <c r="F89" s="149"/>
-      <c r="G89" s="149"/>
-      <c r="H89" s="149"/>
-      <c r="I89" s="149"/>
-      <c r="J89" s="149"/>
-      <c r="K89" s="149"/>
-      <c r="L89" s="149"/>
-      <c r="M89" s="149"/>
-      <c r="N89" s="149"/>
-      <c r="O89" s="149"/>
-      <c r="P89" s="149"/>
-      <c r="Q89" s="149"/>
-      <c r="R89" s="149"/>
+      <c r="F89" s="148"/>
+      <c r="G89" s="148"/>
+      <c r="H89" s="148"/>
+      <c r="I89" s="148"/>
+      <c r="J89" s="148"/>
+      <c r="K89" s="148"/>
+      <c r="L89" s="148"/>
+      <c r="M89" s="148"/>
+      <c r="N89" s="148"/>
+      <c r="O89" s="148"/>
+      <c r="P89" s="148"/>
+      <c r="Q89" s="148"/>
+      <c r="R89" s="148"/>
     </row>
     <row r="90" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A90" s="113"/>
+      <c r="A90" s="112"/>
       <c r="B90" s="71"/>
       <c r="C90" s="71"/>
       <c r="D90" s="70"/>
@@ -11737,7 +11774,7 @@
       <c r="R90" s="71"/>
     </row>
     <row r="91" spans="1:18" s="94" customFormat="1" ht="31" customHeight="1">
-      <c r="A91" s="114">
+      <c r="A91" s="113">
         <v>13</v>
       </c>
       <c r="B91" s="91"/>
@@ -11761,7 +11798,7 @@
       <c r="R91" s="93"/>
     </row>
     <row r="92" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A92" s="113"/>
+      <c r="A92" s="112"/>
       <c r="B92" s="70"/>
       <c r="C92" s="58"/>
       <c r="D92" s="71"/>
@@ -11781,7 +11818,7 @@
       <c r="R92" s="71"/>
     </row>
     <row r="93" spans="1:18" s="72" customFormat="1" ht="29" customHeight="1">
-      <c r="A93" s="113"/>
+      <c r="A93" s="112"/>
       <c r="B93" s="71"/>
       <c r="C93" s="71"/>
       <c r="D93" s="66" t="s">
@@ -11803,7 +11840,7 @@
       <c r="R93" s="71"/>
     </row>
     <row r="94" spans="1:18" s="72" customFormat="1">
-      <c r="A94" s="113"/>
+      <c r="A94" s="112"/>
       <c r="B94" s="71"/>
       <c r="C94" s="71"/>
       <c r="D94" s="77"/>
@@ -11825,7 +11862,7 @@
       <c r="R94" s="71"/>
     </row>
     <row r="95" spans="1:18" s="72" customFormat="1" ht="13" customHeight="1">
-      <c r="A95" s="113"/>
+      <c r="A95" s="112"/>
       <c r="B95" s="71"/>
       <c r="C95" s="71"/>
       <c r="D95" s="78"/>
@@ -11845,7 +11882,7 @@
       <c r="R95" s="71"/>
     </row>
     <row r="96" spans="1:18" s="72" customFormat="1" ht="29" customHeight="1">
-      <c r="A96" s="113"/>
+      <c r="A96" s="112"/>
       <c r="B96" s="71"/>
       <c r="C96" s="71"/>
       <c r="D96" s="66" t="s">
@@ -11867,7 +11904,7 @@
       <c r="R96" s="71"/>
     </row>
     <row r="97" spans="1:18" s="72" customFormat="1">
-      <c r="A97" s="113"/>
+      <c r="A97" s="112"/>
       <c r="B97" s="71"/>
       <c r="C97" s="71"/>
       <c r="D97" s="77"/>
@@ -11889,7 +11926,7 @@
       <c r="R97" s="71"/>
     </row>
     <row r="98" spans="1:18" s="72" customFormat="1" ht="13" customHeight="1">
-      <c r="A98" s="113"/>
+      <c r="A98" s="112"/>
       <c r="B98" s="71"/>
       <c r="C98" s="71"/>
       <c r="D98" s="78"/>
@@ -11909,7 +11946,7 @@
       <c r="R98" s="71"/>
     </row>
     <row r="99" spans="1:18" s="72" customFormat="1" ht="29" customHeight="1">
-      <c r="A99" s="113"/>
+      <c r="A99" s="112"/>
       <c r="B99" s="71"/>
       <c r="C99" s="71"/>
       <c r="D99" s="67" t="s">
@@ -11931,7 +11968,7 @@
       <c r="R99" s="71"/>
     </row>
     <row r="100" spans="1:18" s="72" customFormat="1">
-      <c r="A100" s="113"/>
+      <c r="A100" s="112"/>
       <c r="B100" s="71"/>
       <c r="C100" s="71"/>
       <c r="D100" s="77"/>
@@ -11953,7 +11990,7 @@
       <c r="R100" s="71"/>
     </row>
     <row r="101" spans="1:18" s="72" customFormat="1" ht="13" customHeight="1">
-      <c r="A101" s="113"/>
+      <c r="A101" s="112"/>
       <c r="B101" s="71"/>
       <c r="C101" s="71"/>
       <c r="D101" s="78"/>
@@ -11973,7 +12010,7 @@
       <c r="R101" s="71"/>
     </row>
     <row r="102" spans="1:18" s="72" customFormat="1" ht="29" customHeight="1">
-      <c r="A102" s="113"/>
+      <c r="A102" s="112"/>
       <c r="B102" s="71"/>
       <c r="C102" s="71"/>
       <c r="D102" s="67" t="s">
@@ -11995,7 +12032,7 @@
       <c r="R102" s="71"/>
     </row>
     <row r="103" spans="1:18" s="72" customFormat="1">
-      <c r="A103" s="113"/>
+      <c r="A103" s="112"/>
       <c r="B103" s="71"/>
       <c r="C103" s="71"/>
       <c r="D103" s="77"/>
@@ -12017,7 +12054,7 @@
       <c r="R103" s="71"/>
     </row>
     <row r="104" spans="1:18" s="72" customFormat="1" ht="13" customHeight="1">
-      <c r="A104" s="113"/>
+      <c r="A104" s="112"/>
       <c r="B104" s="71"/>
       <c r="C104" s="71"/>
       <c r="D104" s="78"/>
@@ -12037,7 +12074,7 @@
       <c r="R104" s="71"/>
     </row>
     <row r="105" spans="1:18" s="72" customFormat="1" ht="29" customHeight="1">
-      <c r="A105" s="113"/>
+      <c r="A105" s="112"/>
       <c r="B105" s="71"/>
       <c r="C105" s="71"/>
       <c r="D105" s="66" t="s">
@@ -12059,7 +12096,7 @@
       <c r="R105" s="71"/>
     </row>
     <row r="106" spans="1:18" s="72" customFormat="1">
-      <c r="A106" s="113"/>
+      <c r="A106" s="112"/>
       <c r="B106" s="71"/>
       <c r="C106" s="71"/>
       <c r="D106" s="77"/>
@@ -12081,7 +12118,7 @@
       <c r="R106" s="71"/>
     </row>
     <row r="107" spans="1:18" s="72" customFormat="1" ht="13" customHeight="1">
-      <c r="A107" s="113"/>
+      <c r="A107" s="112"/>
       <c r="B107" s="71"/>
       <c r="C107" s="71"/>
       <c r="D107" s="78"/>
@@ -12101,7 +12138,7 @@
       <c r="R107" s="71"/>
     </row>
     <row r="108" spans="1:18" s="72" customFormat="1" ht="29" customHeight="1">
-      <c r="A108" s="113"/>
+      <c r="A108" s="112"/>
       <c r="B108" s="71"/>
       <c r="C108" s="71"/>
       <c r="D108" s="68" t="s">
@@ -12123,7 +12160,7 @@
       <c r="R108" s="71"/>
     </row>
     <row r="109" spans="1:18" s="72" customFormat="1">
-      <c r="A109" s="113"/>
+      <c r="A109" s="112"/>
       <c r="B109" s="71"/>
       <c r="C109" s="71"/>
       <c r="D109" s="77"/>
@@ -12145,7 +12182,7 @@
       <c r="R109" s="71"/>
     </row>
     <row r="110" spans="1:18" s="72" customFormat="1" ht="13" customHeight="1">
-      <c r="A110" s="113"/>
+      <c r="A110" s="112"/>
       <c r="B110" s="71"/>
       <c r="C110" s="71"/>
       <c r="D110" s="78"/>
@@ -12165,7 +12202,7 @@
       <c r="R110" s="71"/>
     </row>
     <row r="111" spans="1:18" s="72" customFormat="1" ht="29" customHeight="1">
-      <c r="A111" s="113"/>
+      <c r="A111" s="112"/>
       <c r="B111" s="71"/>
       <c r="C111" s="71"/>
       <c r="D111" s="68" t="s">
@@ -12187,7 +12224,7 @@
       <c r="R111" s="71"/>
     </row>
     <row r="112" spans="1:18" s="72" customFormat="1">
-      <c r="A112" s="113"/>
+      <c r="A112" s="112"/>
       <c r="B112" s="71"/>
       <c r="C112" s="71"/>
       <c r="D112" s="77"/>
@@ -12209,7 +12246,7 @@
       <c r="R112" s="71"/>
     </row>
     <row r="113" spans="1:18" s="72" customFormat="1" ht="13" customHeight="1">
-      <c r="A113" s="113"/>
+      <c r="A113" s="112"/>
       <c r="B113" s="71"/>
       <c r="C113" s="71"/>
       <c r="D113" s="78"/>
@@ -12229,7 +12266,7 @@
       <c r="R113" s="71"/>
     </row>
     <row r="114" spans="1:18" s="72" customFormat="1" ht="29" customHeight="1">
-      <c r="A114" s="113"/>
+      <c r="A114" s="112"/>
       <c r="B114" s="71"/>
       <c r="C114" s="71"/>
       <c r="D114" s="69" t="s">
@@ -12251,7 +12288,7 @@
       <c r="R114" s="71"/>
     </row>
     <row r="115" spans="1:18" s="72" customFormat="1">
-      <c r="A115" s="113"/>
+      <c r="A115" s="112"/>
       <c r="B115" s="71"/>
       <c r="C115" s="71"/>
       <c r="D115" s="77"/>
@@ -12273,7 +12310,7 @@
       <c r="R115" s="71"/>
     </row>
     <row r="116" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A116" s="113"/>
+      <c r="A116" s="112"/>
       <c r="B116" s="71"/>
       <c r="C116" s="71"/>
       <c r="D116" s="78"/>
@@ -12293,7 +12330,7 @@
       <c r="R116" s="71"/>
     </row>
     <row r="117" spans="1:18" s="94" customFormat="1" ht="31" customHeight="1">
-      <c r="A117" s="114">
+      <c r="A117" s="113">
         <v>14</v>
       </c>
       <c r="B117" s="91"/>
@@ -12317,7 +12354,7 @@
       <c r="R117" s="93"/>
     </row>
     <row r="118" spans="1:18" s="72" customFormat="1" ht="17" customHeight="1">
-      <c r="A118" s="113"/>
+      <c r="A118" s="112"/>
       <c r="B118" s="70"/>
       <c r="C118" s="58"/>
       <c r="D118" s="71"/>
@@ -12337,7 +12374,7 @@
       <c r="R118" s="71"/>
     </row>
     <row r="119" spans="1:18" s="72" customFormat="1">
-      <c r="A119" s="113"/>
+      <c r="A119" s="112"/>
       <c r="B119" s="71"/>
       <c r="C119" s="71"/>
       <c r="D119" s="71"/>
@@ -12359,7 +12396,7 @@
       <c r="R119" s="71"/>
     </row>
     <row r="120" spans="1:18" s="72" customFormat="1">
-      <c r="A120" s="113"/>
+      <c r="A120" s="112"/>
       <c r="B120" s="71"/>
       <c r="C120" s="71"/>
       <c r="D120" s="77"/>
@@ -12381,7 +12418,7 @@
       <c r="R120" s="71"/>
     </row>
     <row r="121" spans="1:18" s="72" customFormat="1" ht="13" customHeight="1">
-      <c r="A121" s="113"/>
+      <c r="A121" s="112"/>
       <c r="B121" s="71"/>
       <c r="C121" s="71"/>
       <c r="D121" s="78"/>
@@ -12401,7 +12438,7 @@
       <c r="R121" s="71"/>
     </row>
     <row r="122" spans="1:18" s="72" customFormat="1">
-      <c r="A122" s="113"/>
+      <c r="A122" s="112"/>
       <c r="B122" s="71"/>
       <c r="C122" s="71"/>
       <c r="D122" s="71"/>
@@ -12423,7 +12460,7 @@
       <c r="R122" s="71"/>
     </row>
     <row r="123" spans="1:18" s="72" customFormat="1">
-      <c r="A123" s="113"/>
+      <c r="A123" s="112"/>
       <c r="B123" s="71"/>
       <c r="C123" s="71"/>
       <c r="D123" s="77"/>
@@ -12445,7 +12482,7 @@
       <c r="R123" s="71"/>
     </row>
     <row r="124" spans="1:18" s="72" customFormat="1" ht="13" customHeight="1">
-      <c r="A124" s="113"/>
+      <c r="A124" s="112"/>
       <c r="B124" s="71"/>
       <c r="C124" s="71"/>
       <c r="D124" s="78"/>
@@ -12465,7 +12502,7 @@
       <c r="R124" s="71"/>
     </row>
     <row r="125" spans="1:18" s="72" customFormat="1">
-      <c r="A125" s="113"/>
+      <c r="A125" s="112"/>
       <c r="B125" s="71"/>
       <c r="C125" s="71"/>
       <c r="D125" s="71"/>
@@ -12487,7 +12524,7 @@
       <c r="R125" s="71"/>
     </row>
     <row r="126" spans="1:18" s="72" customFormat="1">
-      <c r="A126" s="113"/>
+      <c r="A126" s="112"/>
       <c r="B126" s="71"/>
       <c r="C126" s="71"/>
       <c r="D126" s="77"/>
@@ -12509,7 +12546,7 @@
       <c r="R126" s="71"/>
     </row>
     <row r="127" spans="1:18" s="72" customFormat="1" ht="13" customHeight="1">
-      <c r="A127" s="113"/>
+      <c r="A127" s="112"/>
       <c r="B127" s="71"/>
       <c r="C127" s="71"/>
       <c r="D127" s="78"/>
@@ -12529,7 +12566,7 @@
       <c r="R127" s="71"/>
     </row>
     <row r="128" spans="1:18" s="72" customFormat="1">
-      <c r="A128" s="113"/>
+      <c r="A128" s="112"/>
       <c r="B128" s="71"/>
       <c r="C128" s="71"/>
       <c r="D128" s="71"/>
@@ -12551,7 +12588,7 @@
       <c r="R128" s="71"/>
     </row>
     <row r="129" spans="1:18" s="72" customFormat="1">
-      <c r="A129" s="113"/>
+      <c r="A129" s="112"/>
       <c r="B129" s="71"/>
       <c r="C129" s="71"/>
       <c r="D129" s="77"/>
@@ -12573,7 +12610,7 @@
       <c r="R129" s="71"/>
     </row>
     <row r="130" spans="1:18">
-      <c r="A130" s="116"/>
+      <c r="A130" s="115"/>
       <c r="B130" s="52"/>
       <c r="C130" s="52"/>
       <c r="D130" s="52"/>
@@ -12593,7 +12630,7 @@
       <c r="R130" s="52"/>
     </row>
     <row r="131" spans="1:18">
-      <c r="A131" s="116"/>
+      <c r="A131" s="115"/>
       <c r="B131" s="52"/>
       <c r="C131" s="52"/>
       <c r="D131" s="52"/>

--- a/docs/project2_tennis_pt_app.xlsx
+++ b/docs/project2_tennis_pt_app.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="26680" windowHeight="17460" tabRatio="796" activeTab="1"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="28720" windowHeight="17460" tabRatio="796" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerMatch_model" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="315">
   <si>
     <t>first_name</t>
   </si>
@@ -2107,9 +2107,6 @@
     <t>player_id</t>
   </si>
   <si>
-    <t>MAPPING TABLE</t>
-  </si>
-  <si>
     <t>LOCATIONS</t>
   </si>
   <si>
@@ -2272,10 +2269,10 @@
     <t>Roster Limit</t>
   </si>
   <si>
-    <t xml:space="preserve">Inherits </t>
-  </si>
-  <si>
-    <t>Attributes?</t>
+    <t>PLAYERMATCHES</t>
+  </si>
+  <si>
+    <t>playermatches_id</t>
   </si>
 </sst>
 </file>
@@ -2666,7 +2663,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2748,12 +2745,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3102,7 +3093,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="380">
+  <cellStyleXfs count="410">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3483,8 +3474,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3984,6 +4005,9 @@
     <xf numFmtId="0" fontId="59" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4005,6 +4029,36 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4023,15 +4077,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4041,15 +4086,6 @@
     <xf numFmtId="0" fontId="58" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -4065,26 +4101,38 @@
     <xf numFmtId="0" fontId="41" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="380">
+  <cellStyles count="410">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4286,6 +4334,21 @@
     <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4464,6 +4527,21 @@
     <cellStyle name="Hyperlink" xfId="374" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="376" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5024,7 +5102,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="9" customFormat="1" hidden="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="176" t="s">
         <v>115</v>
       </c>
       <c r="B1" s="10"/>
@@ -5077,7 +5155,7 @@
       <c r="AI1" s="11"/>
     </row>
     <row r="2" spans="1:35" s="9" customFormat="1" hidden="1">
-      <c r="A2" s="176"/>
+      <c r="A2" s="177"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -5128,7 +5206,7 @@
       <c r="AI2" s="13"/>
     </row>
     <row r="3" spans="1:35" s="9" customFormat="1" hidden="1">
-      <c r="A3" s="176"/>
+      <c r="A3" s="177"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -5175,7 +5253,7 @@
       <c r="AI3" s="13"/>
     </row>
     <row r="4" spans="1:35" s="9" customFormat="1" hidden="1">
-      <c r="A4" s="176"/>
+      <c r="A4" s="177"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -5218,7 +5296,7 @@
       <c r="AI4" s="13"/>
     </row>
     <row r="5" spans="1:35" s="9" customFormat="1" hidden="1">
-      <c r="A5" s="176"/>
+      <c r="A5" s="177"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -5257,7 +5335,7 @@
       <c r="AI5" s="13"/>
     </row>
     <row r="6" spans="1:35" s="9" customFormat="1" hidden="1">
-      <c r="A6" s="176"/>
+      <c r="A6" s="177"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -5296,7 +5374,7 @@
       <c r="AI6" s="13"/>
     </row>
     <row r="7" spans="1:35" s="9" customFormat="1" hidden="1">
-      <c r="A7" s="176"/>
+      <c r="A7" s="177"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -5382,33 +5460,33 @@
       <c r="B9" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="179" t="str">
+      <c r="C9" s="180" t="str">
         <f>CONCATENATE(B9,B18,B17,C18,C17,D18,D17,E18,E17,F18,F17,G18,G17,H18,H17,I18,I17,J18,J17,K18,K17,L18,L17,M18,M17,N18,N17,O18,O17,P18,P17,Q18,Q17,R18,R17,S18,S17,T18,T17,U18,U17,V18,V17,W18,W17,X18,X17)</f>
         <v xml:space="preserve">rails g scaffold Player first_name:string last_name:string user_name:string password:string photo:string team_name:string role:string gender:string age_category:string skill_level:string record_ind:integer record_team:integer phone_num:string phone_type:string email:string day_pref1:string time_pref1:string day_pref2:string time_pref2:string password_digest:string remember_token:string created_at:datetime updated_at:datetime </v>
       </c>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="180"/>
-      <c r="P9" s="180"/>
-      <c r="Q9" s="180"/>
-      <c r="R9" s="180"/>
-      <c r="S9" s="180"/>
-      <c r="T9" s="180"/>
-      <c r="U9" s="180"/>
-      <c r="V9" s="180"/>
-      <c r="W9" s="180"/>
-      <c r="X9" s="180"/>
-      <c r="Y9" s="180"/>
-      <c r="Z9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="181"/>
+      <c r="Q9" s="181"/>
+      <c r="R9" s="181"/>
+      <c r="S9" s="181"/>
+      <c r="T9" s="181"/>
+      <c r="U9" s="181"/>
+      <c r="V9" s="181"/>
+      <c r="W9" s="181"/>
+      <c r="X9" s="181"/>
+      <c r="Y9" s="181"/>
+      <c r="Z9" s="182"/>
     </row>
     <row r="10" spans="1:35" s="35" customFormat="1" ht="23" customHeight="1">
       <c r="A10" s="34" t="s">
@@ -5417,33 +5495,33 @@
       <c r="B10" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="179" t="str">
+      <c r="C10" s="180" t="str">
         <f>CONCATENATE(B10,Y18,Y17,Z18,Z17,AA18,AA17,AB18,AB17,AC18,AC17,AD18,AD17,AE18,AE17,AF18,AF17,AG18,AG17)</f>
         <v xml:space="preserve">rails g scaffold Match match_datetime:datetime match_loc_name:string match_note:text match_opp:string match_outcome:string match_score:integer match_loc_address:string created_at:datetime updated_at:datetime </v>
       </c>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="180"/>
-      <c r="P10" s="180"/>
-      <c r="Q10" s="180"/>
-      <c r="R10" s="180"/>
-      <c r="S10" s="180"/>
-      <c r="T10" s="180"/>
-      <c r="U10" s="180"/>
-      <c r="V10" s="180"/>
-      <c r="W10" s="180"/>
-      <c r="X10" s="180"/>
-      <c r="Y10" s="180"/>
-      <c r="Z10" s="181"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="181"/>
+      <c r="Q10" s="181"/>
+      <c r="R10" s="181"/>
+      <c r="S10" s="181"/>
+      <c r="T10" s="181"/>
+      <c r="U10" s="181"/>
+      <c r="V10" s="181"/>
+      <c r="W10" s="181"/>
+      <c r="X10" s="181"/>
+      <c r="Y10" s="181"/>
+      <c r="Z10" s="182"/>
     </row>
     <row r="11" spans="1:35" s="35" customFormat="1" ht="23" customHeight="1">
       <c r="A11" s="36" t="s">
@@ -5452,32 +5530,32 @@
       <c r="B11" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="179" t="s">
+      <c r="C11" s="180" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="180"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="180"/>
-      <c r="P11" s="180"/>
-      <c r="Q11" s="180"/>
-      <c r="R11" s="180"/>
-      <c r="S11" s="180"/>
-      <c r="T11" s="180"/>
-      <c r="U11" s="180"/>
-      <c r="V11" s="180"/>
-      <c r="W11" s="180"/>
-      <c r="X11" s="180"/>
-      <c r="Y11" s="180"/>
-      <c r="Z11" s="181"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="181"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="181"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="181"/>
+      <c r="M11" s="181"/>
+      <c r="N11" s="181"/>
+      <c r="O11" s="181"/>
+      <c r="P11" s="181"/>
+      <c r="Q11" s="181"/>
+      <c r="R11" s="181"/>
+      <c r="S11" s="181"/>
+      <c r="T11" s="181"/>
+      <c r="U11" s="181"/>
+      <c r="V11" s="181"/>
+      <c r="W11" s="181"/>
+      <c r="X11" s="181"/>
+      <c r="Y11" s="181"/>
+      <c r="Z11" s="182"/>
     </row>
     <row r="12" spans="1:35" s="4" customFormat="1" ht="17" customHeight="1">
       <c r="A12" s="21" t="s">
@@ -6167,7 +6245,7 @@
       <c r="AI18" s="123"/>
     </row>
     <row r="19" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A19" s="177" t="s">
+      <c r="A19" s="178" t="s">
         <v>130</v>
       </c>
       <c r="B19" s="116" t="s">
@@ -6242,7 +6320,7 @@
       <c r="AI19" s="116"/>
     </row>
     <row r="20" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A20" s="178"/>
+      <c r="A20" s="179"/>
       <c r="B20" s="116" t="s">
         <v>40</v>
       </c>
@@ -6315,7 +6393,7 @@
       <c r="AI20" s="116"/>
     </row>
     <row r="21" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A21" s="178"/>
+      <c r="A21" s="179"/>
       <c r="B21" s="116" t="s">
         <v>41</v>
       </c>
@@ -6388,7 +6466,7 @@
       <c r="AI21" s="116"/>
     </row>
     <row r="22" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A22" s="178"/>
+      <c r="A22" s="179"/>
       <c r="B22" s="116" t="s">
         <v>42</v>
       </c>
@@ -6461,7 +6539,7 @@
       <c r="AI22" s="116"/>
     </row>
     <row r="23" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A23" s="178"/>
+      <c r="A23" s="179"/>
       <c r="B23" s="116" t="s">
         <v>39</v>
       </c>
@@ -6534,7 +6612,7 @@
       <c r="AI23" s="116"/>
     </row>
     <row r="24" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A24" s="178"/>
+      <c r="A24" s="179"/>
       <c r="B24" s="116" t="s">
         <v>43</v>
       </c>
@@ -6607,12 +6685,12 @@
       <c r="AI24" s="116"/>
     </row>
     <row r="25" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A25" s="178"/>
+      <c r="A25" s="179"/>
       <c r="B25" s="116" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="116" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D25" s="117" t="str">
         <f t="shared" si="0"/>
@@ -6680,7 +6758,7 @@
       <c r="AI25" s="116"/>
     </row>
     <row r="26" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A26" s="178"/>
+      <c r="A26" s="179"/>
       <c r="B26" s="116" t="s">
         <v>45</v>
       </c>
@@ -6753,7 +6831,7 @@
       <c r="AI26" s="116"/>
     </row>
     <row r="27" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A27" s="178"/>
+      <c r="A27" s="179"/>
       <c r="B27" s="116" t="s">
         <v>46</v>
       </c>
@@ -6826,7 +6904,7 @@
       <c r="AI27" s="116"/>
     </row>
     <row r="28" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A28" s="178"/>
+      <c r="A28" s="179"/>
       <c r="B28" s="116" t="s">
         <v>47</v>
       </c>
@@ -6899,7 +6977,7 @@
       <c r="AI28" s="116"/>
     </row>
     <row r="29" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A29" s="178"/>
+      <c r="A29" s="179"/>
       <c r="B29" s="116" t="s">
         <v>48</v>
       </c>
@@ -6972,7 +7050,7 @@
       <c r="AI29" s="116"/>
     </row>
     <row r="30" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A30" s="178"/>
+      <c r="A30" s="179"/>
       <c r="B30" s="116" t="s">
         <v>49</v>
       </c>
@@ -7045,7 +7123,7 @@
       <c r="AI30" s="116"/>
     </row>
     <row r="31" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A31" s="178"/>
+      <c r="A31" s="179"/>
       <c r="B31" s="116" t="s">
         <v>50</v>
       </c>
@@ -7118,7 +7196,7 @@
       <c r="AI31" s="116"/>
     </row>
     <row r="32" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A32" s="178"/>
+      <c r="A32" s="179"/>
       <c r="B32" s="116" t="s">
         <v>51</v>
       </c>
@@ -7191,7 +7269,7 @@
       <c r="AI32" s="116"/>
     </row>
     <row r="33" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A33" s="178"/>
+      <c r="A33" s="179"/>
       <c r="B33" s="116" t="s">
         <v>52</v>
       </c>
@@ -7264,7 +7342,7 @@
       <c r="AI33" s="116"/>
     </row>
     <row r="34" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A34" s="178"/>
+      <c r="A34" s="179"/>
       <c r="B34" s="116" t="s">
         <v>53</v>
       </c>
@@ -7337,7 +7415,7 @@
       <c r="AI34" s="116"/>
     </row>
     <row r="35" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A35" s="178"/>
+      <c r="A35" s="179"/>
       <c r="B35" s="116" t="s">
         <v>54</v>
       </c>
@@ -7410,7 +7488,7 @@
       <c r="AI35" s="116"/>
     </row>
     <row r="36" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A36" s="178"/>
+      <c r="A36" s="179"/>
       <c r="B36" s="116" t="s">
         <v>55</v>
       </c>
@@ -7483,7 +7561,7 @@
       <c r="AI36" s="116"/>
     </row>
     <row r="37" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A37" s="178"/>
+      <c r="A37" s="179"/>
       <c r="B37" s="116" t="s">
         <v>56</v>
       </c>
@@ -7556,7 +7634,7 @@
       <c r="AI37" s="116"/>
     </row>
     <row r="38" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A38" s="178"/>
+      <c r="A38" s="179"/>
       <c r="B38" s="116" t="s">
         <v>50</v>
       </c>
@@ -7629,7 +7707,7 @@
       <c r="AI38" s="116"/>
     </row>
     <row r="39" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A39" s="178"/>
+      <c r="A39" s="179"/>
       <c r="B39" s="116" t="s">
         <v>40</v>
       </c>
@@ -7702,7 +7780,7 @@
       <c r="AI39" s="116"/>
     </row>
     <row r="40" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A40" s="178"/>
+      <c r="A40" s="179"/>
       <c r="B40" s="116" t="s">
         <v>51</v>
       </c>
@@ -7775,7 +7853,7 @@
       <c r="AI40" s="116"/>
     </row>
     <row r="41" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A41" s="178"/>
+      <c r="A41" s="179"/>
       <c r="B41" s="116" t="s">
         <v>58</v>
       </c>
@@ -7848,7 +7926,7 @@
       <c r="AI41" s="116"/>
     </row>
     <row r="42" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A42" s="178"/>
+      <c r="A42" s="179"/>
       <c r="B42" s="116" t="s">
         <v>46</v>
       </c>
@@ -7921,7 +7999,7 @@
       <c r="AI42" s="116"/>
     </row>
     <row r="43" spans="1:35" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A43" s="178"/>
+      <c r="A43" s="179"/>
       <c r="B43" s="116" t="s">
         <v>43</v>
       </c>
@@ -8038,7 +8116,7 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="18" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
@@ -8058,7 +8136,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="9" customFormat="1" hidden="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="176" t="s">
         <v>115</v>
       </c>
       <c r="B1" s="10"/>
@@ -8072,7 +8150,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="9" customFormat="1" hidden="1">
-      <c r="A2" s="176"/>
+      <c r="A2" s="177"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -8084,7 +8162,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="9" customFormat="1" hidden="1">
-      <c r="A3" s="176"/>
+      <c r="A3" s="177"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -8094,7 +8172,7 @@
       <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:13" s="9" customFormat="1" hidden="1">
-      <c r="A4" s="176"/>
+      <c r="A4" s="177"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -8104,7 +8182,7 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:13" s="9" customFormat="1" hidden="1">
-      <c r="A5" s="176"/>
+      <c r="A5" s="177"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -8114,7 +8192,7 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:13" s="9" customFormat="1" hidden="1">
-      <c r="A6" s="176"/>
+      <c r="A6" s="177"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -8124,7 +8202,7 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1" hidden="1">
-      <c r="A7" s="176"/>
+      <c r="A7" s="177"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -8140,100 +8218,100 @@
       <c r="B8" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="204"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="205"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="205"/>
-      <c r="H8" s="205"/>
-      <c r="I8" s="205"/>
-      <c r="J8" s="205"/>
-      <c r="K8" s="205"/>
-      <c r="L8" s="205"/>
-      <c r="M8" s="205"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="186"/>
     </row>
     <row r="9" spans="1:13" s="35" customFormat="1" ht="23" customHeight="1">
       <c r="A9" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="C9" s="202" t="str">
+      <c r="C9" s="183" t="str">
         <f>CONCATENATE(B9,B18,B17,C18,C17,D18,D17,E18,E17,F18,F17,G18,G17,H18,H17)</f>
         <v xml:space="preserve">rails g scaffold Group group_name:string season:string year:string gender:string skill_level:string age_category:string roster_max:integer </v>
       </c>
-      <c r="D9" s="203"/>
-      <c r="E9" s="203"/>
-      <c r="F9" s="203"/>
-      <c r="G9" s="203"/>
-      <c r="H9" s="203"/>
-      <c r="I9" s="203"/>
-      <c r="J9" s="203"/>
-      <c r="K9" s="203"/>
-      <c r="L9" s="203"/>
-      <c r="M9" s="203"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
     </row>
     <row r="10" spans="1:13" s="35" customFormat="1" ht="23" customHeight="1">
       <c r="A10" s="34"/>
       <c r="B10" s="40"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="203"/>
-      <c r="K10" s="203"/>
-      <c r="L10" s="203"/>
-      <c r="M10" s="203"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="184"/>
+      <c r="I10" s="184"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="184"/>
+      <c r="M10" s="184"/>
     </row>
     <row r="11" spans="1:13" s="35" customFormat="1" ht="23" customHeight="1">
       <c r="A11" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B11" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="202" t="s">
-        <v>308</v>
-      </c>
-      <c r="D11" s="203"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="203"/>
-      <c r="H11" s="203"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="203"/>
-      <c r="K11" s="203"/>
-      <c r="L11" s="203"/>
-      <c r="M11" s="203"/>
+      <c r="C11" s="183" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="184"/>
+      <c r="M11" s="184"/>
     </row>
     <row r="12" spans="1:13" s="4" customFormat="1" ht="17" customHeight="1">
       <c r="A12" s="21" t="s">
         <v>128</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" hidden="1">
@@ -8289,25 +8367,25 @@
         <v>78</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="E15" s="16" t="s">
         <v>310</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>311</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>87</v>
       </c>
       <c r="G15" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>312</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="17" customHeight="1">
@@ -8367,13 +8445,13 @@
         <v>77</v>
       </c>
       <c r="B18" s="113" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C18" s="113" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D18" s="113" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E18" s="113" t="s">
         <v>5</v>
@@ -8385,52 +8463,52 @@
         <v>61</v>
       </c>
       <c r="H18" s="113" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="C25" s="188" t="s">
-        <v>291</v>
-      </c>
-      <c r="D25" s="189"/>
-      <c r="E25" s="190"/>
+      <c r="C25" s="187" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" s="188"/>
+      <c r="E25" s="189"/>
     </row>
     <row r="26" spans="1:8">
       <c r="C26" s="141" t="s">
         <v>221</v>
       </c>
       <c r="D26" s="142" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E26" s="142" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="C27" s="173"/>
       <c r="D27" s="174" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E27" s="147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="C28" s="146"/>
       <c r="D28" s="147" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E28" s="147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="C29" s="146"/>
       <c r="D29" s="147" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E29" s="147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -8439,7 +8517,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -8448,7 +8526,7 @@
         <v>64</v>
       </c>
       <c r="E31" s="147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -8457,34 +8535,34 @@
         <v>61</v>
       </c>
       <c r="E32" s="147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="146"/>
       <c r="D33" s="147" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E33" s="147" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="146"/>
       <c r="D34" s="147" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E34" s="147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="146"/>
       <c r="D35" s="147" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E35" s="147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="3:5">
@@ -8492,10 +8570,10 @@
         <v>222</v>
       </c>
       <c r="D36" s="164" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E36" s="164" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="3:5">
@@ -8503,10 +8581,10 @@
         <v>222</v>
       </c>
       <c r="D37" s="164" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E37" s="164" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="3:5">
@@ -8517,7 +8595,7 @@
         <v>258</v>
       </c>
       <c r="E38" s="166" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="3:5">
@@ -8525,10 +8603,10 @@
         <v>222</v>
       </c>
       <c r="D39" s="166" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E39" s="166" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="3:5">
@@ -8536,20 +8614,20 @@
         <v>222</v>
       </c>
       <c r="D40" s="164" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E40" s="164" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C25:E25"/>
     <mergeCell ref="A1:A7"/>
     <mergeCell ref="C9:M9"/>
     <mergeCell ref="C8:M8"/>
     <mergeCell ref="C11:M11"/>
     <mergeCell ref="C10:M10"/>
-    <mergeCell ref="C25:E25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8568,8 +8646,8 @@
   </sheetPr>
   <dimension ref="B1:Q43"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8580,7 +8658,7 @@
     <col min="4" max="4" width="12.5" style="97" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="97" customWidth="1"/>
     <col min="6" max="6" width="3.33203125" style="97" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="103" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="103" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="135" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="97" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" style="97" bestFit="1" customWidth="1"/>
@@ -8600,26 +8678,26 @@
       <c r="P1" s="97"/>
     </row>
     <row r="2" spans="2:16" ht="21" customHeight="1">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="193" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184"/>
-      <c r="F2" s="185" t="s">
-        <v>259</v>
-      </c>
-      <c r="G2" s="186"/>
-      <c r="H2" s="187"/>
-      <c r="J2" s="191" t="s">
-        <v>266</v>
-      </c>
-      <c r="K2" s="192"/>
-      <c r="L2" s="193"/>
-      <c r="N2" s="194" t="s">
+      <c r="C2" s="194"/>
+      <c r="D2" s="195"/>
+      <c r="F2" s="196" t="s">
+        <v>313</v>
+      </c>
+      <c r="G2" s="197"/>
+      <c r="H2" s="198"/>
+      <c r="J2" s="199" t="s">
+        <v>265</v>
+      </c>
+      <c r="K2" s="200"/>
+      <c r="L2" s="201"/>
+      <c r="N2" s="190" t="s">
         <v>219</v>
       </c>
-      <c r="O2" s="195"/>
-      <c r="P2" s="196"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="192"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="137" t="s">
@@ -8629,25 +8707,25 @@
         <v>257</v>
       </c>
       <c r="D3" s="138" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F3" s="102" t="s">
         <v>221</v>
       </c>
       <c r="G3" s="100" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="H3" s="100" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J3" s="139" t="s">
         <v>221</v>
       </c>
       <c r="K3" s="140" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L3" s="140" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N3" s="169" t="s">
         <v>221</v>
@@ -8656,7 +8734,7 @@
         <v>258</v>
       </c>
       <c r="P3" s="170" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="2:16">
@@ -8665,30 +8743,28 @@
         <v>116</v>
       </c>
       <c r="D4" s="136" t="s">
-        <v>269</v>
-      </c>
-      <c r="F4" s="143" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" s="144" t="s">
-        <v>286</v>
-      </c>
-      <c r="H4" s="144" t="s">
-        <v>272</v>
+        <v>268</v>
+      </c>
+      <c r="F4" s="215"/>
+      <c r="G4" s="216" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="216" t="s">
+        <v>268</v>
       </c>
       <c r="J4" s="143"/>
       <c r="K4" s="144" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="144" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N4" s="171"/>
       <c r="O4" s="172" t="s">
         <v>0</v>
       </c>
       <c r="P4" s="172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="2:16">
@@ -8697,30 +8773,28 @@
         <v>118</v>
       </c>
       <c r="D5" s="136" t="s">
-        <v>267</v>
-      </c>
-      <c r="F5" s="145" t="s">
-        <v>222</v>
-      </c>
-      <c r="G5" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="H5" s="136" t="s">
-        <v>272</v>
+        <v>266</v>
+      </c>
+      <c r="F5" s="215"/>
+      <c r="G5" s="216" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" s="216" t="s">
+        <v>268</v>
       </c>
       <c r="J5" s="143"/>
       <c r="K5" s="144" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L5" s="144" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N5" s="171"/>
       <c r="O5" s="172" t="s">
         <v>1</v>
       </c>
       <c r="P5" s="172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="2:16">
@@ -8729,30 +8803,30 @@
         <v>123</v>
       </c>
       <c r="D6" s="136" t="s">
-        <v>284</v>
-      </c>
-      <c r="F6" s="146" t="s">
+        <v>283</v>
+      </c>
+      <c r="F6" s="207" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="147" t="s">
-        <v>300</v>
-      </c>
-      <c r="H6" s="147" t="s">
-        <v>272</v>
+      <c r="G6" s="208" t="s">
+        <v>285</v>
+      </c>
+      <c r="H6" s="208" t="s">
+        <v>271</v>
       </c>
       <c r="J6" s="143"/>
       <c r="K6" s="144" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L6" s="144" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N6" s="171"/>
       <c r="O6" s="172" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="2:16">
@@ -8761,30 +8835,30 @@
         <v>120</v>
       </c>
       <c r="D7" s="136" t="s">
-        <v>267</v>
-      </c>
-      <c r="F7" s="148" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7" s="209" t="s">
         <v>222</v>
       </c>
-      <c r="G7" s="149" t="s">
-        <v>261</v>
-      </c>
-      <c r="H7" s="149" t="s">
-        <v>272</v>
+      <c r="G7" s="210" t="s">
+        <v>257</v>
+      </c>
+      <c r="H7" s="210" t="s">
+        <v>271</v>
       </c>
       <c r="J7" s="143"/>
       <c r="K7" s="144" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L7" s="144" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N7" s="171"/>
       <c r="O7" s="172" t="s">
         <v>63</v>
       </c>
       <c r="P7" s="172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="2:16">
@@ -8793,33 +8867,30 @@
         <v>65</v>
       </c>
       <c r="D8" s="136" t="s">
-        <v>267</v>
-      </c>
-      <c r="F8" s="171" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="G8" s="172" t="s">
+      <c r="G8" s="212" t="s">
         <v>258</v>
       </c>
-      <c r="H8" s="172" t="s">
-        <v>272</v>
+      <c r="H8" s="212" t="s">
+        <v>271</v>
       </c>
       <c r="J8" s="143"/>
       <c r="K8" s="144" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L8" s="144" t="s">
-        <v>269</v>
-      </c>
-      <c r="M8" s="207" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="N8" s="171"/>
       <c r="O8" s="172" t="s">
         <v>107</v>
       </c>
       <c r="P8" s="172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="2:16" s="98" customFormat="1">
@@ -8828,27 +8899,31 @@
         <v>74</v>
       </c>
       <c r="D9" s="136" t="s">
-        <v>267</v>
-      </c>
-      <c r="F9" s="101"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
+        <v>266</v>
+      </c>
+      <c r="F9" s="213" t="s">
+        <v>222</v>
+      </c>
+      <c r="G9" s="214" t="s">
+        <v>260</v>
+      </c>
+      <c r="H9" s="214" t="s">
+        <v>271</v>
+      </c>
       <c r="J9" s="143"/>
       <c r="K9" s="144" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L9" s="144" t="s">
-        <v>272</v>
-      </c>
-      <c r="M9" s="207" t="s">
-        <v>315</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M9" s="103"/>
       <c r="N9" s="171"/>
       <c r="O9" s="172" t="s">
         <v>5</v>
       </c>
       <c r="P9" s="172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="2:16">
@@ -8857,24 +8932,24 @@
         <v>247</v>
       </c>
       <c r="D10" s="136" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F10" s="101"/>
       <c r="G10" s="99"/>
       <c r="H10" s="99"/>
       <c r="J10" s="143"/>
       <c r="K10" s="144" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L10" s="144" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N10" s="171"/>
       <c r="O10" s="172" t="s">
         <v>61</v>
       </c>
       <c r="P10" s="172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="2:16">
@@ -8883,68 +8958,80 @@
         <v>248</v>
       </c>
       <c r="D11" s="136" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F11" s="101"/>
       <c r="G11" s="99"/>
       <c r="H11" s="99"/>
       <c r="J11" s="143"/>
       <c r="K11" s="144" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L11" s="144" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N11" s="171"/>
       <c r="O11" s="172" t="s">
         <v>64</v>
       </c>
       <c r="P11" s="172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="145"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
+      <c r="B12" s="139" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="140" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="140" t="s">
+        <v>271</v>
+      </c>
       <c r="F12" s="101"/>
       <c r="G12" s="99"/>
       <c r="H12" s="99"/>
       <c r="J12" s="143"/>
       <c r="K12" s="144" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L12" s="144" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N12" s="171"/>
       <c r="O12" s="172" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P12" s="172" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="145"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
+      <c r="B13" s="163" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="164" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="164" t="s">
+        <v>271</v>
+      </c>
       <c r="F13" s="101"/>
       <c r="G13" s="99"/>
       <c r="H13" s="99"/>
       <c r="J13" s="143"/>
       <c r="K13" s="144" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L13" s="144" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N13" s="171"/>
       <c r="O13" s="172" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P13" s="172" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="2:16">
@@ -8952,80 +9039,80 @@
         <v>222</v>
       </c>
       <c r="C14" s="164" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D14" s="164" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E14" s="167"/>
       <c r="F14" s="163" t="s">
         <v>222</v>
       </c>
       <c r="G14" s="164" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H14" s="164" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J14" s="143"/>
       <c r="K14" s="144" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L14" s="144" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N14" s="171"/>
       <c r="O14" s="172" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P14" s="172" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="166" t="s">
-        <v>300</v>
-      </c>
-      <c r="D15" s="166" t="s">
-        <v>272</v>
+      <c r="C15" s="164" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" s="164" t="s">
+        <v>271</v>
       </c>
       <c r="E15" s="167"/>
       <c r="F15" s="163" t="s">
         <v>222</v>
       </c>
       <c r="G15" s="164" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H15" s="164" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J15" s="143"/>
       <c r="K15" s="144" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L15" s="144" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N15" s="171"/>
       <c r="O15" s="172" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P15" s="172" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="C16" s="166" t="s">
+      <c r="C16" s="164" t="s">
         <v>258</v>
       </c>
-      <c r="D16" s="166" t="s">
-        <v>272</v>
+      <c r="D16" s="164" t="s">
+        <v>271</v>
       </c>
       <c r="E16" s="167"/>
       <c r="F16" s="163" t="s">
@@ -9035,91 +9122,91 @@
         <v>258</v>
       </c>
       <c r="H16" s="164" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J16" s="143"/>
       <c r="K16" s="144" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L16" s="144" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N16" s="171"/>
       <c r="O16" s="172" t="s">
         <v>4</v>
       </c>
       <c r="P16" s="172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="165" t="s">
+      <c r="B17" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="166" t="s">
-        <v>286</v>
-      </c>
-      <c r="D17" s="166" t="s">
-        <v>272</v>
+      <c r="C17" s="164" t="s">
+        <v>285</v>
+      </c>
+      <c r="D17" s="164" t="s">
+        <v>271</v>
       </c>
       <c r="E17" s="167"/>
       <c r="F17" s="163" t="s">
         <v>222</v>
       </c>
       <c r="G17" s="164" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H17" s="164" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J17" s="143"/>
       <c r="K17" s="144" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L17" s="144" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N17" s="171"/>
       <c r="O17" s="172" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="C18" s="166" t="s">
-        <v>262</v>
-      </c>
-      <c r="D18" s="166" t="s">
-        <v>272</v>
+      <c r="C18" s="164" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="164" t="s">
+        <v>271</v>
       </c>
       <c r="E18" s="167"/>
       <c r="F18" s="163" t="s">
         <v>222</v>
       </c>
       <c r="G18" s="164" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H18" s="164" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J18" s="143"/>
       <c r="K18" s="144" t="s">
         <v>247</v>
       </c>
       <c r="L18" s="144" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N18" s="171"/>
       <c r="O18" s="172" t="s">
         <v>2</v>
       </c>
       <c r="P18" s="172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="2:16">
@@ -9128,36 +9215,36 @@
         <v>248</v>
       </c>
       <c r="L19" s="144" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N19" s="171"/>
       <c r="O19" s="172" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P19" s="172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="188" t="s">
-        <v>291</v>
-      </c>
-      <c r="C20" s="189"/>
-      <c r="D20" s="190"/>
-      <c r="F20" s="185" t="s">
-        <v>260</v>
-      </c>
-      <c r="G20" s="186"/>
-      <c r="H20" s="187"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="144"/>
+      <c r="B20" s="187" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" s="188"/>
+      <c r="D20" s="189"/>
+      <c r="F20" s="196" t="s">
+        <v>259</v>
+      </c>
+      <c r="G20" s="197"/>
+      <c r="H20" s="198"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="164"/>
       <c r="N20" s="171"/>
       <c r="O20" s="172" t="s">
         <v>12</v>
       </c>
       <c r="P20" s="172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="2:16">
@@ -9165,19 +9252,19 @@
         <v>221</v>
       </c>
       <c r="C21" s="142" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D21" s="142" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F21" s="150" t="s">
         <v>221</v>
       </c>
       <c r="G21" s="151" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H21" s="151" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J21" s="143"/>
       <c r="K21" s="144"/>
@@ -9187,23 +9274,23 @@
         <v>6</v>
       </c>
       <c r="P21" s="172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="173"/>
       <c r="C22" s="174" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D22" s="147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F22" s="148"/>
       <c r="G22" s="149" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H22" s="149" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J22" s="143"/>
       <c r="K22" s="144"/>
@@ -9213,23 +9300,23 @@
         <v>13</v>
       </c>
       <c r="P22" s="172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="146"/>
       <c r="C23" s="147" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D23" s="147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F23" s="148"/>
       <c r="G23" s="149" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H23" s="149" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J23" s="143"/>
       <c r="K23" s="144"/>
@@ -9239,30 +9326,36 @@
         <v>7</v>
       </c>
       <c r="P23" s="172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="146"/>
       <c r="C24" s="147" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D24" s="147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F24" s="148"/>
       <c r="G24" s="149" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H24" s="149" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J24" s="143"/>
       <c r="K24" s="144"/>
       <c r="L24" s="144"/>
-      <c r="N24" s="171"/>
-      <c r="O24" s="172"/>
-      <c r="P24" s="172"/>
+      <c r="N24" s="163" t="s">
+        <v>222</v>
+      </c>
+      <c r="O24" s="164" t="s">
+        <v>260</v>
+      </c>
+      <c r="P24" s="164" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="146"/>
@@ -9270,34 +9363,25 @@
         <v>5</v>
       </c>
       <c r="D25" s="147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F25" s="148"/>
       <c r="G25" s="149" t="s">
         <v>247</v>
       </c>
       <c r="H25" s="149" t="s">
-        <v>269</v>
-      </c>
-      <c r="J25" s="165" t="s">
+        <v>268</v>
+      </c>
+      <c r="J25" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="K25" s="166" t="s">
-        <v>261</v>
-      </c>
-      <c r="L25" s="166" t="s">
-        <v>272</v>
-      </c>
-      <c r="M25" s="206"/>
-      <c r="N25" s="165" t="s">
-        <v>222</v>
-      </c>
-      <c r="O25" s="166" t="s">
-        <v>261</v>
-      </c>
-      <c r="P25" s="166" t="s">
-        <v>272</v>
-      </c>
+      <c r="K25" s="164" t="s">
+        <v>260</v>
+      </c>
+      <c r="L25" s="164" t="s">
+        <v>271</v>
+      </c>
+      <c r="M25" s="175"/>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="146"/>
@@ -9305,33 +9389,33 @@
         <v>64</v>
       </c>
       <c r="D26" s="147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F26" s="148"/>
       <c r="G26" s="149" t="s">
         <v>248</v>
       </c>
       <c r="H26" s="149" t="s">
-        <v>269</v>
-      </c>
-      <c r="J26" s="165" t="s">
+        <v>268</v>
+      </c>
+      <c r="J26" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="K26" s="166" t="s">
-        <v>300</v>
-      </c>
-      <c r="L26" s="166" t="s">
-        <v>272</v>
-      </c>
-      <c r="M26" s="206"/>
-      <c r="N26" s="165" t="s">
+      <c r="K26" s="164" t="s">
+        <v>299</v>
+      </c>
+      <c r="L26" s="164" t="s">
+        <v>271</v>
+      </c>
+      <c r="M26" s="175"/>
+      <c r="N26" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="O26" s="166" t="s">
-        <v>300</v>
-      </c>
-      <c r="P26" s="166" t="s">
-        <v>272</v>
+      <c r="O26" s="164" t="s">
+        <v>299</v>
+      </c>
+      <c r="P26" s="164" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -9340,21 +9424,21 @@
         <v>61</v>
       </c>
       <c r="D27" s="147" t="s">
-        <v>267</v>
-      </c>
-      <c r="F27" s="148"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="J27" s="165" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" s="163"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="J27" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="K27" s="166" t="s">
+      <c r="K27" s="164" t="s">
         <v>258</v>
       </c>
-      <c r="L27" s="166" t="s">
-        <v>272</v>
-      </c>
-      <c r="M27" s="206"/>
+      <c r="L27" s="164" t="s">
+        <v>271</v>
+      </c>
+      <c r="M27" s="175"/>
       <c r="N27" s="163" t="s">
         <v>222</v>
       </c>
@@ -9362,16 +9446,16 @@
         <v>258</v>
       </c>
       <c r="P27" s="164" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="146"/>
       <c r="C28" s="147" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D28" s="147" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F28" s="148"/>
       <c r="G28" s="149"/>
@@ -9380,94 +9464,94 @@
         <v>222</v>
       </c>
       <c r="K28" s="164" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L28" s="164" t="s">
-        <v>272</v>
-      </c>
-      <c r="M28" s="206"/>
-      <c r="N28" s="165" t="s">
+        <v>271</v>
+      </c>
+      <c r="M28" s="175"/>
+      <c r="N28" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="O28" s="166" t="s">
-        <v>286</v>
-      </c>
-      <c r="P28" s="166" t="s">
-        <v>272</v>
+      <c r="O28" s="164" t="s">
+        <v>285</v>
+      </c>
+      <c r="P28" s="164" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="146"/>
       <c r="C29" s="147" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D29" s="147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F29" s="148"/>
       <c r="G29" s="149"/>
       <c r="H29" s="149"/>
-      <c r="J29" s="165" t="s">
+      <c r="J29" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="K29" s="166" t="s">
-        <v>262</v>
-      </c>
-      <c r="L29" s="166" t="s">
-        <v>272</v>
-      </c>
-      <c r="M29" s="206"/>
-      <c r="N29" s="165" t="s">
+      <c r="K29" s="164" t="s">
+        <v>261</v>
+      </c>
+      <c r="L29" s="164" t="s">
+        <v>271</v>
+      </c>
+      <c r="M29" s="175"/>
+      <c r="N29" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="O29" s="166" t="s">
-        <v>262</v>
-      </c>
-      <c r="P29" s="166" t="s">
-        <v>272</v>
+      <c r="O29" s="164" t="s">
+        <v>261</v>
+      </c>
+      <c r="P29" s="164" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="146"/>
       <c r="C30" s="147" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D30" s="147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E30" s="168"/>
       <c r="F30" s="163" t="s">
         <v>222</v>
       </c>
       <c r="G30" s="164" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H30" s="164" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J30" s="158"/>
       <c r="K30" s="159"/>
       <c r="L30" s="159"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="163" t="s">
+      <c r="B31" s="139" t="s">
         <v>222</v>
       </c>
-      <c r="C31" s="164" t="s">
-        <v>261</v>
-      </c>
-      <c r="D31" s="164" t="s">
-        <v>272</v>
+      <c r="C31" s="140" t="s">
+        <v>285</v>
+      </c>
+      <c r="D31" s="140" t="s">
+        <v>271</v>
       </c>
       <c r="E31" s="168"/>
-      <c r="F31" s="165" t="s">
+      <c r="F31" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="G31" s="166" t="s">
-        <v>300</v>
-      </c>
-      <c r="H31" s="166" t="s">
-        <v>272</v>
+      <c r="G31" s="164" t="s">
+        <v>299</v>
+      </c>
+      <c r="H31" s="164" t="s">
+        <v>271</v>
       </c>
       <c r="J31" s="158"/>
       <c r="K31" s="159"/>
@@ -9478,68 +9562,68 @@
         <v>222</v>
       </c>
       <c r="C32" s="164" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D32" s="164" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E32" s="168"/>
-      <c r="F32" s="165" t="s">
+      <c r="F32" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="G32" s="166" t="s">
+      <c r="G32" s="164" t="s">
         <v>258</v>
       </c>
-      <c r="H32" s="166" t="s">
-        <v>272</v>
+      <c r="H32" s="164" t="s">
+        <v>271</v>
       </c>
       <c r="J32" s="158"/>
       <c r="K32" s="159"/>
       <c r="L32" s="159"/>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="165" t="s">
+      <c r="B33" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="C33" s="166" t="s">
+      <c r="C33" s="164" t="s">
         <v>258</v>
       </c>
-      <c r="D33" s="166" t="s">
-        <v>272</v>
+      <c r="D33" s="164" t="s">
+        <v>271</v>
       </c>
       <c r="E33" s="168"/>
-      <c r="F33" s="165" t="s">
+      <c r="F33" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="G33" s="166" t="s">
-        <v>286</v>
-      </c>
-      <c r="H33" s="166" t="s">
-        <v>272</v>
+      <c r="G33" s="164" t="s">
+        <v>285</v>
+      </c>
+      <c r="H33" s="164" t="s">
+        <v>271</v>
       </c>
       <c r="J33" s="158"/>
       <c r="K33" s="159"/>
       <c r="L33" s="159"/>
     </row>
     <row r="34" spans="2:16">
-      <c r="B34" s="165" t="s">
+      <c r="B34" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="C34" s="166" t="s">
-        <v>286</v>
-      </c>
-      <c r="D34" s="166" t="s">
-        <v>272</v>
+      <c r="C34" s="164" t="s">
+        <v>285</v>
+      </c>
+      <c r="D34" s="164" t="s">
+        <v>271</v>
       </c>
       <c r="E34" s="168"/>
-      <c r="F34" s="165" t="s">
+      <c r="F34" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="G34" s="166" t="s">
-        <v>262</v>
-      </c>
-      <c r="H34" s="166" t="s">
-        <v>272</v>
+      <c r="G34" s="164" t="s">
+        <v>261</v>
+      </c>
+      <c r="H34" s="164" t="s">
+        <v>271</v>
       </c>
       <c r="J34" s="158"/>
       <c r="K34" s="159"/>
@@ -9550,10 +9634,10 @@
         <v>222</v>
       </c>
       <c r="C35" s="164" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D35" s="164" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J35" s="158"/>
       <c r="K35" s="159"/>
@@ -9971,22 +10055,22 @@
       <c r="B15" s="92"/>
       <c r="C15" s="92"/>
       <c r="D15" s="94"/>
-      <c r="E15" s="199" t="s">
+      <c r="E15" s="204" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="200"/>
-      <c r="L15" s="200"/>
-      <c r="M15" s="200"/>
-      <c r="N15" s="200"/>
-      <c r="O15" s="200"/>
-      <c r="P15" s="200"/>
-      <c r="Q15" s="200"/>
-      <c r="R15" s="200"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="205"/>
+      <c r="H15" s="205"/>
+      <c r="I15" s="205"/>
+      <c r="J15" s="205"/>
+      <c r="K15" s="205"/>
+      <c r="L15" s="205"/>
+      <c r="M15" s="205"/>
+      <c r="N15" s="205"/>
+      <c r="O15" s="205"/>
+      <c r="P15" s="205"/>
+      <c r="Q15" s="205"/>
+      <c r="R15" s="205"/>
     </row>
     <row r="16" spans="1:18" s="67" customFormat="1" ht="13" customHeight="1">
       <c r="A16" s="107"/>
@@ -10013,22 +10097,22 @@
       <c r="B17" s="92"/>
       <c r="C17" s="92"/>
       <c r="D17" s="94"/>
-      <c r="E17" s="199" t="s">
+      <c r="E17" s="204" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="200"/>
-      <c r="G17" s="200"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="200"/>
-      <c r="L17" s="200"/>
-      <c r="M17" s="200"/>
-      <c r="N17" s="200"/>
-      <c r="O17" s="200"/>
-      <c r="P17" s="200"/>
-      <c r="Q17" s="200"/>
-      <c r="R17" s="200"/>
+      <c r="F17" s="205"/>
+      <c r="G17" s="205"/>
+      <c r="H17" s="205"/>
+      <c r="I17" s="205"/>
+      <c r="J17" s="205"/>
+      <c r="K17" s="205"/>
+      <c r="L17" s="205"/>
+      <c r="M17" s="205"/>
+      <c r="N17" s="205"/>
+      <c r="O17" s="205"/>
+      <c r="P17" s="205"/>
+      <c r="Q17" s="205"/>
+      <c r="R17" s="205"/>
     </row>
     <row r="18" spans="1:18" s="67" customFormat="1" ht="13" customHeight="1">
       <c r="A18" s="107"/>
@@ -10055,22 +10139,22 @@
       <c r="B19" s="92"/>
       <c r="C19" s="92"/>
       <c r="D19" s="94"/>
-      <c r="E19" s="199" t="s">
+      <c r="E19" s="204" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="200"/>
-      <c r="L19" s="200"/>
-      <c r="M19" s="200"/>
-      <c r="N19" s="200"/>
-      <c r="O19" s="200"/>
-      <c r="P19" s="200"/>
-      <c r="Q19" s="200"/>
-      <c r="R19" s="200"/>
+      <c r="F19" s="205"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="205"/>
+      <c r="J19" s="205"/>
+      <c r="K19" s="205"/>
+      <c r="L19" s="205"/>
+      <c r="M19" s="205"/>
+      <c r="N19" s="205"/>
+      <c r="O19" s="205"/>
+      <c r="P19" s="205"/>
+      <c r="Q19" s="205"/>
+      <c r="R19" s="205"/>
     </row>
     <row r="20" spans="1:18" s="67" customFormat="1" ht="17" customHeight="1">
       <c r="A20" s="107"/>
@@ -10141,22 +10225,22 @@
       <c r="B23" s="92"/>
       <c r="C23" s="92"/>
       <c r="D23" s="94"/>
-      <c r="E23" s="199" t="s">
+      <c r="E23" s="204" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="200"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="200"/>
-      <c r="I23" s="200"/>
-      <c r="J23" s="200"/>
-      <c r="K23" s="200"/>
-      <c r="L23" s="200"/>
-      <c r="M23" s="200"/>
-      <c r="N23" s="200"/>
-      <c r="O23" s="200"/>
-      <c r="P23" s="200"/>
-      <c r="Q23" s="200"/>
-      <c r="R23" s="200"/>
+      <c r="F23" s="205"/>
+      <c r="G23" s="205"/>
+      <c r="H23" s="205"/>
+      <c r="I23" s="205"/>
+      <c r="J23" s="205"/>
+      <c r="K23" s="205"/>
+      <c r="L23" s="205"/>
+      <c r="M23" s="205"/>
+      <c r="N23" s="205"/>
+      <c r="O23" s="205"/>
+      <c r="P23" s="205"/>
+      <c r="Q23" s="205"/>
+      <c r="R23" s="205"/>
     </row>
     <row r="24" spans="1:18" s="67" customFormat="1" ht="17" customHeight="1">
       <c r="A24" s="107"/>
@@ -10227,22 +10311,22 @@
       <c r="B27" s="92"/>
       <c r="C27" s="92"/>
       <c r="D27" s="94"/>
-      <c r="E27" s="199" t="s">
+      <c r="E27" s="204" t="s">
         <v>145</v>
       </c>
-      <c r="F27" s="200"/>
-      <c r="G27" s="200"/>
-      <c r="H27" s="200"/>
-      <c r="I27" s="200"/>
-      <c r="J27" s="200"/>
-      <c r="K27" s="200"/>
-      <c r="L27" s="200"/>
-      <c r="M27" s="200"/>
-      <c r="N27" s="200"/>
-      <c r="O27" s="200"/>
-      <c r="P27" s="200"/>
-      <c r="Q27" s="200"/>
-      <c r="R27" s="200"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="205"/>
+      <c r="I27" s="205"/>
+      <c r="J27" s="205"/>
+      <c r="K27" s="205"/>
+      <c r="L27" s="205"/>
+      <c r="M27" s="205"/>
+      <c r="N27" s="205"/>
+      <c r="O27" s="205"/>
+      <c r="P27" s="205"/>
+      <c r="Q27" s="205"/>
+      <c r="R27" s="205"/>
     </row>
     <row r="28" spans="1:18" s="67" customFormat="1" ht="17" customHeight="1">
       <c r="A28" s="107"/>
@@ -10313,22 +10397,22 @@
       <c r="B31" s="92"/>
       <c r="C31" s="92"/>
       <c r="D31" s="94"/>
-      <c r="E31" s="199" t="s">
+      <c r="E31" s="204" t="s">
         <v>211</v>
       </c>
-      <c r="F31" s="200"/>
-      <c r="G31" s="200"/>
-      <c r="H31" s="200"/>
-      <c r="I31" s="200"/>
-      <c r="J31" s="200"/>
-      <c r="K31" s="200"/>
-      <c r="L31" s="200"/>
-      <c r="M31" s="200"/>
-      <c r="N31" s="200"/>
-      <c r="O31" s="200"/>
-      <c r="P31" s="200"/>
-      <c r="Q31" s="200"/>
-      <c r="R31" s="200"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="205"/>
+      <c r="I31" s="205"/>
+      <c r="J31" s="205"/>
+      <c r="K31" s="205"/>
+      <c r="L31" s="205"/>
+      <c r="M31" s="205"/>
+      <c r="N31" s="205"/>
+      <c r="O31" s="205"/>
+      <c r="P31" s="205"/>
+      <c r="Q31" s="205"/>
+      <c r="R31" s="205"/>
     </row>
     <row r="32" spans="1:18" s="67" customFormat="1" ht="17" customHeight="1">
       <c r="A32" s="107"/>
@@ -10463,22 +10547,22 @@
       <c r="B38" s="92"/>
       <c r="C38" s="92"/>
       <c r="D38" s="94"/>
-      <c r="E38" s="199" t="s">
+      <c r="E38" s="204" t="s">
         <v>210</v>
       </c>
-      <c r="F38" s="200"/>
-      <c r="G38" s="200"/>
-      <c r="H38" s="200"/>
-      <c r="I38" s="200"/>
-      <c r="J38" s="200"/>
-      <c r="K38" s="200"/>
-      <c r="L38" s="200"/>
-      <c r="M38" s="200"/>
-      <c r="N38" s="200"/>
-      <c r="O38" s="200"/>
-      <c r="P38" s="200"/>
-      <c r="Q38" s="200"/>
-      <c r="R38" s="200"/>
+      <c r="F38" s="205"/>
+      <c r="G38" s="205"/>
+      <c r="H38" s="205"/>
+      <c r="I38" s="205"/>
+      <c r="J38" s="205"/>
+      <c r="K38" s="205"/>
+      <c r="L38" s="205"/>
+      <c r="M38" s="205"/>
+      <c r="N38" s="205"/>
+      <c r="O38" s="205"/>
+      <c r="P38" s="205"/>
+      <c r="Q38" s="205"/>
+      <c r="R38" s="205"/>
     </row>
     <row r="39" spans="1:18" s="67" customFormat="1" ht="17" customHeight="1">
       <c r="A39" s="107"/>
@@ -10657,16 +10741,16 @@
       <c r="B47" s="92"/>
       <c r="C47" s="92"/>
       <c r="D47" s="94"/>
-      <c r="E47" s="199" t="s">
+      <c r="E47" s="204" t="s">
         <v>204</v>
       </c>
-      <c r="F47" s="201"/>
+      <c r="F47" s="206"/>
       <c r="G47" s="94"/>
-      <c r="H47" s="199" t="s">
+      <c r="H47" s="204" t="s">
         <v>205</v>
       </c>
-      <c r="I47" s="200"/>
-      <c r="J47" s="200"/>
+      <c r="I47" s="205"/>
+      <c r="J47" s="205"/>
       <c r="K47" s="92"/>
       <c r="L47" s="92"/>
       <c r="M47" s="92"/>
@@ -10874,22 +10958,22 @@
       <c r="B57" s="92"/>
       <c r="C57" s="92"/>
       <c r="D57" s="94"/>
-      <c r="E57" s="199" t="s">
+      <c r="E57" s="204" t="s">
         <v>147</v>
       </c>
-      <c r="F57" s="200"/>
-      <c r="G57" s="200"/>
-      <c r="H57" s="200"/>
-      <c r="I57" s="200"/>
-      <c r="J57" s="200"/>
-      <c r="K57" s="200"/>
-      <c r="L57" s="200"/>
-      <c r="M57" s="200"/>
-      <c r="N57" s="200"/>
-      <c r="O57" s="200"/>
-      <c r="P57" s="200"/>
-      <c r="Q57" s="200"/>
-      <c r="R57" s="200"/>
+      <c r="F57" s="205"/>
+      <c r="G57" s="205"/>
+      <c r="H57" s="205"/>
+      <c r="I57" s="205"/>
+      <c r="J57" s="205"/>
+      <c r="K57" s="205"/>
+      <c r="L57" s="205"/>
+      <c r="M57" s="205"/>
+      <c r="N57" s="205"/>
+      <c r="O57" s="205"/>
+      <c r="P57" s="205"/>
+      <c r="Q57" s="205"/>
+      <c r="R57" s="205"/>
     </row>
     <row r="58" spans="1:18" s="67" customFormat="1" ht="17" customHeight="1">
       <c r="A58" s="107"/>
@@ -10960,22 +11044,22 @@
       <c r="B61" s="66"/>
       <c r="C61" s="66"/>
       <c r="D61" s="71"/>
-      <c r="E61" s="197" t="s">
+      <c r="E61" s="202" t="s">
         <v>178</v>
       </c>
-      <c r="F61" s="198"/>
-      <c r="G61" s="198"/>
-      <c r="H61" s="198"/>
-      <c r="I61" s="198"/>
-      <c r="J61" s="198"/>
-      <c r="K61" s="198"/>
-      <c r="L61" s="198"/>
-      <c r="M61" s="198"/>
-      <c r="N61" s="198"/>
-      <c r="O61" s="198"/>
-      <c r="P61" s="198"/>
-      <c r="Q61" s="198"/>
-      <c r="R61" s="198"/>
+      <c r="F61" s="203"/>
+      <c r="G61" s="203"/>
+      <c r="H61" s="203"/>
+      <c r="I61" s="203"/>
+      <c r="J61" s="203"/>
+      <c r="K61" s="203"/>
+      <c r="L61" s="203"/>
+      <c r="M61" s="203"/>
+      <c r="N61" s="203"/>
+      <c r="O61" s="203"/>
+      <c r="P61" s="203"/>
+      <c r="Q61" s="203"/>
+      <c r="R61" s="203"/>
     </row>
     <row r="62" spans="1:18" s="67" customFormat="1" ht="17" customHeight="1">
       <c r="A62" s="107"/>
@@ -11308,22 +11392,22 @@
       <c r="B77" s="66"/>
       <c r="C77" s="66"/>
       <c r="D77" s="71"/>
-      <c r="E77" s="197" t="s">
+      <c r="E77" s="202" t="s">
         <v>179</v>
       </c>
-      <c r="F77" s="198"/>
-      <c r="G77" s="198"/>
-      <c r="H77" s="198"/>
-      <c r="I77" s="198"/>
-      <c r="J77" s="198"/>
-      <c r="K77" s="198"/>
-      <c r="L77" s="198"/>
-      <c r="M77" s="198"/>
-      <c r="N77" s="198"/>
-      <c r="O77" s="198"/>
-      <c r="P77" s="198"/>
-      <c r="Q77" s="198"/>
-      <c r="R77" s="198"/>
+      <c r="F77" s="203"/>
+      <c r="G77" s="203"/>
+      <c r="H77" s="203"/>
+      <c r="I77" s="203"/>
+      <c r="J77" s="203"/>
+      <c r="K77" s="203"/>
+      <c r="L77" s="203"/>
+      <c r="M77" s="203"/>
+      <c r="N77" s="203"/>
+      <c r="O77" s="203"/>
+      <c r="P77" s="203"/>
+      <c r="Q77" s="203"/>
+      <c r="R77" s="203"/>
     </row>
     <row r="78" spans="1:18" s="67" customFormat="1" ht="13" customHeight="1">
       <c r="A78" s="107"/>
@@ -11350,22 +11434,22 @@
       <c r="B79" s="66"/>
       <c r="C79" s="66"/>
       <c r="D79" s="71"/>
-      <c r="E79" s="197" t="s">
+      <c r="E79" s="202" t="s">
         <v>180</v>
       </c>
-      <c r="F79" s="198"/>
-      <c r="G79" s="198"/>
-      <c r="H79" s="198"/>
-      <c r="I79" s="198"/>
-      <c r="J79" s="198"/>
-      <c r="K79" s="198"/>
-      <c r="L79" s="198"/>
-      <c r="M79" s="198"/>
-      <c r="N79" s="198"/>
-      <c r="O79" s="198"/>
-      <c r="P79" s="198"/>
-      <c r="Q79" s="198"/>
-      <c r="R79" s="198"/>
+      <c r="F79" s="203"/>
+      <c r="G79" s="203"/>
+      <c r="H79" s="203"/>
+      <c r="I79" s="203"/>
+      <c r="J79" s="203"/>
+      <c r="K79" s="203"/>
+      <c r="L79" s="203"/>
+      <c r="M79" s="203"/>
+      <c r="N79" s="203"/>
+      <c r="O79" s="203"/>
+      <c r="P79" s="203"/>
+      <c r="Q79" s="203"/>
+      <c r="R79" s="203"/>
     </row>
     <row r="80" spans="1:18" s="67" customFormat="1" ht="13" customHeight="1">
       <c r="A80" s="107"/>
@@ -11392,22 +11476,22 @@
       <c r="B81" s="66"/>
       <c r="C81" s="66"/>
       <c r="D81" s="71"/>
-      <c r="E81" s="197" t="s">
+      <c r="E81" s="202" t="s">
         <v>181</v>
       </c>
-      <c r="F81" s="198"/>
-      <c r="G81" s="198"/>
-      <c r="H81" s="198"/>
-      <c r="I81" s="198"/>
-      <c r="J81" s="198"/>
-      <c r="K81" s="198"/>
-      <c r="L81" s="198"/>
-      <c r="M81" s="198"/>
-      <c r="N81" s="198"/>
-      <c r="O81" s="198"/>
-      <c r="P81" s="198"/>
-      <c r="Q81" s="198"/>
-      <c r="R81" s="198"/>
+      <c r="F81" s="203"/>
+      <c r="G81" s="203"/>
+      <c r="H81" s="203"/>
+      <c r="I81" s="203"/>
+      <c r="J81" s="203"/>
+      <c r="K81" s="203"/>
+      <c r="L81" s="203"/>
+      <c r="M81" s="203"/>
+      <c r="N81" s="203"/>
+      <c r="O81" s="203"/>
+      <c r="P81" s="203"/>
+      <c r="Q81" s="203"/>
+      <c r="R81" s="203"/>
     </row>
     <row r="82" spans="1:18" s="67" customFormat="1" ht="13" customHeight="1">
       <c r="A82" s="107"/>
@@ -11434,22 +11518,22 @@
       <c r="B83" s="66"/>
       <c r="C83" s="66"/>
       <c r="D83" s="71"/>
-      <c r="E83" s="197" t="s">
+      <c r="E83" s="202" t="s">
         <v>182</v>
       </c>
-      <c r="F83" s="198"/>
-      <c r="G83" s="198"/>
-      <c r="H83" s="198"/>
-      <c r="I83" s="198"/>
-      <c r="J83" s="198"/>
-      <c r="K83" s="198"/>
-      <c r="L83" s="198"/>
-      <c r="M83" s="198"/>
-      <c r="N83" s="198"/>
-      <c r="O83" s="198"/>
-      <c r="P83" s="198"/>
-      <c r="Q83" s="198"/>
-      <c r="R83" s="198"/>
+      <c r="F83" s="203"/>
+      <c r="G83" s="203"/>
+      <c r="H83" s="203"/>
+      <c r="I83" s="203"/>
+      <c r="J83" s="203"/>
+      <c r="K83" s="203"/>
+      <c r="L83" s="203"/>
+      <c r="M83" s="203"/>
+      <c r="N83" s="203"/>
+      <c r="O83" s="203"/>
+      <c r="P83" s="203"/>
+      <c r="Q83" s="203"/>
+      <c r="R83" s="203"/>
     </row>
     <row r="84" spans="1:18" s="67" customFormat="1" ht="13" customHeight="1">
       <c r="A84" s="107"/>
@@ -11476,22 +11560,22 @@
       <c r="B85" s="66"/>
       <c r="C85" s="66"/>
       <c r="D85" s="71"/>
-      <c r="E85" s="197" t="s">
+      <c r="E85" s="202" t="s">
         <v>183</v>
       </c>
-      <c r="F85" s="198"/>
-      <c r="G85" s="198"/>
-      <c r="H85" s="198"/>
-      <c r="I85" s="198"/>
-      <c r="J85" s="198"/>
-      <c r="K85" s="198"/>
-      <c r="L85" s="198"/>
-      <c r="M85" s="198"/>
-      <c r="N85" s="198"/>
-      <c r="O85" s="198"/>
-      <c r="P85" s="198"/>
-      <c r="Q85" s="198"/>
-      <c r="R85" s="198"/>
+      <c r="F85" s="203"/>
+      <c r="G85" s="203"/>
+      <c r="H85" s="203"/>
+      <c r="I85" s="203"/>
+      <c r="J85" s="203"/>
+      <c r="K85" s="203"/>
+      <c r="L85" s="203"/>
+      <c r="M85" s="203"/>
+      <c r="N85" s="203"/>
+      <c r="O85" s="203"/>
+      <c r="P85" s="203"/>
+      <c r="Q85" s="203"/>
+      <c r="R85" s="203"/>
     </row>
     <row r="86" spans="1:18" s="67" customFormat="1" ht="13" customHeight="1">
       <c r="A86" s="107"/>
@@ -11518,22 +11602,22 @@
       <c r="B87" s="66"/>
       <c r="C87" s="66"/>
       <c r="D87" s="71"/>
-      <c r="E87" s="197" t="s">
+      <c r="E87" s="202" t="s">
         <v>184</v>
       </c>
-      <c r="F87" s="198"/>
-      <c r="G87" s="198"/>
-      <c r="H87" s="198"/>
-      <c r="I87" s="198"/>
-      <c r="J87" s="198"/>
-      <c r="K87" s="198"/>
-      <c r="L87" s="198"/>
-      <c r="M87" s="198"/>
-      <c r="N87" s="198"/>
-      <c r="O87" s="198"/>
-      <c r="P87" s="198"/>
-      <c r="Q87" s="198"/>
-      <c r="R87" s="198"/>
+      <c r="F87" s="203"/>
+      <c r="G87" s="203"/>
+      <c r="H87" s="203"/>
+      <c r="I87" s="203"/>
+      <c r="J87" s="203"/>
+      <c r="K87" s="203"/>
+      <c r="L87" s="203"/>
+      <c r="M87" s="203"/>
+      <c r="N87" s="203"/>
+      <c r="O87" s="203"/>
+      <c r="P87" s="203"/>
+      <c r="Q87" s="203"/>
+      <c r="R87" s="203"/>
     </row>
     <row r="88" spans="1:18" s="67" customFormat="1" ht="13" customHeight="1">
       <c r="A88" s="107"/>
@@ -11560,22 +11644,22 @@
       <c r="B89" s="66"/>
       <c r="C89" s="66"/>
       <c r="D89" s="71"/>
-      <c r="E89" s="197" t="s">
+      <c r="E89" s="202" t="s">
         <v>185</v>
       </c>
-      <c r="F89" s="198"/>
-      <c r="G89" s="198"/>
-      <c r="H89" s="198"/>
-      <c r="I89" s="198"/>
-      <c r="J89" s="198"/>
-      <c r="K89" s="198"/>
-      <c r="L89" s="198"/>
-      <c r="M89" s="198"/>
-      <c r="N89" s="198"/>
-      <c r="O89" s="198"/>
-      <c r="P89" s="198"/>
-      <c r="Q89" s="198"/>
-      <c r="R89" s="198"/>
+      <c r="F89" s="203"/>
+      <c r="G89" s="203"/>
+      <c r="H89" s="203"/>
+      <c r="I89" s="203"/>
+      <c r="J89" s="203"/>
+      <c r="K89" s="203"/>
+      <c r="L89" s="203"/>
+      <c r="M89" s="203"/>
+      <c r="N89" s="203"/>
+      <c r="O89" s="203"/>
+      <c r="P89" s="203"/>
+      <c r="Q89" s="203"/>
+      <c r="R89" s="203"/>
     </row>
     <row r="90" spans="1:18" s="67" customFormat="1" ht="17" customHeight="1">
       <c r="A90" s="107"/>
@@ -12475,6 +12559,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E89:R89"/>
+    <mergeCell ref="E77:R77"/>
+    <mergeCell ref="E79:R79"/>
+    <mergeCell ref="E81:R81"/>
+    <mergeCell ref="E83:R83"/>
+    <mergeCell ref="E85:R85"/>
+    <mergeCell ref="E87:R87"/>
     <mergeCell ref="E61:R61"/>
     <mergeCell ref="E19:R19"/>
     <mergeCell ref="E17:R17"/>
@@ -12486,13 +12577,6 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="E57:R57"/>
-    <mergeCell ref="E89:R89"/>
-    <mergeCell ref="E77:R77"/>
-    <mergeCell ref="E79:R79"/>
-    <mergeCell ref="E81:R81"/>
-    <mergeCell ref="E83:R83"/>
-    <mergeCell ref="E85:R85"/>
-    <mergeCell ref="E87:R87"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -12523,17 +12607,17 @@
   <sheetData>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
